--- a/요구사항분석.xlsx
+++ b/요구사항분석.xlsx
@@ -1364,18 +1364,162 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1385,22 +1529,40 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1409,73 +1571,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1490,131 +1586,35 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1639,13 +1639,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>42863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1697,13 +1697,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>42863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1747,6 +1747,13 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
             <a:t>(HMI)</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
@@ -1759,13 +1766,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1810,7 +1817,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="540597" cy="264560"/>
@@ -1862,15 +1869,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>94748</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47123</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1879,7 +1886,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1076325" y="2276475"/>
+          <a:off x="1133475" y="3276600"/>
           <a:ext cx="2133600" cy="1799723"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2085,13 +2092,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>42863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2143,13 +2150,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2193,8 +2200,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="434927" cy="264560"/>
@@ -2205,7 +2212,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5038725" y="1581150"/>
+          <a:off x="5086350" y="1162050"/>
           <a:ext cx="434927" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2245,16 +2252,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>151401</xdr:rowOff>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>113301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2263,7 +2270,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4362449" y="2266950"/>
+          <a:off x="4610099" y="3276600"/>
           <a:ext cx="2009775" cy="1656351"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2463,13 +2470,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>42863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2521,13 +2528,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2572,7 +2579,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="540597" cy="264560"/>
@@ -2621,6 +2628,490 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="순서도: 대체 처리 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361951" y="2471738"/>
+          <a:ext cx="704850" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4CH Height Sensor</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="순서도: 대체 처리 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343276" y="2471738"/>
+          <a:ext cx="838200" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>보드</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(HMI)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="직선 화살표 연결선 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066801" y="2828926"/>
+          <a:ext cx="2276475" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="540597" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="2552700"/>
+          <a:ext cx="540597" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>RS485</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="직선 화살표 연결선 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4181476" y="1866901"/>
+          <a:ext cx="2266950" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="552011" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238625" y="1543050"/>
+          <a:ext cx="552011" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Server</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="516232" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5886450" y="1581150"/>
+          <a:ext cx="516232" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Client</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="552011" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="2400300"/>
+          <a:ext cx="552011" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Server</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>161107</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7010400" y="2476500"/>
+          <a:ext cx="6542857" cy="3857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2879,7 +3370,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2887,10 +3378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B23:C27"/>
+  <dimension ref="B27:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2899,28 +3390,28 @@
     <col min="71" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="45" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="45" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="45" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="45" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="45" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="45" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="45" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="45" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="45" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="45" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2965,419 +3456,419 @@
   <sheetData>
     <row r="13" spans="4:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D14" s="94" t="s">
+      <c r="D14" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="96"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="82"/>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D15" s="97"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="99"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="85"/>
     </row>
     <row r="16" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D16" s="97"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="99"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="85"/>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D17" s="97"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="99"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="85"/>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D18" s="97"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="99"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="85"/>
     </row>
     <row r="19" spans="4:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="100"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="102"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="88"/>
     </row>
     <row r="33" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="3:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="103" t="s">
+      <c r="C34" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104" t="s">
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="104" t="s">
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="104" t="s">
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="M34" s="106"/>
-      <c r="N34" s="106"/>
-      <c r="O34" s="106"/>
-      <c r="P34" s="106"/>
-      <c r="Q34" s="106"/>
-      <c r="R34" s="107"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="91"/>
       <c r="S34" s="43"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C35" s="91" t="s">
+      <c r="C35" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="93" t="s">
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="108" t="s">
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="M35" s="109"/>
-      <c r="N35" s="109"/>
-      <c r="O35" s="109"/>
-      <c r="P35" s="109"/>
-      <c r="Q35" s="109"/>
-      <c r="R35" s="110"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
+      <c r="R35" s="94"/>
       <c r="S35" s="44"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C36" s="91" t="s">
+      <c r="C36" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="93" t="s">
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="111" t="s">
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="M36" s="112"/>
-      <c r="N36" s="112"/>
-      <c r="O36" s="112"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="112"/>
-      <c r="R36" s="113"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="48"/>
       <c r="S36" s="44"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C37" s="91" t="s">
+      <c r="C37" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="93" t="s">
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="115"/>
-      <c r="L37" s="111" t="s">
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="M37" s="112"/>
-      <c r="N37" s="112"/>
-      <c r="O37" s="112"/>
-      <c r="P37" s="112"/>
-      <c r="Q37" s="112"/>
-      <c r="R37" s="113"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="48"/>
       <c r="S37" s="44"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C38" s="91" t="s">
+      <c r="C38" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="93" t="s">
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="111" t="s">
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="M38" s="112"/>
-      <c r="N38" s="112"/>
-      <c r="O38" s="112"/>
-      <c r="P38" s="112"/>
-      <c r="Q38" s="112"/>
-      <c r="R38" s="113"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="48"/>
       <c r="S38" s="44"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C39" s="91"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="115"/>
-      <c r="L39" s="111"/>
-      <c r="M39" s="112"/>
-      <c r="N39" s="112"/>
-      <c r="O39" s="112"/>
-      <c r="P39" s="112"/>
-      <c r="Q39" s="112"/>
-      <c r="R39" s="113"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="48"/>
       <c r="S39" s="44"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C40" s="114"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="115"/>
-      <c r="L40" s="122"/>
-      <c r="M40" s="112"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="112"/>
-      <c r="P40" s="112"/>
-      <c r="Q40" s="112"/>
-      <c r="R40" s="113"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="48"/>
       <c r="S40" s="44"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C41" s="114"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="115"/>
-      <c r="K41" s="115"/>
-      <c r="L41" s="122"/>
-      <c r="M41" s="112"/>
-      <c r="N41" s="112"/>
-      <c r="O41" s="112"/>
-      <c r="P41" s="112"/>
-      <c r="Q41" s="112"/>
-      <c r="R41" s="113"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="48"/>
       <c r="S41" s="44"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C42" s="114"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="117"/>
-      <c r="J42" s="115"/>
-      <c r="K42" s="115"/>
-      <c r="L42" s="122"/>
-      <c r="M42" s="112"/>
-      <c r="N42" s="112"/>
-      <c r="O42" s="112"/>
-      <c r="P42" s="112"/>
-      <c r="Q42" s="112"/>
-      <c r="R42" s="113"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="48"/>
       <c r="S42" s="44"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C43" s="114"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="117"/>
-      <c r="J43" s="115"/>
-      <c r="K43" s="115"/>
-      <c r="L43" s="122"/>
-      <c r="M43" s="112"/>
-      <c r="N43" s="112"/>
-      <c r="O43" s="112"/>
-      <c r="P43" s="112"/>
-      <c r="Q43" s="112"/>
-      <c r="R43" s="113"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="48"/>
       <c r="S43" s="44"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C44" s="114"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="115"/>
-      <c r="L44" s="122"/>
-      <c r="M44" s="112"/>
-      <c r="N44" s="112"/>
-      <c r="O44" s="112"/>
-      <c r="P44" s="112"/>
-      <c r="Q44" s="112"/>
-      <c r="R44" s="113"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
+      <c r="R44" s="48"/>
       <c r="S44" s="44"/>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C45" s="114"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="116"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="117"/>
-      <c r="J45" s="115"/>
-      <c r="K45" s="115"/>
-      <c r="L45" s="122"/>
-      <c r="M45" s="112"/>
-      <c r="N45" s="112"/>
-      <c r="O45" s="112"/>
-      <c r="P45" s="112"/>
-      <c r="Q45" s="112"/>
-      <c r="R45" s="113"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="48"/>
       <c r="S45" s="44"/>
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C46" s="114"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="117"/>
-      <c r="J46" s="115"/>
-      <c r="K46" s="115"/>
-      <c r="L46" s="122"/>
-      <c r="M46" s="112"/>
-      <c r="N46" s="112"/>
-      <c r="O46" s="112"/>
-      <c r="P46" s="112"/>
-      <c r="Q46" s="112"/>
-      <c r="R46" s="113"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="48"/>
       <c r="S46" s="44"/>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C47" s="114"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="115"/>
-      <c r="K47" s="115"/>
-      <c r="L47" s="122"/>
-      <c r="M47" s="112"/>
-      <c r="N47" s="112"/>
-      <c r="O47" s="112"/>
-      <c r="P47" s="112"/>
-      <c r="Q47" s="112"/>
-      <c r="R47" s="113"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
+      <c r="R47" s="48"/>
       <c r="S47" s="44"/>
     </row>
     <row r="48" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="118"/>
-      <c r="D48" s="119"/>
-      <c r="E48" s="119"/>
-      <c r="F48" s="120"/>
-      <c r="G48" s="119"/>
-      <c r="H48" s="119"/>
-      <c r="I48" s="129"/>
-      <c r="J48" s="119"/>
-      <c r="K48" s="119"/>
-      <c r="L48" s="126"/>
-      <c r="M48" s="127"/>
-      <c r="N48" s="127"/>
-      <c r="O48" s="127"/>
-      <c r="P48" s="127"/>
-      <c r="Q48" s="127"/>
-      <c r="R48" s="128"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="57"/>
       <c r="S48" s="44"/>
     </row>
     <row r="54" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
@@ -3489,57 +3980,57 @@
       </c>
     </row>
     <row r="71" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="46" t="s">
+      <c r="B71" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C71" s="46" t="s">
+      <c r="C71" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D71" s="82" t="s">
+      <c r="D71" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E71" s="61" t="s">
+      <c r="E71" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="62"/>
-      <c r="G71" s="61" t="s">
+      <c r="F71" s="61"/>
+      <c r="G71" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="62"/>
-      <c r="I71" s="61" t="s">
+      <c r="H71" s="61"/>
+      <c r="I71" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="J71" s="62"/>
-      <c r="K71" s="61" t="s">
+      <c r="J71" s="61"/>
+      <c r="K71" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="L71" s="62"/>
-      <c r="M71" s="61" t="s">
+      <c r="L71" s="61"/>
+      <c r="M71" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="N71" s="62"/>
-      <c r="O71" s="61" t="s">
+      <c r="N71" s="61"/>
+      <c r="O71" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="P71" s="62"/>
-      <c r="Q71" s="46" t="s">
+      <c r="P71" s="61"/>
+      <c r="Q71" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="R71" s="55" t="s">
+      <c r="R71" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="S71" s="56"/>
-      <c r="T71" s="46" t="s">
+      <c r="S71" s="67"/>
+      <c r="T71" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="U71" s="46" t="s">
+      <c r="U71" s="62" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="84"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="98"/>
+      <c r="D72" s="116"/>
       <c r="E72" s="7" t="s">
         <v>3</v>
       </c>
@@ -3577,10 +4068,10 @@
         <v>4</v>
       </c>
       <c r="Q72" s="63"/>
-      <c r="R72" s="57"/>
-      <c r="S72" s="58"/>
-      <c r="T72" s="47"/>
-      <c r="U72" s="47"/>
+      <c r="R72" s="68"/>
+      <c r="S72" s="69"/>
+      <c r="T72" s="97"/>
+      <c r="U72" s="97"/>
     </row>
     <row r="73" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="8" t="s">
@@ -3670,84 +4161,84 @@
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C82" s="85" t="s">
+      <c r="C82" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="86"/>
-      <c r="E82" s="86"/>
-      <c r="F82" s="87"/>
-      <c r="G82" s="85" t="s">
+      <c r="D82" s="118"/>
+      <c r="E82" s="118"/>
+      <c r="F82" s="119"/>
+      <c r="G82" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="H82" s="86"/>
-      <c r="I82" s="86"/>
-      <c r="J82" s="87"/>
-      <c r="K82" s="123" t="s">
+      <c r="H82" s="118"/>
+      <c r="I82" s="118"/>
+      <c r="J82" s="119"/>
+      <c r="K82" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="L82" s="124"/>
-      <c r="M82" s="124"/>
-      <c r="N82" s="125"/>
+      <c r="L82" s="51"/>
+      <c r="M82" s="51"/>
+      <c r="N82" s="52"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C83" s="88" t="s">
+      <c r="C83" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D83" s="89"/>
-      <c r="E83" s="89"/>
-      <c r="F83" s="90"/>
-      <c r="G83" s="88" t="s">
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="120"/>
+      <c r="G83" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="H83" s="89"/>
-      <c r="I83" s="89"/>
-      <c r="J83" s="90"/>
-      <c r="K83" s="88" t="s">
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="120"/>
+      <c r="K83" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="L83" s="89"/>
-      <c r="M83" s="89"/>
-      <c r="N83" s="125"/>
+      <c r="L83" s="54"/>
+      <c r="M83" s="54"/>
+      <c r="N83" s="52"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C84" s="88" t="s">
+      <c r="C84" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D84" s="89"/>
-      <c r="E84" s="89"/>
-      <c r="F84" s="90"/>
-      <c r="G84" s="88" t="s">
+      <c r="D84" s="54"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="120"/>
+      <c r="G84" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="H84" s="89"/>
-      <c r="I84" s="89"/>
-      <c r="J84" s="90"/>
-      <c r="K84" s="88" t="s">
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="120"/>
+      <c r="K84" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="L84" s="89"/>
-      <c r="M84" s="89"/>
-      <c r="N84" s="125"/>
+      <c r="L84" s="54"/>
+      <c r="M84" s="54"/>
+      <c r="N84" s="52"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C85" s="88" t="s">
+      <c r="C85" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D85" s="89"/>
-      <c r="E85" s="89"/>
-      <c r="F85" s="90"/>
-      <c r="G85" s="88" t="s">
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="120"/>
+      <c r="G85" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="H85" s="89"/>
-      <c r="I85" s="89"/>
-      <c r="J85" s="90"/>
-      <c r="K85" s="88" t="s">
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="120"/>
+      <c r="K85" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L85" s="89"/>
-      <c r="M85" s="89"/>
-      <c r="N85" s="125"/>
+      <c r="L85" s="54"/>
+      <c r="M85" s="54"/>
+      <c r="N85" s="52"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C86" s="16"/>
@@ -4024,57 +4515,57 @@
       </c>
     </row>
     <row r="116" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="46" t="s">
+      <c r="B116" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C116" s="46" t="s">
+      <c r="C116" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D116" s="51" t="s">
+      <c r="D116" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="E116" s="61" t="s">
+      <c r="E116" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="F116" s="62"/>
-      <c r="G116" s="61" t="s">
+      <c r="F116" s="61"/>
+      <c r="G116" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H116" s="62"/>
-      <c r="I116" s="61" t="s">
+      <c r="H116" s="61"/>
+      <c r="I116" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="J116" s="62"/>
-      <c r="K116" s="61" t="s">
+      <c r="J116" s="61"/>
+      <c r="K116" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="L116" s="62"/>
-      <c r="M116" s="61" t="s">
+      <c r="L116" s="61"/>
+      <c r="M116" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="N116" s="62"/>
-      <c r="O116" s="61" t="s">
+      <c r="N116" s="61"/>
+      <c r="O116" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="P116" s="62"/>
-      <c r="Q116" s="46" t="s">
+      <c r="P116" s="61"/>
+      <c r="Q116" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="R116" s="55" t="s">
+      <c r="R116" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="S116" s="56"/>
-      <c r="T116" s="46" t="s">
+      <c r="S116" s="67"/>
+      <c r="T116" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="U116" s="46" t="s">
+      <c r="U116" s="62" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="117" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="50"/>
-      <c r="C117" s="50"/>
-      <c r="D117" s="52"/>
+      <c r="B117" s="98"/>
+      <c r="C117" s="98"/>
+      <c r="D117" s="100"/>
       <c r="E117" s="7" t="s">
         <v>3</v>
       </c>
@@ -4112,10 +4603,10 @@
         <v>4</v>
       </c>
       <c r="Q117" s="63"/>
-      <c r="R117" s="57"/>
-      <c r="S117" s="58"/>
-      <c r="T117" s="47"/>
-      <c r="U117" s="47"/>
+      <c r="R117" s="68"/>
+      <c r="S117" s="69"/>
+      <c r="T117" s="97"/>
+      <c r="U117" s="97"/>
     </row>
     <row r="118" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B118" s="8" t="s">
@@ -4316,57 +4807,57 @@
       </c>
     </row>
     <row r="126" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="46" t="s">
+      <c r="B126" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C126" s="46" t="s">
+      <c r="C126" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D126" s="51" t="s">
+      <c r="D126" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="E126" s="70" t="s">
+      <c r="E126" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="F126" s="71"/>
-      <c r="G126" s="72" t="s">
+      <c r="F126" s="102"/>
+      <c r="G126" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="H126" s="73"/>
-      <c r="I126" s="74" t="s">
+      <c r="H126" s="104"/>
+      <c r="I126" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="J126" s="75"/>
-      <c r="K126" s="64" t="s">
+      <c r="J126" s="106"/>
+      <c r="K126" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="L126" s="65"/>
-      <c r="M126" s="66" t="s">
+      <c r="L126" s="108"/>
+      <c r="M126" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="N126" s="67"/>
-      <c r="O126" s="68" t="s">
+      <c r="N126" s="110"/>
+      <c r="O126" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="P126" s="69"/>
-      <c r="Q126" s="48" t="s">
+      <c r="P126" s="112"/>
+      <c r="Q126" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="R126" s="76" t="s">
+      <c r="R126" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="S126" s="56"/>
-      <c r="T126" s="46" t="s">
+      <c r="S126" s="67"/>
+      <c r="T126" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="U126" s="46" t="s">
+      <c r="U126" s="62" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="127" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="50"/>
-      <c r="C127" s="50"/>
-      <c r="D127" s="52"/>
+      <c r="B127" s="98"/>
+      <c r="C127" s="98"/>
+      <c r="D127" s="100"/>
       <c r="E127" s="22" t="s">
         <v>3</v>
       </c>
@@ -4403,11 +4894,11 @@
       <c r="P127" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q127" s="49"/>
-      <c r="R127" s="77"/>
-      <c r="S127" s="58"/>
-      <c r="T127" s="47"/>
-      <c r="U127" s="47"/>
+      <c r="Q127" s="96"/>
+      <c r="R127" s="122"/>
+      <c r="S127" s="69"/>
+      <c r="T127" s="97"/>
+      <c r="U127" s="97"/>
     </row>
     <row r="128" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B128" s="8" t="s">
@@ -4574,57 +5065,57 @@
       </c>
     </row>
     <row r="145" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="46" t="s">
+      <c r="B145" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C145" s="46" t="s">
+      <c r="C145" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D145" s="51" t="s">
+      <c r="D145" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="E145" s="61" t="s">
+      <c r="E145" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="F145" s="62"/>
-      <c r="G145" s="61" t="s">
+      <c r="F145" s="61"/>
+      <c r="G145" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H145" s="62"/>
-      <c r="I145" s="61" t="s">
+      <c r="H145" s="61"/>
+      <c r="I145" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="J145" s="62"/>
-      <c r="K145" s="61" t="s">
+      <c r="J145" s="61"/>
+      <c r="K145" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="L145" s="62"/>
-      <c r="M145" s="78" t="s">
+      <c r="L145" s="61"/>
+      <c r="M145" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="N145" s="79"/>
-      <c r="O145" s="80" t="s">
+      <c r="N145" s="124"/>
+      <c r="O145" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="P145" s="81"/>
-      <c r="Q145" s="82" t="s">
+      <c r="P145" s="126"/>
+      <c r="Q145" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="R145" s="55" t="s">
+      <c r="R145" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="S145" s="56"/>
-      <c r="T145" s="46" t="s">
+      <c r="S145" s="67"/>
+      <c r="T145" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="U145" s="46" t="s">
+      <c r="U145" s="62" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="146" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="50"/>
-      <c r="C146" s="50"/>
-      <c r="D146" s="52"/>
+      <c r="B146" s="98"/>
+      <c r="C146" s="98"/>
+      <c r="D146" s="100"/>
       <c r="E146" s="7" t="s">
         <v>3</v>
       </c>
@@ -4661,11 +5152,11 @@
       <c r="P146" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q146" s="83"/>
-      <c r="R146" s="57"/>
-      <c r="S146" s="58"/>
-      <c r="T146" s="47"/>
-      <c r="U146" s="47"/>
+      <c r="Q146" s="127"/>
+      <c r="R146" s="68"/>
+      <c r="S146" s="69"/>
+      <c r="T146" s="97"/>
+      <c r="U146" s="97"/>
     </row>
     <row r="147" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B147" s="8" t="s">
@@ -4797,57 +5288,57 @@
       </c>
     </row>
     <row r="151" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="46" t="s">
+      <c r="B151" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C151" s="46" t="s">
+      <c r="C151" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D151" s="51" t="s">
+      <c r="D151" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="E151" s="70" t="s">
+      <c r="E151" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="F151" s="71"/>
-      <c r="G151" s="72" t="s">
+      <c r="F151" s="102"/>
+      <c r="G151" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="H151" s="73"/>
-      <c r="I151" s="74" t="s">
+      <c r="H151" s="104"/>
+      <c r="I151" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="J151" s="75"/>
-      <c r="K151" s="64" t="s">
+      <c r="J151" s="106"/>
+      <c r="K151" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="L151" s="65"/>
-      <c r="M151" s="66" t="s">
+      <c r="L151" s="108"/>
+      <c r="M151" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="N151" s="67"/>
-      <c r="O151" s="68" t="s">
+      <c r="N151" s="110"/>
+      <c r="O151" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="P151" s="69"/>
-      <c r="Q151" s="48" t="s">
+      <c r="P151" s="112"/>
+      <c r="Q151" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="R151" s="76" t="s">
+      <c r="R151" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="S151" s="56"/>
-      <c r="T151" s="46" t="s">
+      <c r="S151" s="67"/>
+      <c r="T151" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="U151" s="46" t="s">
+      <c r="U151" s="62" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="152" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="50"/>
-      <c r="C152" s="50"/>
-      <c r="D152" s="52"/>
+      <c r="B152" s="98"/>
+      <c r="C152" s="98"/>
+      <c r="D152" s="100"/>
       <c r="E152" s="22" t="s">
         <v>3</v>
       </c>
@@ -4884,11 +5375,11 @@
       <c r="P152" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q152" s="49"/>
-      <c r="R152" s="77"/>
-      <c r="S152" s="58"/>
-      <c r="T152" s="47"/>
-      <c r="U152" s="47"/>
+      <c r="Q152" s="96"/>
+      <c r="R152" s="122"/>
+      <c r="S152" s="69"/>
+      <c r="T152" s="97"/>
+      <c r="U152" s="97"/>
     </row>
     <row r="153" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B153" s="8" t="s">
@@ -5035,57 +5526,57 @@
       </c>
     </row>
     <row r="163" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="46" t="s">
+      <c r="B163" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C163" s="46" t="s">
+      <c r="C163" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D163" s="51" t="s">
+      <c r="D163" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="E163" s="70" t="s">
+      <c r="E163" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="F163" s="71"/>
-      <c r="G163" s="72" t="s">
+      <c r="F163" s="102"/>
+      <c r="G163" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="H163" s="73"/>
-      <c r="I163" s="74" t="s">
+      <c r="H163" s="104"/>
+      <c r="I163" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="J163" s="75"/>
-      <c r="K163" s="64" t="s">
+      <c r="J163" s="106"/>
+      <c r="K163" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="L163" s="65"/>
-      <c r="M163" s="66" t="s">
+      <c r="L163" s="108"/>
+      <c r="M163" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="N163" s="67"/>
-      <c r="O163" s="68" t="s">
+      <c r="N163" s="110"/>
+      <c r="O163" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="P163" s="69"/>
-      <c r="Q163" s="48" t="s">
+      <c r="P163" s="112"/>
+      <c r="Q163" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="R163" s="55" t="s">
+      <c r="R163" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="S163" s="56"/>
-      <c r="T163" s="46" t="s">
+      <c r="S163" s="67"/>
+      <c r="T163" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="U163" s="46" t="s">
+      <c r="U163" s="62" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="164" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="50"/>
-      <c r="C164" s="50"/>
-      <c r="D164" s="52"/>
+      <c r="B164" s="98"/>
+      <c r="C164" s="98"/>
+      <c r="D164" s="100"/>
       <c r="E164" s="22" t="s">
         <v>3</v>
       </c>
@@ -5122,11 +5613,11 @@
       <c r="P164" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q164" s="49"/>
-      <c r="R164" s="57"/>
-      <c r="S164" s="58"/>
-      <c r="T164" s="47"/>
-      <c r="U164" s="47"/>
+      <c r="Q164" s="96"/>
+      <c r="R164" s="68"/>
+      <c r="S164" s="69"/>
+      <c r="T164" s="97"/>
+      <c r="U164" s="97"/>
     </row>
     <row r="165" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B165" s="8" t="s">
@@ -5325,57 +5816,57 @@
       </c>
     </row>
     <row r="172" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="46" t="s">
+      <c r="B172" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C172" s="46" t="s">
+      <c r="C172" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D172" s="51" t="s">
+      <c r="D172" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="E172" s="70" t="s">
+      <c r="E172" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="F172" s="71"/>
-      <c r="G172" s="72" t="s">
+      <c r="F172" s="102"/>
+      <c r="G172" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="H172" s="73"/>
-      <c r="I172" s="74" t="s">
+      <c r="H172" s="104"/>
+      <c r="I172" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="J172" s="75"/>
-      <c r="K172" s="64" t="s">
+      <c r="J172" s="106"/>
+      <c r="K172" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="L172" s="65"/>
-      <c r="M172" s="66" t="s">
+      <c r="L172" s="108"/>
+      <c r="M172" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="N172" s="67"/>
-      <c r="O172" s="68" t="s">
+      <c r="N172" s="110"/>
+      <c r="O172" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="P172" s="69"/>
-      <c r="Q172" s="48" t="s">
+      <c r="P172" s="112"/>
+      <c r="Q172" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="R172" s="59" t="s">
+      <c r="R172" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="S172" s="56"/>
-      <c r="T172" s="46" t="s">
+      <c r="S172" s="67"/>
+      <c r="T172" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="U172" s="46" t="s">
+      <c r="U172" s="62" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="173" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B173" s="50"/>
-      <c r="C173" s="50"/>
-      <c r="D173" s="52"/>
+      <c r="B173" s="98"/>
+      <c r="C173" s="98"/>
+      <c r="D173" s="100"/>
       <c r="E173" s="22" t="s">
         <v>3</v>
       </c>
@@ -5412,11 +5903,11 @@
       <c r="P173" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q173" s="49"/>
-      <c r="R173" s="60"/>
-      <c r="S173" s="58"/>
-      <c r="T173" s="47"/>
-      <c r="U173" s="47"/>
+      <c r="Q173" s="96"/>
+      <c r="R173" s="114"/>
+      <c r="S173" s="69"/>
+      <c r="T173" s="97"/>
+      <c r="U173" s="97"/>
     </row>
     <row r="174" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B174" s="8" t="s">
@@ -5558,57 +6049,57 @@
       </c>
     </row>
     <row r="183" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B183" s="46" t="s">
+      <c r="B183" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C183" s="46" t="s">
+      <c r="C183" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D183" s="51" t="s">
+      <c r="D183" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="E183" s="53" t="s">
+      <c r="E183" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="F183" s="54"/>
-      <c r="G183" s="53" t="s">
+      <c r="F183" s="129"/>
+      <c r="G183" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="H183" s="54"/>
-      <c r="I183" s="53" t="s">
+      <c r="H183" s="129"/>
+      <c r="I183" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="J183" s="54"/>
-      <c r="K183" s="53" t="s">
+      <c r="J183" s="129"/>
+      <c r="K183" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="L183" s="54"/>
-      <c r="M183" s="53" t="s">
+      <c r="L183" s="129"/>
+      <c r="M183" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="N183" s="54"/>
-      <c r="O183" s="53" t="s">
+      <c r="N183" s="129"/>
+      <c r="O183" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="P183" s="54"/>
-      <c r="Q183" s="48" t="s">
+      <c r="P183" s="129"/>
+      <c r="Q183" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="R183" s="55" t="s">
+      <c r="R183" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="S183" s="56"/>
-      <c r="T183" s="46" t="s">
+      <c r="S183" s="67"/>
+      <c r="T183" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="U183" s="46" t="s">
+      <c r="U183" s="62" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="184" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B184" s="50"/>
-      <c r="C184" s="50"/>
-      <c r="D184" s="52"/>
+      <c r="B184" s="98"/>
+      <c r="C184" s="98"/>
+      <c r="D184" s="100"/>
       <c r="E184" s="15" t="s">
         <v>3</v>
       </c>
@@ -5645,11 +6136,11 @@
       <c r="P184" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q184" s="49"/>
-      <c r="R184" s="57"/>
-      <c r="S184" s="58"/>
-      <c r="T184" s="47"/>
-      <c r="U184" s="47"/>
+      <c r="Q184" s="96"/>
+      <c r="R184" s="68"/>
+      <c r="S184" s="69"/>
+      <c r="T184" s="97"/>
+      <c r="U184" s="97"/>
     </row>
     <row r="185" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B185" s="8" t="s">
@@ -5845,57 +6336,57 @@
       </c>
     </row>
     <row r="192" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B192" s="46" t="s">
+      <c r="B192" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="46" t="s">
+      <c r="C192" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D192" s="51" t="s">
+      <c r="D192" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="E192" s="53" t="s">
+      <c r="E192" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="F192" s="54"/>
-      <c r="G192" s="53" t="s">
+      <c r="F192" s="129"/>
+      <c r="G192" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="H192" s="54"/>
-      <c r="I192" s="53" t="s">
+      <c r="H192" s="129"/>
+      <c r="I192" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="J192" s="54"/>
-      <c r="K192" s="53" t="s">
+      <c r="J192" s="129"/>
+      <c r="K192" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="L192" s="54"/>
-      <c r="M192" s="53" t="s">
+      <c r="L192" s="129"/>
+      <c r="M192" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="N192" s="54"/>
-      <c r="O192" s="53" t="s">
+      <c r="N192" s="129"/>
+      <c r="O192" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="P192" s="54"/>
-      <c r="Q192" s="48" t="s">
+      <c r="P192" s="129"/>
+      <c r="Q192" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="R192" s="59" t="s">
+      <c r="R192" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="S192" s="56"/>
-      <c r="T192" s="46" t="s">
+      <c r="S192" s="67"/>
+      <c r="T192" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="U192" s="46" t="s">
+      <c r="U192" s="62" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="193" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="50"/>
-      <c r="C193" s="50"/>
-      <c r="D193" s="52"/>
+      <c r="B193" s="98"/>
+      <c r="C193" s="98"/>
+      <c r="D193" s="100"/>
       <c r="E193" s="15" t="s">
         <v>3</v>
       </c>
@@ -5932,11 +6423,11 @@
       <c r="P193" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q193" s="49"/>
-      <c r="R193" s="60"/>
-      <c r="S193" s="58"/>
-      <c r="T193" s="47"/>
-      <c r="U193" s="47"/>
+      <c r="Q193" s="96"/>
+      <c r="R193" s="114"/>
+      <c r="S193" s="69"/>
+      <c r="T193" s="97"/>
+      <c r="U193" s="97"/>
     </row>
     <row r="194" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B194" s="8" t="s">
@@ -6007,28 +6498,150 @@
     </row>
   </sheetData>
   <mergeCells count="190">
-    <mergeCell ref="L38:R38"/>
-    <mergeCell ref="L39:R39"/>
-    <mergeCell ref="L40:R40"/>
-    <mergeCell ref="L41:R41"/>
-    <mergeCell ref="L42:R42"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="L43:R43"/>
-    <mergeCell ref="L44:R44"/>
-    <mergeCell ref="L45:R45"/>
-    <mergeCell ref="L46:R46"/>
-    <mergeCell ref="L47:R47"/>
-    <mergeCell ref="L48:R48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="Q71:Q72"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="R71:S72"/>
+    <mergeCell ref="T71:T72"/>
+    <mergeCell ref="U116:U117"/>
+    <mergeCell ref="U71:U72"/>
+    <mergeCell ref="U126:U127"/>
+    <mergeCell ref="U145:U146"/>
+    <mergeCell ref="U151:U152"/>
+    <mergeCell ref="U163:U164"/>
+    <mergeCell ref="U172:U173"/>
+    <mergeCell ref="U183:U184"/>
+    <mergeCell ref="U192:U193"/>
+    <mergeCell ref="Q183:Q184"/>
+    <mergeCell ref="T183:T184"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="D192:D193"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="I192:J192"/>
+    <mergeCell ref="K192:L192"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="O192:P192"/>
+    <mergeCell ref="Q192:Q193"/>
+    <mergeCell ref="T192:T193"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="I183:J183"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="O183:P183"/>
+    <mergeCell ref="R183:S184"/>
+    <mergeCell ref="R192:S193"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="T116:T117"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="O116:P116"/>
+    <mergeCell ref="Q116:Q117"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="R116:S117"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="O126:P126"/>
+    <mergeCell ref="Q126:Q127"/>
+    <mergeCell ref="T126:T127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="R126:S127"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="O145:P145"/>
+    <mergeCell ref="Q145:Q146"/>
+    <mergeCell ref="T145:T146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="I145:J145"/>
+    <mergeCell ref="R145:S146"/>
+    <mergeCell ref="Q151:Q152"/>
+    <mergeCell ref="T151:T152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="I151:J151"/>
+    <mergeCell ref="R151:S152"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="O151:P151"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="O172:P172"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="I163:J163"/>
+    <mergeCell ref="Q172:Q173"/>
+    <mergeCell ref="T172:T173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="I172:J172"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="O163:P163"/>
+    <mergeCell ref="Q163:Q164"/>
+    <mergeCell ref="R172:S173"/>
+    <mergeCell ref="T163:T164"/>
+    <mergeCell ref="R163:S164"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="D14:Q19"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="L34:R34"/>
+    <mergeCell ref="L35:R35"/>
+    <mergeCell ref="L36:R36"/>
+    <mergeCell ref="L37:R37"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="F48:H48"/>
     <mergeCell ref="I34:K34"/>
@@ -6053,150 +6666,28 @@
     <mergeCell ref="F42:H42"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="F43:H43"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="D14:Q19"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="L34:R34"/>
-    <mergeCell ref="L35:R35"/>
-    <mergeCell ref="L36:R36"/>
-    <mergeCell ref="L37:R37"/>
-    <mergeCell ref="Q172:Q173"/>
-    <mergeCell ref="T172:T173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="I172:J172"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="O163:P163"/>
-    <mergeCell ref="Q163:Q164"/>
-    <mergeCell ref="R172:S173"/>
-    <mergeCell ref="T163:T164"/>
-    <mergeCell ref="R163:S164"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K172:L172"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="O172:P172"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="I163:J163"/>
-    <mergeCell ref="Q151:Q152"/>
-    <mergeCell ref="T151:T152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="I151:J151"/>
-    <mergeCell ref="R151:S152"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="O151:P151"/>
-    <mergeCell ref="R126:S127"/>
-    <mergeCell ref="K145:L145"/>
-    <mergeCell ref="M145:N145"/>
-    <mergeCell ref="O145:P145"/>
-    <mergeCell ref="Q145:Q146"/>
-    <mergeCell ref="T145:T146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="I145:J145"/>
-    <mergeCell ref="R145:S146"/>
-    <mergeCell ref="R192:S193"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="T116:T117"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="O116:P116"/>
-    <mergeCell ref="Q116:Q117"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="R116:S117"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="O126:P126"/>
-    <mergeCell ref="Q126:Q127"/>
-    <mergeCell ref="T126:T127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="I126:J126"/>
-    <mergeCell ref="U192:U193"/>
-    <mergeCell ref="Q183:Q184"/>
-    <mergeCell ref="T183:T184"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="D192:D193"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="I192:J192"/>
-    <mergeCell ref="K192:L192"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="O192:P192"/>
-    <mergeCell ref="Q192:Q193"/>
-    <mergeCell ref="T192:T193"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="I183:J183"/>
-    <mergeCell ref="K183:L183"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="O183:P183"/>
-    <mergeCell ref="R183:S184"/>
-    <mergeCell ref="T71:T72"/>
-    <mergeCell ref="U116:U117"/>
-    <mergeCell ref="U71:U72"/>
-    <mergeCell ref="U126:U127"/>
-    <mergeCell ref="U145:U146"/>
-    <mergeCell ref="U151:U152"/>
-    <mergeCell ref="U163:U164"/>
-    <mergeCell ref="U172:U173"/>
-    <mergeCell ref="U183:U184"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="L39:R39"/>
+    <mergeCell ref="L40:R40"/>
+    <mergeCell ref="L41:R41"/>
+    <mergeCell ref="L42:R42"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="L43:R43"/>
+    <mergeCell ref="L44:R44"/>
+    <mergeCell ref="L45:R45"/>
+    <mergeCell ref="L46:R46"/>
+    <mergeCell ref="L47:R47"/>
+    <mergeCell ref="L48:R48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:Q72"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="R71:S72"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/요구사항분석.xlsx
+++ b/요구사항분석.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="169">
   <si>
     <t>STX</t>
   </si>
@@ -655,19 +655,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4CH Height Sensor의 Min, Max, 평균 값을 실시간으로 계산 한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계산 주기는 보드(HMI)에서 전송하는 주기에 따른다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>체널은 4체널로 고정이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래프의 Tick Count는 사용자 설정 가능하다. ( 100회 ~ 10000회 )</t>
+    <t>* 4CH Height Sensor의 Min, Max, 평균 값을 실시간으로 계산 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 계산 주기는 보드(HMI)에서 전송하는 주기에 따른다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 체널은 4체널로 고정이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 그래프의 Tick Count는 사용자 설정 가능하다. ( 100회 ~ 10000회 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 근접 신호 센서 표시 가능 하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* UI 크기 ( 1920x1080 )</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1225,7 +1233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1364,6 +1372,204 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1373,6 +1579,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1385,12 +1615,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1402,219 +1626,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1637,16 +1648,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1655,8 +1666,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371476" y="1509713"/>
-          <a:ext cx="1543050" cy="714375"/>
+          <a:off x="352426" y="2176463"/>
+          <a:ext cx="704850" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -1697,14 +1708,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1713,7 +1724,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3333751" y="1509713"/>
+          <a:off x="3333751" y="2176463"/>
           <a:ext cx="838200" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -1766,14 +1777,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1785,7 +1796,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1057276" y="1866901"/>
+          <a:off x="1057276" y="2533651"/>
           <a:ext cx="2276475" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1817,8 +1828,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="540597" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -1828,7 +1839,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1952625" y="1590675"/>
+          <a:off x="1952625" y="2257425"/>
           <a:ext cx="540597" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1870,14 +1881,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47123</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1886,8 +1897,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1133475" y="3276600"/>
-          <a:ext cx="2133600" cy="1799723"/>
+          <a:off x="1133475" y="219075"/>
+          <a:ext cx="2133600" cy="1933575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1910,7 +1921,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle>
           <a:lvl1pPr marL="0" indent="0">
@@ -2092,14 +2103,14 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2108,8 +2119,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6448426" y="1509713"/>
-          <a:ext cx="733425" cy="714375"/>
+          <a:off x="6448426" y="2176463"/>
+          <a:ext cx="733425" cy="1357312"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -2150,27 +2161,26 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="11" name="직선 화살표 연결선 10"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="9" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4171951" y="1866901"/>
-          <a:ext cx="2276475" cy="0"/>
+          <a:off x="4171951" y="2533651"/>
+          <a:ext cx="2285999" cy="19049"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2200,9 +2210,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="434927" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -2212,13 +2222,20 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5086350" y="1162050"/>
+          <a:off x="5043488" y="2400300"/>
           <a:ext cx="434927" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -2252,16 +2269,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>113301</xdr:rowOff>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2270,8 +2287,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4610099" y="3276600"/>
-          <a:ext cx="2009775" cy="1656351"/>
+          <a:off x="4343399" y="219075"/>
+          <a:ext cx="2009775" cy="1838325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2294,7 +2311,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle>
           <a:lvl1pPr marL="0" indent="0">
@@ -2470,14 +2487,14 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2486,7 +2503,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9458326" y="1509713"/>
+          <a:off x="9458326" y="2176463"/>
           <a:ext cx="876300" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -2527,28 +2544,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="3"/>
           <a:endCxn id="15" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7181851" y="1866901"/>
-          <a:ext cx="2276475" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="7200900" y="2533651"/>
+          <a:ext cx="2257426" cy="9524"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2579,8 +2595,8 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="540597" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -2590,7 +2606,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8096250" y="1590675"/>
+          <a:off x="8096250" y="2257425"/>
           <a:ext cx="540597" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2632,14 +2648,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>204788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2648,7 +2664,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="361951" y="2471738"/>
+          <a:off x="361951" y="3138488"/>
           <a:ext cx="704850" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -2690,14 +2706,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>204788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2706,7 +2722,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3343276" y="2471738"/>
+          <a:off x="3343276" y="3138488"/>
           <a:ext cx="838200" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -2759,14 +2775,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2778,7 +2794,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1066801" y="2828926"/>
+          <a:off x="1066801" y="3495676"/>
           <a:ext cx="2276475" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2810,8 +2826,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="540597" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -2821,7 +2837,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1962150" y="2552700"/>
+          <a:off x="1962150" y="3219450"/>
           <a:ext cx="540597" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2863,27 +2879,26 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="22" name="직선 화살표 연결선 21"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="3"/>
-          <a:endCxn id="9" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4181476" y="1866901"/>
-          <a:ext cx="2266950" cy="962025"/>
+          <a:off x="4181476" y="2581275"/>
+          <a:ext cx="2276474" cy="914401"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2914,8 +2929,8 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="552011" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -2925,7 +2940,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4238625" y="1543050"/>
+          <a:off x="4238625" y="2209800"/>
           <a:ext cx="552011" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2967,8 +2982,8 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="516232" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -2978,7 +2993,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5886450" y="1581150"/>
+          <a:off x="5886450" y="2247900"/>
           <a:ext cx="516232" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3020,8 +3035,8 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="552011" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -3031,7 +3046,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4229100" y="2400300"/>
+          <a:off x="4229100" y="3067050"/>
           <a:ext cx="552011" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3071,16 +3086,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>161107</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47143</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>37618</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3097,7 +3112,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7010400" y="2476500"/>
+          <a:off x="5600700" y="5191125"/>
           <a:ext cx="6542857" cy="3857143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3112,6 +3127,464 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="434927" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5043488" y="2914650"/>
+          <a:ext cx="434927" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>UDP</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="순서도: 대체 처리 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352426" y="4148138"/>
+          <a:ext cx="704850" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>근접</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>신호</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Sensor</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="순서도: 대체 처리 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333751" y="4148138"/>
+          <a:ext cx="838200" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>보드</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(???)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="직선 화살표 연결선 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="3"/>
+          <a:endCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057276" y="4505326"/>
+          <a:ext cx="2276475" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="380682" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1952625" y="4229100"/>
+          <a:ext cx="380682" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>???</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="직선 화살표 연결선 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4171951" y="3390900"/>
+          <a:ext cx="2276474" cy="1114426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="380682" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="TextBox 36"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5214937" y="3781424"/>
+          <a:ext cx="380682" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>???</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -3370,18 +3843,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B27:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B26:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z36" sqref="Z36"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3390,35 +3863,73 @@
     <col min="71" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="45" t="s">
+        <v>162</v>
+      </c>
+    </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="45" t="s">
-        <v>162</v>
+      <c r="C27" s="46" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="45" t="s">
-        <v>163</v>
+      <c r="C28" s="46" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="45" t="s">
-        <v>164</v>
+      <c r="C29" s="46" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C30" s="45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C31" s="45" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="45" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="프레젠테이션" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="프레젠테이션" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -3456,419 +3967,419 @@
   <sheetData>
     <row r="13" spans="4:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="82"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="97"/>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D15" s="83"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="85"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="100"/>
     </row>
     <row r="16" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D16" s="83"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="85"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="100"/>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D17" s="83"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="85"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="100"/>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D18" s="83"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="85"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="100"/>
     </row>
     <row r="19" spans="4:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="88"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="103"/>
     </row>
     <row r="33" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="3:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="89" t="s">
+      <c r="C34" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72" t="s">
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="72" t="s">
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="72" t="s">
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="73"/>
-      <c r="R34" s="91"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="107"/>
+      <c r="O34" s="107"/>
+      <c r="P34" s="107"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="108"/>
       <c r="S34" s="43"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C35" s="78" t="s">
+      <c r="C35" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="79" t="s">
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="92" t="s">
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="M35" s="93"/>
-      <c r="N35" s="93"/>
-      <c r="O35" s="93"/>
-      <c r="P35" s="93"/>
-      <c r="Q35" s="93"/>
-      <c r="R35" s="94"/>
+      <c r="M35" s="110"/>
+      <c r="N35" s="110"/>
+      <c r="O35" s="110"/>
+      <c r="P35" s="110"/>
+      <c r="Q35" s="110"/>
+      <c r="R35" s="111"/>
       <c r="S35" s="44"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="79" t="s">
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="46" t="s">
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="48"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="113"/>
+      <c r="P36" s="113"/>
+      <c r="Q36" s="113"/>
+      <c r="R36" s="114"/>
       <c r="S36" s="44"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="79" t="s">
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="46" t="s">
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="48"/>
+      <c r="M37" s="113"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="113"/>
+      <c r="P37" s="113"/>
+      <c r="Q37" s="113"/>
+      <c r="R37" s="114"/>
       <c r="S37" s="44"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C38" s="78" t="s">
+      <c r="C38" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="79" t="s">
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="46" t="s">
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="118"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="48"/>
+      <c r="M38" s="113"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="113"/>
+      <c r="P38" s="113"/>
+      <c r="Q38" s="113"/>
+      <c r="R38" s="114"/>
       <c r="S38" s="44"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C39" s="78"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="48"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="112"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="113"/>
+      <c r="P39" s="113"/>
+      <c r="Q39" s="113"/>
+      <c r="R39" s="114"/>
       <c r="S39" s="44"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C40" s="76"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="48"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="116"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="113"/>
+      <c r="P40" s="113"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="114"/>
       <c r="S40" s="44"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C41" s="76"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="48"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="116"/>
+      <c r="K41" s="116"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="113"/>
+      <c r="P41" s="113"/>
+      <c r="Q41" s="113"/>
+      <c r="R41" s="114"/>
       <c r="S41" s="44"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C42" s="76"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="48"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="116"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="123"/>
+      <c r="M42" s="113"/>
+      <c r="N42" s="113"/>
+      <c r="O42" s="113"/>
+      <c r="P42" s="113"/>
+      <c r="Q42" s="113"/>
+      <c r="R42" s="114"/>
       <c r="S42" s="44"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C43" s="76"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="48"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="118"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="116"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="113"/>
+      <c r="N43" s="113"/>
+      <c r="O43" s="113"/>
+      <c r="P43" s="113"/>
+      <c r="Q43" s="113"/>
+      <c r="R43" s="114"/>
       <c r="S43" s="44"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C44" s="76"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="48"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="123"/>
+      <c r="M44" s="113"/>
+      <c r="N44" s="113"/>
+      <c r="O44" s="113"/>
+      <c r="P44" s="113"/>
+      <c r="Q44" s="113"/>
+      <c r="R44" s="114"/>
       <c r="S44" s="44"/>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C45" s="76"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="48"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="116"/>
+      <c r="L45" s="123"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="113"/>
+      <c r="O45" s="113"/>
+      <c r="P45" s="113"/>
+      <c r="Q45" s="113"/>
+      <c r="R45" s="114"/>
       <c r="S45" s="44"/>
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C46" s="76"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="47"/>
-      <c r="P46" s="47"/>
-      <c r="Q46" s="47"/>
-      <c r="R46" s="48"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="116"/>
+      <c r="L46" s="123"/>
+      <c r="M46" s="113"/>
+      <c r="N46" s="113"/>
+      <c r="O46" s="113"/>
+      <c r="P46" s="113"/>
+      <c r="Q46" s="113"/>
+      <c r="R46" s="114"/>
       <c r="S46" s="44"/>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C47" s="76"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="47"/>
-      <c r="R47" s="48"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="116"/>
+      <c r="L47" s="123"/>
+      <c r="M47" s="113"/>
+      <c r="N47" s="113"/>
+      <c r="O47" s="113"/>
+      <c r="P47" s="113"/>
+      <c r="Q47" s="113"/>
+      <c r="R47" s="114"/>
       <c r="S47" s="44"/>
     </row>
     <row r="48" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="70"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="57"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="130"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="120"/>
+      <c r="L48" s="127"/>
+      <c r="M48" s="128"/>
+      <c r="N48" s="128"/>
+      <c r="O48" s="128"/>
+      <c r="P48" s="128"/>
+      <c r="Q48" s="128"/>
+      <c r="R48" s="129"/>
       <c r="S48" s="44"/>
     </row>
     <row r="54" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
@@ -3980,57 +4491,57 @@
       </c>
     </row>
     <row r="71" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="62" t="s">
+      <c r="B71" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C71" s="62" t="s">
+      <c r="C71" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D71" s="115" t="s">
+      <c r="D71" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="E71" s="60" t="s">
+      <c r="E71" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="61"/>
-      <c r="G71" s="60" t="s">
+      <c r="F71" s="63"/>
+      <c r="G71" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="61"/>
-      <c r="I71" s="60" t="s">
+      <c r="H71" s="63"/>
+      <c r="I71" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="J71" s="61"/>
-      <c r="K71" s="60" t="s">
+      <c r="J71" s="63"/>
+      <c r="K71" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="L71" s="61"/>
-      <c r="M71" s="60" t="s">
+      <c r="L71" s="63"/>
+      <c r="M71" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="N71" s="61"/>
-      <c r="O71" s="60" t="s">
+      <c r="N71" s="63"/>
+      <c r="O71" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="P71" s="61"/>
-      <c r="Q71" s="62" t="s">
+      <c r="P71" s="63"/>
+      <c r="Q71" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="R71" s="66" t="s">
+      <c r="R71" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="S71" s="67"/>
-      <c r="T71" s="62" t="s">
+      <c r="S71" s="57"/>
+      <c r="T71" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="U71" s="62" t="s">
+      <c r="U71" s="47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="98"/>
-      <c r="C72" s="98"/>
-      <c r="D72" s="116"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="85"/>
       <c r="E72" s="7" t="s">
         <v>3</v>
       </c>
@@ -4067,11 +4578,11 @@
       <c r="P72" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q72" s="63"/>
-      <c r="R72" s="68"/>
-      <c r="S72" s="69"/>
-      <c r="T72" s="97"/>
-      <c r="U72" s="97"/>
+      <c r="Q72" s="64"/>
+      <c r="R72" s="58"/>
+      <c r="S72" s="59"/>
+      <c r="T72" s="48"/>
+      <c r="U72" s="48"/>
     </row>
     <row r="73" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="8" t="s">
@@ -4161,84 +4672,84 @@
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C82" s="117" t="s">
+      <c r="C82" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="118"/>
-      <c r="E82" s="118"/>
-      <c r="F82" s="119"/>
-      <c r="G82" s="117" t="s">
+      <c r="D82" s="87"/>
+      <c r="E82" s="87"/>
+      <c r="F82" s="88"/>
+      <c r="G82" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="H82" s="118"/>
-      <c r="I82" s="118"/>
-      <c r="J82" s="119"/>
-      <c r="K82" s="50" t="s">
+      <c r="H82" s="87"/>
+      <c r="I82" s="87"/>
+      <c r="J82" s="88"/>
+      <c r="K82" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="L82" s="51"/>
-      <c r="M82" s="51"/>
-      <c r="N82" s="52"/>
+      <c r="L82" s="125"/>
+      <c r="M82" s="125"/>
+      <c r="N82" s="126"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="120"/>
-      <c r="G83" s="53" t="s">
+      <c r="D83" s="90"/>
+      <c r="E83" s="90"/>
+      <c r="F83" s="91"/>
+      <c r="G83" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="H83" s="54"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="120"/>
-      <c r="K83" s="53" t="s">
+      <c r="H83" s="90"/>
+      <c r="I83" s="90"/>
+      <c r="J83" s="91"/>
+      <c r="K83" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="L83" s="54"/>
-      <c r="M83" s="54"/>
-      <c r="N83" s="52"/>
+      <c r="L83" s="90"/>
+      <c r="M83" s="90"/>
+      <c r="N83" s="126"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C84" s="53" t="s">
+      <c r="C84" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="D84" s="54"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="120"/>
-      <c r="G84" s="53" t="s">
+      <c r="D84" s="90"/>
+      <c r="E84" s="90"/>
+      <c r="F84" s="91"/>
+      <c r="G84" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="H84" s="54"/>
-      <c r="I84" s="54"/>
-      <c r="J84" s="120"/>
-      <c r="K84" s="53" t="s">
+      <c r="H84" s="90"/>
+      <c r="I84" s="90"/>
+      <c r="J84" s="91"/>
+      <c r="K84" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="L84" s="54"/>
-      <c r="M84" s="54"/>
-      <c r="N84" s="52"/>
+      <c r="L84" s="90"/>
+      <c r="M84" s="90"/>
+      <c r="N84" s="126"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C85" s="53" t="s">
+      <c r="C85" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="D85" s="54"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="120"/>
-      <c r="G85" s="53" t="s">
+      <c r="D85" s="90"/>
+      <c r="E85" s="90"/>
+      <c r="F85" s="91"/>
+      <c r="G85" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="H85" s="54"/>
-      <c r="I85" s="54"/>
-      <c r="J85" s="120"/>
-      <c r="K85" s="53" t="s">
+      <c r="H85" s="90"/>
+      <c r="I85" s="90"/>
+      <c r="J85" s="91"/>
+      <c r="K85" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="L85" s="54"/>
-      <c r="M85" s="54"/>
-      <c r="N85" s="52"/>
+      <c r="L85" s="90"/>
+      <c r="M85" s="90"/>
+      <c r="N85" s="126"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C86" s="16"/>
@@ -4515,57 +5026,57 @@
       </c>
     </row>
     <row r="116" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="62" t="s">
+      <c r="B116" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C116" s="62" t="s">
+      <c r="C116" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D116" s="99" t="s">
+      <c r="D116" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E116" s="60" t="s">
+      <c r="E116" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F116" s="61"/>
-      <c r="G116" s="60" t="s">
+      <c r="F116" s="63"/>
+      <c r="G116" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H116" s="61"/>
-      <c r="I116" s="60" t="s">
+      <c r="H116" s="63"/>
+      <c r="I116" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="J116" s="61"/>
-      <c r="K116" s="60" t="s">
+      <c r="J116" s="63"/>
+      <c r="K116" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="L116" s="61"/>
-      <c r="M116" s="60" t="s">
+      <c r="L116" s="63"/>
+      <c r="M116" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="N116" s="61"/>
-      <c r="O116" s="60" t="s">
+      <c r="N116" s="63"/>
+      <c r="O116" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="P116" s="61"/>
-      <c r="Q116" s="62" t="s">
+      <c r="P116" s="63"/>
+      <c r="Q116" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="R116" s="66" t="s">
+      <c r="R116" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="S116" s="67"/>
-      <c r="T116" s="62" t="s">
+      <c r="S116" s="57"/>
+      <c r="T116" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="U116" s="62" t="s">
+      <c r="U116" s="47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="117" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="98"/>
-      <c r="C117" s="98"/>
-      <c r="D117" s="100"/>
+      <c r="B117" s="51"/>
+      <c r="C117" s="51"/>
+      <c r="D117" s="53"/>
       <c r="E117" s="7" t="s">
         <v>3</v>
       </c>
@@ -4602,11 +5113,11 @@
       <c r="P117" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q117" s="63"/>
-      <c r="R117" s="68"/>
-      <c r="S117" s="69"/>
-      <c r="T117" s="97"/>
-      <c r="U117" s="97"/>
+      <c r="Q117" s="64"/>
+      <c r="R117" s="58"/>
+      <c r="S117" s="59"/>
+      <c r="T117" s="48"/>
+      <c r="U117" s="48"/>
     </row>
     <row r="118" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B118" s="8" t="s">
@@ -4807,57 +5318,57 @@
       </c>
     </row>
     <row r="126" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="62" t="s">
+      <c r="B126" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C126" s="62" t="s">
+      <c r="C126" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D126" s="99" t="s">
+      <c r="D126" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E126" s="101" t="s">
+      <c r="E126" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="F126" s="102"/>
-      <c r="G126" s="103" t="s">
+      <c r="F126" s="72"/>
+      <c r="G126" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="H126" s="104"/>
-      <c r="I126" s="105" t="s">
+      <c r="H126" s="74"/>
+      <c r="I126" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="J126" s="106"/>
-      <c r="K126" s="107" t="s">
+      <c r="J126" s="76"/>
+      <c r="K126" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="L126" s="108"/>
-      <c r="M126" s="109" t="s">
+      <c r="L126" s="66"/>
+      <c r="M126" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="N126" s="110"/>
-      <c r="O126" s="111" t="s">
+      <c r="N126" s="68"/>
+      <c r="O126" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="P126" s="112"/>
-      <c r="Q126" s="95" t="s">
+      <c r="P126" s="70"/>
+      <c r="Q126" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="R126" s="121" t="s">
+      <c r="R126" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="S126" s="67"/>
-      <c r="T126" s="62" t="s">
+      <c r="S126" s="57"/>
+      <c r="T126" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="U126" s="62" t="s">
+      <c r="U126" s="47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="127" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="98"/>
-      <c r="C127" s="98"/>
-      <c r="D127" s="100"/>
+      <c r="B127" s="51"/>
+      <c r="C127" s="51"/>
+      <c r="D127" s="53"/>
       <c r="E127" s="22" t="s">
         <v>3</v>
       </c>
@@ -4894,11 +5405,11 @@
       <c r="P127" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q127" s="96"/>
-      <c r="R127" s="122"/>
-      <c r="S127" s="69"/>
-      <c r="T127" s="97"/>
-      <c r="U127" s="97"/>
+      <c r="Q127" s="50"/>
+      <c r="R127" s="78"/>
+      <c r="S127" s="59"/>
+      <c r="T127" s="48"/>
+      <c r="U127" s="48"/>
     </row>
     <row r="128" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B128" s="8" t="s">
@@ -5065,57 +5576,57 @@
       </c>
     </row>
     <row r="145" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="62" t="s">
+      <c r="B145" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C145" s="62" t="s">
+      <c r="C145" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D145" s="99" t="s">
+      <c r="D145" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E145" s="60" t="s">
+      <c r="E145" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F145" s="61"/>
-      <c r="G145" s="60" t="s">
+      <c r="F145" s="63"/>
+      <c r="G145" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H145" s="61"/>
-      <c r="I145" s="60" t="s">
+      <c r="H145" s="63"/>
+      <c r="I145" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="J145" s="61"/>
-      <c r="K145" s="60" t="s">
+      <c r="J145" s="63"/>
+      <c r="K145" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="L145" s="61"/>
-      <c r="M145" s="123" t="s">
+      <c r="L145" s="63"/>
+      <c r="M145" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="N145" s="124"/>
-      <c r="O145" s="125" t="s">
+      <c r="N145" s="80"/>
+      <c r="O145" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="P145" s="126"/>
-      <c r="Q145" s="115" t="s">
+      <c r="P145" s="82"/>
+      <c r="Q145" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="R145" s="66" t="s">
+      <c r="R145" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="S145" s="67"/>
-      <c r="T145" s="62" t="s">
+      <c r="S145" s="57"/>
+      <c r="T145" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="U145" s="62" t="s">
+      <c r="U145" s="47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="146" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="98"/>
-      <c r="C146" s="98"/>
-      <c r="D146" s="100"/>
+      <c r="B146" s="51"/>
+      <c r="C146" s="51"/>
+      <c r="D146" s="53"/>
       <c r="E146" s="7" t="s">
         <v>3</v>
       </c>
@@ -5152,11 +5663,11 @@
       <c r="P146" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q146" s="127"/>
-      <c r="R146" s="68"/>
-      <c r="S146" s="69"/>
-      <c r="T146" s="97"/>
-      <c r="U146" s="97"/>
+      <c r="Q146" s="84"/>
+      <c r="R146" s="58"/>
+      <c r="S146" s="59"/>
+      <c r="T146" s="48"/>
+      <c r="U146" s="48"/>
     </row>
     <row r="147" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B147" s="8" t="s">
@@ -5288,57 +5799,57 @@
       </c>
     </row>
     <row r="151" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="62" t="s">
+      <c r="B151" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C151" s="62" t="s">
+      <c r="C151" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D151" s="99" t="s">
+      <c r="D151" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E151" s="101" t="s">
+      <c r="E151" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="F151" s="102"/>
-      <c r="G151" s="103" t="s">
+      <c r="F151" s="72"/>
+      <c r="G151" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="H151" s="104"/>
-      <c r="I151" s="105" t="s">
+      <c r="H151" s="74"/>
+      <c r="I151" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="J151" s="106"/>
-      <c r="K151" s="107" t="s">
+      <c r="J151" s="76"/>
+      <c r="K151" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="L151" s="108"/>
-      <c r="M151" s="109" t="s">
+      <c r="L151" s="66"/>
+      <c r="M151" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="N151" s="110"/>
-      <c r="O151" s="111" t="s">
+      <c r="N151" s="68"/>
+      <c r="O151" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="P151" s="112"/>
-      <c r="Q151" s="95" t="s">
+      <c r="P151" s="70"/>
+      <c r="Q151" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="R151" s="121" t="s">
+      <c r="R151" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="S151" s="67"/>
-      <c r="T151" s="62" t="s">
+      <c r="S151" s="57"/>
+      <c r="T151" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="U151" s="62" t="s">
+      <c r="U151" s="47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="152" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="98"/>
-      <c r="C152" s="98"/>
-      <c r="D152" s="100"/>
+      <c r="B152" s="51"/>
+      <c r="C152" s="51"/>
+      <c r="D152" s="53"/>
       <c r="E152" s="22" t="s">
         <v>3</v>
       </c>
@@ -5375,11 +5886,11 @@
       <c r="P152" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q152" s="96"/>
-      <c r="R152" s="122"/>
-      <c r="S152" s="69"/>
-      <c r="T152" s="97"/>
-      <c r="U152" s="97"/>
+      <c r="Q152" s="50"/>
+      <c r="R152" s="78"/>
+      <c r="S152" s="59"/>
+      <c r="T152" s="48"/>
+      <c r="U152" s="48"/>
     </row>
     <row r="153" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B153" s="8" t="s">
@@ -5526,57 +6037,57 @@
       </c>
     </row>
     <row r="163" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="62" t="s">
+      <c r="B163" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C163" s="62" t="s">
+      <c r="C163" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D163" s="99" t="s">
+      <c r="D163" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E163" s="101" t="s">
+      <c r="E163" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="F163" s="102"/>
-      <c r="G163" s="103" t="s">
+      <c r="F163" s="72"/>
+      <c r="G163" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="H163" s="104"/>
-      <c r="I163" s="105" t="s">
+      <c r="H163" s="74"/>
+      <c r="I163" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="J163" s="106"/>
-      <c r="K163" s="107" t="s">
+      <c r="J163" s="76"/>
+      <c r="K163" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="L163" s="108"/>
-      <c r="M163" s="109" t="s">
+      <c r="L163" s="66"/>
+      <c r="M163" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="N163" s="110"/>
-      <c r="O163" s="111" t="s">
+      <c r="N163" s="68"/>
+      <c r="O163" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="P163" s="112"/>
-      <c r="Q163" s="95" t="s">
+      <c r="P163" s="70"/>
+      <c r="Q163" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="R163" s="66" t="s">
+      <c r="R163" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="S163" s="67"/>
-      <c r="T163" s="62" t="s">
+      <c r="S163" s="57"/>
+      <c r="T163" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="U163" s="62" t="s">
+      <c r="U163" s="47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="164" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="98"/>
-      <c r="C164" s="98"/>
-      <c r="D164" s="100"/>
+      <c r="B164" s="51"/>
+      <c r="C164" s="51"/>
+      <c r="D164" s="53"/>
       <c r="E164" s="22" t="s">
         <v>3</v>
       </c>
@@ -5613,11 +6124,11 @@
       <c r="P164" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q164" s="96"/>
-      <c r="R164" s="68"/>
-      <c r="S164" s="69"/>
-      <c r="T164" s="97"/>
-      <c r="U164" s="97"/>
+      <c r="Q164" s="50"/>
+      <c r="R164" s="58"/>
+      <c r="S164" s="59"/>
+      <c r="T164" s="48"/>
+      <c r="U164" s="48"/>
     </row>
     <row r="165" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B165" s="8" t="s">
@@ -5816,57 +6327,57 @@
       </c>
     </row>
     <row r="172" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="62" t="s">
+      <c r="B172" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C172" s="62" t="s">
+      <c r="C172" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D172" s="99" t="s">
+      <c r="D172" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E172" s="101" t="s">
+      <c r="E172" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="F172" s="102"/>
-      <c r="G172" s="103" t="s">
+      <c r="F172" s="72"/>
+      <c r="G172" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="H172" s="104"/>
-      <c r="I172" s="105" t="s">
+      <c r="H172" s="74"/>
+      <c r="I172" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="J172" s="106"/>
-      <c r="K172" s="107" t="s">
+      <c r="J172" s="76"/>
+      <c r="K172" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="L172" s="108"/>
-      <c r="M172" s="109" t="s">
+      <c r="L172" s="66"/>
+      <c r="M172" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="N172" s="110"/>
-      <c r="O172" s="111" t="s">
+      <c r="N172" s="68"/>
+      <c r="O172" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="P172" s="112"/>
-      <c r="Q172" s="95" t="s">
+      <c r="P172" s="70"/>
+      <c r="Q172" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="R172" s="113" t="s">
+      <c r="R172" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="S172" s="67"/>
-      <c r="T172" s="62" t="s">
+      <c r="S172" s="57"/>
+      <c r="T172" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="U172" s="62" t="s">
+      <c r="U172" s="47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="173" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B173" s="98"/>
-      <c r="C173" s="98"/>
-      <c r="D173" s="100"/>
+      <c r="B173" s="51"/>
+      <c r="C173" s="51"/>
+      <c r="D173" s="53"/>
       <c r="E173" s="22" t="s">
         <v>3</v>
       </c>
@@ -5903,11 +6414,11 @@
       <c r="P173" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q173" s="96"/>
-      <c r="R173" s="114"/>
-      <c r="S173" s="69"/>
-      <c r="T173" s="97"/>
-      <c r="U173" s="97"/>
+      <c r="Q173" s="50"/>
+      <c r="R173" s="61"/>
+      <c r="S173" s="59"/>
+      <c r="T173" s="48"/>
+      <c r="U173" s="48"/>
     </row>
     <row r="174" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B174" s="8" t="s">
@@ -6049,57 +6560,57 @@
       </c>
     </row>
     <row r="183" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B183" s="62" t="s">
+      <c r="B183" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C183" s="62" t="s">
+      <c r="C183" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D183" s="99" t="s">
+      <c r="D183" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E183" s="128" t="s">
+      <c r="E183" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="F183" s="129"/>
-      <c r="G183" s="128" t="s">
+      <c r="F183" s="55"/>
+      <c r="G183" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="H183" s="129"/>
-      <c r="I183" s="128" t="s">
+      <c r="H183" s="55"/>
+      <c r="I183" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="J183" s="129"/>
-      <c r="K183" s="128" t="s">
+      <c r="J183" s="55"/>
+      <c r="K183" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="L183" s="129"/>
-      <c r="M183" s="128" t="s">
+      <c r="L183" s="55"/>
+      <c r="M183" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="N183" s="129"/>
-      <c r="O183" s="128" t="s">
+      <c r="N183" s="55"/>
+      <c r="O183" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="P183" s="129"/>
-      <c r="Q183" s="95" t="s">
+      <c r="P183" s="55"/>
+      <c r="Q183" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="R183" s="66" t="s">
+      <c r="R183" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="S183" s="67"/>
-      <c r="T183" s="62" t="s">
+      <c r="S183" s="57"/>
+      <c r="T183" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="U183" s="62" t="s">
+      <c r="U183" s="47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="184" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B184" s="98"/>
-      <c r="C184" s="98"/>
-      <c r="D184" s="100"/>
+      <c r="B184" s="51"/>
+      <c r="C184" s="51"/>
+      <c r="D184" s="53"/>
       <c r="E184" s="15" t="s">
         <v>3</v>
       </c>
@@ -6136,11 +6647,11 @@
       <c r="P184" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q184" s="96"/>
-      <c r="R184" s="68"/>
-      <c r="S184" s="69"/>
-      <c r="T184" s="97"/>
-      <c r="U184" s="97"/>
+      <c r="Q184" s="50"/>
+      <c r="R184" s="58"/>
+      <c r="S184" s="59"/>
+      <c r="T184" s="48"/>
+      <c r="U184" s="48"/>
     </row>
     <row r="185" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B185" s="8" t="s">
@@ -6336,57 +6847,57 @@
       </c>
     </row>
     <row r="192" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B192" s="62" t="s">
+      <c r="B192" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="62" t="s">
+      <c r="C192" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D192" s="99" t="s">
+      <c r="D192" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E192" s="128" t="s">
+      <c r="E192" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="F192" s="129"/>
-      <c r="G192" s="128" t="s">
+      <c r="F192" s="55"/>
+      <c r="G192" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="H192" s="129"/>
-      <c r="I192" s="128" t="s">
+      <c r="H192" s="55"/>
+      <c r="I192" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="J192" s="129"/>
-      <c r="K192" s="128" t="s">
+      <c r="J192" s="55"/>
+      <c r="K192" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="L192" s="129"/>
-      <c r="M192" s="128" t="s">
+      <c r="L192" s="55"/>
+      <c r="M192" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="N192" s="129"/>
-      <c r="O192" s="128" t="s">
+      <c r="N192" s="55"/>
+      <c r="O192" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="P192" s="129"/>
-      <c r="Q192" s="95" t="s">
+      <c r="P192" s="55"/>
+      <c r="Q192" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="R192" s="113" t="s">
+      <c r="R192" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="S192" s="67"/>
-      <c r="T192" s="62" t="s">
+      <c r="S192" s="57"/>
+      <c r="T192" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="U192" s="62" t="s">
+      <c r="U192" s="47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="193" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="98"/>
-      <c r="C193" s="98"/>
-      <c r="D193" s="100"/>
+      <c r="B193" s="51"/>
+      <c r="C193" s="51"/>
+      <c r="D193" s="53"/>
       <c r="E193" s="15" t="s">
         <v>3</v>
       </c>
@@ -6423,11 +6934,11 @@
       <c r="P193" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q193" s="96"/>
-      <c r="R193" s="114"/>
-      <c r="S193" s="69"/>
-      <c r="T193" s="97"/>
-      <c r="U193" s="97"/>
+      <c r="Q193" s="50"/>
+      <c r="R193" s="61"/>
+      <c r="S193" s="59"/>
+      <c r="T193" s="48"/>
+      <c r="U193" s="48"/>
     </row>
     <row r="194" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B194" s="8" t="s">
@@ -6498,15 +7009,163 @@
     </row>
   </sheetData>
   <mergeCells count="190">
-    <mergeCell ref="T71:T72"/>
-    <mergeCell ref="U116:U117"/>
-    <mergeCell ref="U71:U72"/>
-    <mergeCell ref="U126:U127"/>
-    <mergeCell ref="U145:U146"/>
-    <mergeCell ref="U151:U152"/>
-    <mergeCell ref="U163:U164"/>
-    <mergeCell ref="U172:U173"/>
-    <mergeCell ref="U183:U184"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="L39:R39"/>
+    <mergeCell ref="L40:R40"/>
+    <mergeCell ref="L41:R41"/>
+    <mergeCell ref="L42:R42"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="L43:R43"/>
+    <mergeCell ref="L44:R44"/>
+    <mergeCell ref="L45:R45"/>
+    <mergeCell ref="L46:R46"/>
+    <mergeCell ref="L47:R47"/>
+    <mergeCell ref="L48:R48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:Q72"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="R71:S72"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="D14:Q19"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="L34:R34"/>
+    <mergeCell ref="L35:R35"/>
+    <mergeCell ref="L36:R36"/>
+    <mergeCell ref="L37:R37"/>
+    <mergeCell ref="Q172:Q173"/>
+    <mergeCell ref="T172:T173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="I172:J172"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="O163:P163"/>
+    <mergeCell ref="Q163:Q164"/>
+    <mergeCell ref="R172:S173"/>
+    <mergeCell ref="T163:T164"/>
+    <mergeCell ref="R163:S164"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="O172:P172"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="I163:J163"/>
+    <mergeCell ref="Q151:Q152"/>
+    <mergeCell ref="T151:T152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="I151:J151"/>
+    <mergeCell ref="R151:S152"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="O151:P151"/>
+    <mergeCell ref="R126:S127"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="O145:P145"/>
+    <mergeCell ref="Q145:Q146"/>
+    <mergeCell ref="T145:T146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="I145:J145"/>
+    <mergeCell ref="R145:S146"/>
+    <mergeCell ref="R192:S193"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="T116:T117"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="O116:P116"/>
+    <mergeCell ref="Q116:Q117"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="R116:S117"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="O126:P126"/>
+    <mergeCell ref="Q126:Q127"/>
+    <mergeCell ref="T126:T127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="I126:J126"/>
     <mergeCell ref="U192:U193"/>
     <mergeCell ref="Q183:Q184"/>
     <mergeCell ref="T183:T184"/>
@@ -6531,163 +7190,15 @@
     <mergeCell ref="M183:N183"/>
     <mergeCell ref="O183:P183"/>
     <mergeCell ref="R183:S184"/>
-    <mergeCell ref="R192:S193"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="T116:T117"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="O116:P116"/>
-    <mergeCell ref="Q116:Q117"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="R116:S117"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="O126:P126"/>
-    <mergeCell ref="Q126:Q127"/>
-    <mergeCell ref="T126:T127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="I126:J126"/>
-    <mergeCell ref="R126:S127"/>
-    <mergeCell ref="K145:L145"/>
-    <mergeCell ref="M145:N145"/>
-    <mergeCell ref="O145:P145"/>
-    <mergeCell ref="Q145:Q146"/>
-    <mergeCell ref="T145:T146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="I145:J145"/>
-    <mergeCell ref="R145:S146"/>
-    <mergeCell ref="Q151:Q152"/>
-    <mergeCell ref="T151:T152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="I151:J151"/>
-    <mergeCell ref="R151:S152"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="O151:P151"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K172:L172"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="O172:P172"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="I163:J163"/>
-    <mergeCell ref="Q172:Q173"/>
-    <mergeCell ref="T172:T173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="I172:J172"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="O163:P163"/>
-    <mergeCell ref="Q163:Q164"/>
-    <mergeCell ref="R172:S173"/>
-    <mergeCell ref="T163:T164"/>
-    <mergeCell ref="R163:S164"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="D14:Q19"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="L34:R34"/>
-    <mergeCell ref="L35:R35"/>
-    <mergeCell ref="L36:R36"/>
-    <mergeCell ref="L37:R37"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="L38:R38"/>
-    <mergeCell ref="L39:R39"/>
-    <mergeCell ref="L40:R40"/>
-    <mergeCell ref="L41:R41"/>
-    <mergeCell ref="L42:R42"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="L43:R43"/>
-    <mergeCell ref="L44:R44"/>
-    <mergeCell ref="L45:R45"/>
-    <mergeCell ref="L46:R46"/>
-    <mergeCell ref="L47:R47"/>
-    <mergeCell ref="L48:R48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="Q71:Q72"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="R71:S72"/>
+    <mergeCell ref="T71:T72"/>
+    <mergeCell ref="U116:U117"/>
+    <mergeCell ref="U71:U72"/>
+    <mergeCell ref="U126:U127"/>
+    <mergeCell ref="U145:U146"/>
+    <mergeCell ref="U151:U152"/>
+    <mergeCell ref="U163:U164"/>
+    <mergeCell ref="U172:U173"/>
+    <mergeCell ref="U183:U184"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/요구사항분석.xlsx
+++ b/요구사항분석.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="요구사항분석" sheetId="2" r:id="rId1"/>
     <sheet name="센서 통신 프로토콜" sheetId="1" r:id="rId2"/>
+    <sheet name="저장 형식" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="216">
   <si>
     <t>STX</t>
   </si>
@@ -676,6 +677,164 @@
   </si>
   <si>
     <t>* UI 크기 ( 1920x1080 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* START 버튼 누른 후 - STOP 버튼 누르면 자동으로 데이터 SAVE 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차축 센서1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-04-07 17:02:23.123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차축 센서2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-04-07 17:02:23.124</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2021-04-07 17:02:23.125</t>
+  </si>
+  <si>
+    <t>2021-04-07 17:02:23.126</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2021-04-07 17:02:23.127</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2021-04-07 17:02:23.128</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2021-04-07 17:02:23.129</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2021-04-07 17:02:23.130</t>
+  </si>
+  <si>
+    <t>2021-04-07 17:02:23.131</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2021-04-07 17:02:23.132</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2021-04-07 17:02:23.133</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2021-04-07 17:02:23.134</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2021-04-07 17:02:23.135</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2021-04-07 17:02:23.136</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2021-04-07 17:02:23.137</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2021-04-07 17:02:23.138</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>1차축 센서3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차축 센서4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차축 센서1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차축 센서2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차축 센서3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차축 센서4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1233,7 +1392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1375,18 +1534,162 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1396,236 +1699,95 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3843,7 +4005,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3851,10 +4013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B26:C32"/>
+  <dimension ref="B26:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3896,6 +4058,11 @@
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C32" s="45" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="45" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3937,7 +4104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B13:U196"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14:Q19"/>
     </sheetView>
   </sheetViews>
@@ -3967,419 +4134,419 @@
   <sheetData>
     <row r="13" spans="4:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D14" s="95" t="s">
+      <c r="D14" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="97"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="83"/>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D15" s="98"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="100"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="86"/>
     </row>
     <row r="16" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D16" s="98"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="100"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="86"/>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D17" s="98"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="100"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="86"/>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="100"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="86"/>
     </row>
     <row r="19" spans="4:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="102"/>
-      <c r="N19" s="102"/>
-      <c r="O19" s="102"/>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="103"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="89"/>
     </row>
     <row r="33" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="3:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="104" t="s">
+      <c r="C34" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105" t="s">
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="105" t="s">
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="105" t="s">
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="M34" s="107"/>
-      <c r="N34" s="107"/>
-      <c r="O34" s="107"/>
-      <c r="P34" s="107"/>
-      <c r="Q34" s="107"/>
-      <c r="R34" s="108"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="92"/>
       <c r="S34" s="43"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C35" s="92" t="s">
+      <c r="C35" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="94" t="s">
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="122"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="93"/>
-      <c r="L35" s="109" t="s">
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="M35" s="110"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="110"/>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="110"/>
-      <c r="R35" s="111"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="95"/>
       <c r="S35" s="44"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C36" s="92" t="s">
+      <c r="C36" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="94" t="s">
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="112" t="s">
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="M36" s="113"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="113"/>
-      <c r="P36" s="113"/>
-      <c r="Q36" s="113"/>
-      <c r="R36" s="114"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="49"/>
       <c r="S36" s="44"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C37" s="92" t="s">
+      <c r="C37" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="94" t="s">
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="93"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="112" t="s">
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="M37" s="113"/>
-      <c r="N37" s="113"/>
-      <c r="O37" s="113"/>
-      <c r="P37" s="113"/>
-      <c r="Q37" s="113"/>
-      <c r="R37" s="114"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="49"/>
       <c r="S37" s="44"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C38" s="92" t="s">
+      <c r="C38" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="94" t="s">
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="118"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="112" t="s">
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="M38" s="113"/>
-      <c r="N38" s="113"/>
-      <c r="O38" s="113"/>
-      <c r="P38" s="113"/>
-      <c r="Q38" s="113"/>
-      <c r="R38" s="114"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="49"/>
       <c r="S38" s="44"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C39" s="92"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="116"/>
-      <c r="L39" s="112"/>
-      <c r="M39" s="113"/>
-      <c r="N39" s="113"/>
-      <c r="O39" s="113"/>
-      <c r="P39" s="113"/>
-      <c r="Q39" s="113"/>
-      <c r="R39" s="114"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="49"/>
       <c r="S39" s="44"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C40" s="115"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="116"/>
-      <c r="K40" s="116"/>
-      <c r="L40" s="123"/>
-      <c r="M40" s="113"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="113"/>
-      <c r="P40" s="113"/>
-      <c r="Q40" s="113"/>
-      <c r="R40" s="114"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="49"/>
       <c r="S40" s="44"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C41" s="115"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="116"/>
-      <c r="K41" s="116"/>
-      <c r="L41" s="123"/>
-      <c r="M41" s="113"/>
-      <c r="N41" s="113"/>
-      <c r="O41" s="113"/>
-      <c r="P41" s="113"/>
-      <c r="Q41" s="113"/>
-      <c r="R41" s="114"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="49"/>
       <c r="S41" s="44"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C42" s="115"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="116"/>
-      <c r="L42" s="123"/>
-      <c r="M42" s="113"/>
-      <c r="N42" s="113"/>
-      <c r="O42" s="113"/>
-      <c r="P42" s="113"/>
-      <c r="Q42" s="113"/>
-      <c r="R42" s="114"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="49"/>
       <c r="S42" s="44"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C43" s="115"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="116"/>
-      <c r="L43" s="123"/>
-      <c r="M43" s="113"/>
-      <c r="N43" s="113"/>
-      <c r="O43" s="113"/>
-      <c r="P43" s="113"/>
-      <c r="Q43" s="113"/>
-      <c r="R43" s="114"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="49"/>
       <c r="S43" s="44"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C44" s="115"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="116"/>
-      <c r="L44" s="123"/>
-      <c r="M44" s="113"/>
-      <c r="N44" s="113"/>
-      <c r="O44" s="113"/>
-      <c r="P44" s="113"/>
-      <c r="Q44" s="113"/>
-      <c r="R44" s="114"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="49"/>
       <c r="S44" s="44"/>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C45" s="115"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="116"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="116"/>
-      <c r="K45" s="116"/>
-      <c r="L45" s="123"/>
-      <c r="M45" s="113"/>
-      <c r="N45" s="113"/>
-      <c r="O45" s="113"/>
-      <c r="P45" s="113"/>
-      <c r="Q45" s="113"/>
-      <c r="R45" s="114"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="49"/>
       <c r="S45" s="44"/>
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C46" s="115"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="116"/>
-      <c r="K46" s="116"/>
-      <c r="L46" s="123"/>
-      <c r="M46" s="113"/>
-      <c r="N46" s="113"/>
-      <c r="O46" s="113"/>
-      <c r="P46" s="113"/>
-      <c r="Q46" s="113"/>
-      <c r="R46" s="114"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="49"/>
       <c r="S46" s="44"/>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C47" s="115"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="116"/>
-      <c r="L47" s="123"/>
-      <c r="M47" s="113"/>
-      <c r="N47" s="113"/>
-      <c r="O47" s="113"/>
-      <c r="P47" s="113"/>
-      <c r="Q47" s="113"/>
-      <c r="R47" s="114"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="49"/>
       <c r="S47" s="44"/>
     </row>
     <row r="48" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="119"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="121"/>
-      <c r="G48" s="120"/>
-      <c r="H48" s="120"/>
-      <c r="I48" s="130"/>
-      <c r="J48" s="120"/>
-      <c r="K48" s="120"/>
-      <c r="L48" s="127"/>
-      <c r="M48" s="128"/>
-      <c r="N48" s="128"/>
-      <c r="O48" s="128"/>
-      <c r="P48" s="128"/>
-      <c r="Q48" s="128"/>
-      <c r="R48" s="129"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="57"/>
+      <c r="Q48" s="57"/>
+      <c r="R48" s="58"/>
       <c r="S48" s="44"/>
     </row>
     <row r="54" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
@@ -4491,57 +4658,57 @@
       </c>
     </row>
     <row r="71" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="47" t="s">
+      <c r="B71" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C71" s="47" t="s">
+      <c r="C71" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D71" s="83" t="s">
+      <c r="D71" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="E71" s="62" t="s">
+      <c r="E71" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="63"/>
-      <c r="G71" s="62" t="s">
+      <c r="F71" s="62"/>
+      <c r="G71" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="63"/>
-      <c r="I71" s="62" t="s">
+      <c r="H71" s="62"/>
+      <c r="I71" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="J71" s="63"/>
-      <c r="K71" s="62" t="s">
+      <c r="J71" s="62"/>
+      <c r="K71" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="L71" s="63"/>
-      <c r="M71" s="62" t="s">
+      <c r="L71" s="62"/>
+      <c r="M71" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="N71" s="63"/>
-      <c r="O71" s="62" t="s">
+      <c r="N71" s="62"/>
+      <c r="O71" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="P71" s="63"/>
-      <c r="Q71" s="47" t="s">
+      <c r="P71" s="62"/>
+      <c r="Q71" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="R71" s="56" t="s">
+      <c r="R71" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="S71" s="57"/>
-      <c r="T71" s="47" t="s">
+      <c r="S71" s="68"/>
+      <c r="T71" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="U71" s="47" t="s">
+      <c r="U71" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="85"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="117"/>
       <c r="E72" s="7" t="s">
         <v>3</v>
       </c>
@@ -4579,10 +4746,10 @@
         <v>4</v>
       </c>
       <c r="Q72" s="64"/>
-      <c r="R72" s="58"/>
-      <c r="S72" s="59"/>
-      <c r="T72" s="48"/>
-      <c r="U72" s="48"/>
+      <c r="R72" s="69"/>
+      <c r="S72" s="70"/>
+      <c r="T72" s="98"/>
+      <c r="U72" s="98"/>
     </row>
     <row r="73" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="8" t="s">
@@ -4672,84 +4839,84 @@
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C82" s="86" t="s">
+      <c r="C82" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="87"/>
-      <c r="E82" s="87"/>
-      <c r="F82" s="88"/>
-      <c r="G82" s="86" t="s">
+      <c r="D82" s="119"/>
+      <c r="E82" s="119"/>
+      <c r="F82" s="120"/>
+      <c r="G82" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="H82" s="87"/>
-      <c r="I82" s="87"/>
-      <c r="J82" s="88"/>
-      <c r="K82" s="124" t="s">
+      <c r="H82" s="119"/>
+      <c r="I82" s="119"/>
+      <c r="J82" s="120"/>
+      <c r="K82" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="L82" s="125"/>
-      <c r="M82" s="125"/>
-      <c r="N82" s="126"/>
+      <c r="L82" s="52"/>
+      <c r="M82" s="52"/>
+      <c r="N82" s="53"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C83" s="89" t="s">
+      <c r="C83" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D83" s="90"/>
-      <c r="E83" s="90"/>
-      <c r="F83" s="91"/>
-      <c r="G83" s="89" t="s">
+      <c r="D83" s="55"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="121"/>
+      <c r="G83" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="H83" s="90"/>
-      <c r="I83" s="90"/>
-      <c r="J83" s="91"/>
-      <c r="K83" s="89" t="s">
+      <c r="H83" s="55"/>
+      <c r="I83" s="55"/>
+      <c r="J83" s="121"/>
+      <c r="K83" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="L83" s="90"/>
-      <c r="M83" s="90"/>
-      <c r="N83" s="126"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="55"/>
+      <c r="N83" s="53"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C84" s="89" t="s">
+      <c r="C84" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D84" s="90"/>
-      <c r="E84" s="90"/>
-      <c r="F84" s="91"/>
-      <c r="G84" s="89" t="s">
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="121"/>
+      <c r="G84" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="H84" s="90"/>
-      <c r="I84" s="90"/>
-      <c r="J84" s="91"/>
-      <c r="K84" s="89" t="s">
+      <c r="H84" s="55"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="121"/>
+      <c r="K84" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="L84" s="90"/>
-      <c r="M84" s="90"/>
-      <c r="N84" s="126"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="55"/>
+      <c r="N84" s="53"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C85" s="89" t="s">
+      <c r="C85" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D85" s="90"/>
-      <c r="E85" s="90"/>
-      <c r="F85" s="91"/>
-      <c r="G85" s="89" t="s">
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="121"/>
+      <c r="G85" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H85" s="90"/>
-      <c r="I85" s="90"/>
-      <c r="J85" s="91"/>
-      <c r="K85" s="89" t="s">
+      <c r="H85" s="55"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="121"/>
+      <c r="K85" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="L85" s="90"/>
-      <c r="M85" s="90"/>
-      <c r="N85" s="126"/>
+      <c r="L85" s="55"/>
+      <c r="M85" s="55"/>
+      <c r="N85" s="53"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C86" s="16"/>
@@ -5026,57 +5193,57 @@
       </c>
     </row>
     <row r="116" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="47" t="s">
+      <c r="B116" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C116" s="47" t="s">
+      <c r="C116" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D116" s="52" t="s">
+      <c r="D116" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="E116" s="62" t="s">
+      <c r="E116" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F116" s="63"/>
-      <c r="G116" s="62" t="s">
+      <c r="F116" s="62"/>
+      <c r="G116" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="H116" s="63"/>
-      <c r="I116" s="62" t="s">
+      <c r="H116" s="62"/>
+      <c r="I116" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="J116" s="63"/>
-      <c r="K116" s="62" t="s">
+      <c r="J116" s="62"/>
+      <c r="K116" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="L116" s="63"/>
-      <c r="M116" s="62" t="s">
+      <c r="L116" s="62"/>
+      <c r="M116" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="N116" s="63"/>
-      <c r="O116" s="62" t="s">
+      <c r="N116" s="62"/>
+      <c r="O116" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="P116" s="63"/>
-      <c r="Q116" s="47" t="s">
+      <c r="P116" s="62"/>
+      <c r="Q116" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="R116" s="56" t="s">
+      <c r="R116" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="S116" s="57"/>
-      <c r="T116" s="47" t="s">
+      <c r="S116" s="68"/>
+      <c r="T116" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="U116" s="47" t="s">
+      <c r="U116" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="117" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="51"/>
-      <c r="C117" s="51"/>
-      <c r="D117" s="53"/>
+      <c r="B117" s="99"/>
+      <c r="C117" s="99"/>
+      <c r="D117" s="101"/>
       <c r="E117" s="7" t="s">
         <v>3</v>
       </c>
@@ -5114,10 +5281,10 @@
         <v>4</v>
       </c>
       <c r="Q117" s="64"/>
-      <c r="R117" s="58"/>
-      <c r="S117" s="59"/>
-      <c r="T117" s="48"/>
-      <c r="U117" s="48"/>
+      <c r="R117" s="69"/>
+      <c r="S117" s="70"/>
+      <c r="T117" s="98"/>
+      <c r="U117" s="98"/>
     </row>
     <row r="118" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B118" s="8" t="s">
@@ -5318,57 +5485,57 @@
       </c>
     </row>
     <row r="126" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="47" t="s">
+      <c r="B126" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C126" s="47" t="s">
+      <c r="C126" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D126" s="52" t="s">
+      <c r="D126" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="E126" s="71" t="s">
+      <c r="E126" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="F126" s="72"/>
-      <c r="G126" s="73" t="s">
+      <c r="F126" s="103"/>
+      <c r="G126" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="H126" s="74"/>
-      <c r="I126" s="75" t="s">
+      <c r="H126" s="105"/>
+      <c r="I126" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="J126" s="76"/>
-      <c r="K126" s="65" t="s">
+      <c r="J126" s="107"/>
+      <c r="K126" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="L126" s="66"/>
-      <c r="M126" s="67" t="s">
+      <c r="L126" s="109"/>
+      <c r="M126" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="N126" s="68"/>
-      <c r="O126" s="69" t="s">
+      <c r="N126" s="111"/>
+      <c r="O126" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="P126" s="70"/>
-      <c r="Q126" s="49" t="s">
+      <c r="P126" s="113"/>
+      <c r="Q126" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="R126" s="77" t="s">
+      <c r="R126" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="S126" s="57"/>
-      <c r="T126" s="47" t="s">
+      <c r="S126" s="68"/>
+      <c r="T126" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="U126" s="47" t="s">
+      <c r="U126" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="127" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="51"/>
-      <c r="C127" s="51"/>
-      <c r="D127" s="53"/>
+      <c r="B127" s="99"/>
+      <c r="C127" s="99"/>
+      <c r="D127" s="101"/>
       <c r="E127" s="22" t="s">
         <v>3</v>
       </c>
@@ -5405,11 +5572,11 @@
       <c r="P127" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q127" s="50"/>
-      <c r="R127" s="78"/>
-      <c r="S127" s="59"/>
-      <c r="T127" s="48"/>
-      <c r="U127" s="48"/>
+      <c r="Q127" s="97"/>
+      <c r="R127" s="123"/>
+      <c r="S127" s="70"/>
+      <c r="T127" s="98"/>
+      <c r="U127" s="98"/>
     </row>
     <row r="128" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B128" s="8" t="s">
@@ -5576,57 +5743,57 @@
       </c>
     </row>
     <row r="145" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="47" t="s">
+      <c r="B145" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C145" s="47" t="s">
+      <c r="C145" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D145" s="52" t="s">
+      <c r="D145" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="E145" s="62" t="s">
+      <c r="E145" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F145" s="63"/>
-      <c r="G145" s="62" t="s">
+      <c r="F145" s="62"/>
+      <c r="G145" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="H145" s="63"/>
-      <c r="I145" s="62" t="s">
+      <c r="H145" s="62"/>
+      <c r="I145" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="J145" s="63"/>
-      <c r="K145" s="62" t="s">
+      <c r="J145" s="62"/>
+      <c r="K145" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="L145" s="63"/>
-      <c r="M145" s="79" t="s">
+      <c r="L145" s="62"/>
+      <c r="M145" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="N145" s="80"/>
-      <c r="O145" s="81" t="s">
+      <c r="N145" s="125"/>
+      <c r="O145" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="P145" s="82"/>
-      <c r="Q145" s="83" t="s">
+      <c r="P145" s="127"/>
+      <c r="Q145" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="R145" s="56" t="s">
+      <c r="R145" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="S145" s="57"/>
-      <c r="T145" s="47" t="s">
+      <c r="S145" s="68"/>
+      <c r="T145" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="U145" s="47" t="s">
+      <c r="U145" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="146" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="51"/>
-      <c r="C146" s="51"/>
-      <c r="D146" s="53"/>
+      <c r="B146" s="99"/>
+      <c r="C146" s="99"/>
+      <c r="D146" s="101"/>
       <c r="E146" s="7" t="s">
         <v>3</v>
       </c>
@@ -5663,11 +5830,11 @@
       <c r="P146" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q146" s="84"/>
-      <c r="R146" s="58"/>
-      <c r="S146" s="59"/>
-      <c r="T146" s="48"/>
-      <c r="U146" s="48"/>
+      <c r="Q146" s="128"/>
+      <c r="R146" s="69"/>
+      <c r="S146" s="70"/>
+      <c r="T146" s="98"/>
+      <c r="U146" s="98"/>
     </row>
     <row r="147" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B147" s="8" t="s">
@@ -5799,57 +5966,57 @@
       </c>
     </row>
     <row r="151" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="47" t="s">
+      <c r="B151" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C151" s="47" t="s">
+      <c r="C151" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D151" s="52" t="s">
+      <c r="D151" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="E151" s="71" t="s">
+      <c r="E151" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="F151" s="72"/>
-      <c r="G151" s="73" t="s">
+      <c r="F151" s="103"/>
+      <c r="G151" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="H151" s="74"/>
-      <c r="I151" s="75" t="s">
+      <c r="H151" s="105"/>
+      <c r="I151" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="J151" s="76"/>
-      <c r="K151" s="65" t="s">
+      <c r="J151" s="107"/>
+      <c r="K151" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="L151" s="66"/>
-      <c r="M151" s="67" t="s">
+      <c r="L151" s="109"/>
+      <c r="M151" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="N151" s="68"/>
-      <c r="O151" s="69" t="s">
+      <c r="N151" s="111"/>
+      <c r="O151" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="P151" s="70"/>
-      <c r="Q151" s="49" t="s">
+      <c r="P151" s="113"/>
+      <c r="Q151" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="R151" s="77" t="s">
+      <c r="R151" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="S151" s="57"/>
-      <c r="T151" s="47" t="s">
+      <c r="S151" s="68"/>
+      <c r="T151" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="U151" s="47" t="s">
+      <c r="U151" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="152" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="51"/>
-      <c r="C152" s="51"/>
-      <c r="D152" s="53"/>
+      <c r="B152" s="99"/>
+      <c r="C152" s="99"/>
+      <c r="D152" s="101"/>
       <c r="E152" s="22" t="s">
         <v>3</v>
       </c>
@@ -5886,11 +6053,11 @@
       <c r="P152" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q152" s="50"/>
-      <c r="R152" s="78"/>
-      <c r="S152" s="59"/>
-      <c r="T152" s="48"/>
-      <c r="U152" s="48"/>
+      <c r="Q152" s="97"/>
+      <c r="R152" s="123"/>
+      <c r="S152" s="70"/>
+      <c r="T152" s="98"/>
+      <c r="U152" s="98"/>
     </row>
     <row r="153" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B153" s="8" t="s">
@@ -6037,57 +6204,57 @@
       </c>
     </row>
     <row r="163" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="47" t="s">
+      <c r="B163" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C163" s="47" t="s">
+      <c r="C163" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D163" s="52" t="s">
+      <c r="D163" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="E163" s="71" t="s">
+      <c r="E163" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="F163" s="72"/>
-      <c r="G163" s="73" t="s">
+      <c r="F163" s="103"/>
+      <c r="G163" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="H163" s="74"/>
-      <c r="I163" s="75" t="s">
+      <c r="H163" s="105"/>
+      <c r="I163" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="J163" s="76"/>
-      <c r="K163" s="65" t="s">
+      <c r="J163" s="107"/>
+      <c r="K163" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="L163" s="66"/>
-      <c r="M163" s="67" t="s">
+      <c r="L163" s="109"/>
+      <c r="M163" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="N163" s="68"/>
-      <c r="O163" s="69" t="s">
+      <c r="N163" s="111"/>
+      <c r="O163" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="P163" s="70"/>
-      <c r="Q163" s="49" t="s">
+      <c r="P163" s="113"/>
+      <c r="Q163" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="R163" s="56" t="s">
+      <c r="R163" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="S163" s="57"/>
-      <c r="T163" s="47" t="s">
+      <c r="S163" s="68"/>
+      <c r="T163" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="U163" s="47" t="s">
+      <c r="U163" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="164" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="51"/>
-      <c r="C164" s="51"/>
-      <c r="D164" s="53"/>
+      <c r="B164" s="99"/>
+      <c r="C164" s="99"/>
+      <c r="D164" s="101"/>
       <c r="E164" s="22" t="s">
         <v>3</v>
       </c>
@@ -6124,11 +6291,11 @@
       <c r="P164" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q164" s="50"/>
-      <c r="R164" s="58"/>
-      <c r="S164" s="59"/>
-      <c r="T164" s="48"/>
-      <c r="U164" s="48"/>
+      <c r="Q164" s="97"/>
+      <c r="R164" s="69"/>
+      <c r="S164" s="70"/>
+      <c r="T164" s="98"/>
+      <c r="U164" s="98"/>
     </row>
     <row r="165" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B165" s="8" t="s">
@@ -6327,57 +6494,57 @@
       </c>
     </row>
     <row r="172" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="47" t="s">
+      <c r="B172" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C172" s="47" t="s">
+      <c r="C172" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D172" s="52" t="s">
+      <c r="D172" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="E172" s="71" t="s">
+      <c r="E172" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="F172" s="72"/>
-      <c r="G172" s="73" t="s">
+      <c r="F172" s="103"/>
+      <c r="G172" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="H172" s="74"/>
-      <c r="I172" s="75" t="s">
+      <c r="H172" s="105"/>
+      <c r="I172" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="J172" s="76"/>
-      <c r="K172" s="65" t="s">
+      <c r="J172" s="107"/>
+      <c r="K172" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="L172" s="66"/>
-      <c r="M172" s="67" t="s">
+      <c r="L172" s="109"/>
+      <c r="M172" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="N172" s="68"/>
-      <c r="O172" s="69" t="s">
+      <c r="N172" s="111"/>
+      <c r="O172" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="P172" s="70"/>
-      <c r="Q172" s="49" t="s">
+      <c r="P172" s="113"/>
+      <c r="Q172" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="R172" s="60" t="s">
+      <c r="R172" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="S172" s="57"/>
-      <c r="T172" s="47" t="s">
+      <c r="S172" s="68"/>
+      <c r="T172" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="U172" s="47" t="s">
+      <c r="U172" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="173" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B173" s="51"/>
-      <c r="C173" s="51"/>
-      <c r="D173" s="53"/>
+      <c r="B173" s="99"/>
+      <c r="C173" s="99"/>
+      <c r="D173" s="101"/>
       <c r="E173" s="22" t="s">
         <v>3</v>
       </c>
@@ -6414,11 +6581,11 @@
       <c r="P173" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q173" s="50"/>
-      <c r="R173" s="61"/>
-      <c r="S173" s="59"/>
-      <c r="T173" s="48"/>
-      <c r="U173" s="48"/>
+      <c r="Q173" s="97"/>
+      <c r="R173" s="115"/>
+      <c r="S173" s="70"/>
+      <c r="T173" s="98"/>
+      <c r="U173" s="98"/>
     </row>
     <row r="174" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B174" s="8" t="s">
@@ -6560,57 +6727,57 @@
       </c>
     </row>
     <row r="183" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B183" s="47" t="s">
+      <c r="B183" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C183" s="47" t="s">
+      <c r="C183" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D183" s="52" t="s">
+      <c r="D183" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="E183" s="54" t="s">
+      <c r="E183" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="F183" s="55"/>
-      <c r="G183" s="54" t="s">
+      <c r="F183" s="130"/>
+      <c r="G183" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="H183" s="55"/>
-      <c r="I183" s="54" t="s">
+      <c r="H183" s="130"/>
+      <c r="I183" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="J183" s="55"/>
-      <c r="K183" s="54" t="s">
+      <c r="J183" s="130"/>
+      <c r="K183" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="L183" s="55"/>
-      <c r="M183" s="54" t="s">
+      <c r="L183" s="130"/>
+      <c r="M183" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="N183" s="55"/>
-      <c r="O183" s="54" t="s">
+      <c r="N183" s="130"/>
+      <c r="O183" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="P183" s="55"/>
-      <c r="Q183" s="49" t="s">
+      <c r="P183" s="130"/>
+      <c r="Q183" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="R183" s="56" t="s">
+      <c r="R183" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="S183" s="57"/>
-      <c r="T183" s="47" t="s">
+      <c r="S183" s="68"/>
+      <c r="T183" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="U183" s="47" t="s">
+      <c r="U183" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="184" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B184" s="51"/>
-      <c r="C184" s="51"/>
-      <c r="D184" s="53"/>
+      <c r="B184" s="99"/>
+      <c r="C184" s="99"/>
+      <c r="D184" s="101"/>
       <c r="E184" s="15" t="s">
         <v>3</v>
       </c>
@@ -6647,11 +6814,11 @@
       <c r="P184" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q184" s="50"/>
-      <c r="R184" s="58"/>
-      <c r="S184" s="59"/>
-      <c r="T184" s="48"/>
-      <c r="U184" s="48"/>
+      <c r="Q184" s="97"/>
+      <c r="R184" s="69"/>
+      <c r="S184" s="70"/>
+      <c r="T184" s="98"/>
+      <c r="U184" s="98"/>
     </row>
     <row r="185" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B185" s="8" t="s">
@@ -6847,57 +7014,57 @@
       </c>
     </row>
     <row r="192" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B192" s="47" t="s">
+      <c r="B192" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="47" t="s">
+      <c r="C192" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D192" s="52" t="s">
+      <c r="D192" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="E192" s="54" t="s">
+      <c r="E192" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="F192" s="55"/>
-      <c r="G192" s="54" t="s">
+      <c r="F192" s="130"/>
+      <c r="G192" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="H192" s="55"/>
-      <c r="I192" s="54" t="s">
+      <c r="H192" s="130"/>
+      <c r="I192" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="J192" s="55"/>
-      <c r="K192" s="54" t="s">
+      <c r="J192" s="130"/>
+      <c r="K192" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="L192" s="55"/>
-      <c r="M192" s="54" t="s">
+      <c r="L192" s="130"/>
+      <c r="M192" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="N192" s="55"/>
-      <c r="O192" s="54" t="s">
+      <c r="N192" s="130"/>
+      <c r="O192" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="P192" s="55"/>
-      <c r="Q192" s="49" t="s">
+      <c r="P192" s="130"/>
+      <c r="Q192" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="R192" s="60" t="s">
+      <c r="R192" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="S192" s="57"/>
-      <c r="T192" s="47" t="s">
+      <c r="S192" s="68"/>
+      <c r="T192" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="U192" s="47" t="s">
+      <c r="U192" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="193" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="51"/>
-      <c r="C193" s="51"/>
-      <c r="D193" s="53"/>
+      <c r="B193" s="99"/>
+      <c r="C193" s="99"/>
+      <c r="D193" s="101"/>
       <c r="E193" s="15" t="s">
         <v>3</v>
       </c>
@@ -6934,11 +7101,11 @@
       <c r="P193" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q193" s="50"/>
-      <c r="R193" s="61"/>
-      <c r="S193" s="59"/>
-      <c r="T193" s="48"/>
-      <c r="U193" s="48"/>
+      <c r="Q193" s="97"/>
+      <c r="R193" s="115"/>
+      <c r="S193" s="70"/>
+      <c r="T193" s="98"/>
+      <c r="U193" s="98"/>
     </row>
     <row r="194" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B194" s="8" t="s">
@@ -7009,28 +7176,150 @@
     </row>
   </sheetData>
   <mergeCells count="190">
-    <mergeCell ref="L38:R38"/>
-    <mergeCell ref="L39:R39"/>
-    <mergeCell ref="L40:R40"/>
-    <mergeCell ref="L41:R41"/>
-    <mergeCell ref="L42:R42"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="L43:R43"/>
-    <mergeCell ref="L44:R44"/>
-    <mergeCell ref="L45:R45"/>
-    <mergeCell ref="L46:R46"/>
-    <mergeCell ref="L47:R47"/>
-    <mergeCell ref="L48:R48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="Q71:Q72"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="R71:S72"/>
+    <mergeCell ref="T71:T72"/>
+    <mergeCell ref="U116:U117"/>
+    <mergeCell ref="U71:U72"/>
+    <mergeCell ref="U126:U127"/>
+    <mergeCell ref="U145:U146"/>
+    <mergeCell ref="U151:U152"/>
+    <mergeCell ref="U163:U164"/>
+    <mergeCell ref="U172:U173"/>
+    <mergeCell ref="U183:U184"/>
+    <mergeCell ref="U192:U193"/>
+    <mergeCell ref="Q183:Q184"/>
+    <mergeCell ref="T183:T184"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="D192:D193"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="I192:J192"/>
+    <mergeCell ref="K192:L192"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="O192:P192"/>
+    <mergeCell ref="Q192:Q193"/>
+    <mergeCell ref="T192:T193"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="I183:J183"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="O183:P183"/>
+    <mergeCell ref="R183:S184"/>
+    <mergeCell ref="R192:S193"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="T116:T117"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="O116:P116"/>
+    <mergeCell ref="Q116:Q117"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="R116:S117"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="O126:P126"/>
+    <mergeCell ref="Q126:Q127"/>
+    <mergeCell ref="T126:T127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="R126:S127"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="O145:P145"/>
+    <mergeCell ref="Q145:Q146"/>
+    <mergeCell ref="T145:T146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="I145:J145"/>
+    <mergeCell ref="R145:S146"/>
+    <mergeCell ref="Q151:Q152"/>
+    <mergeCell ref="T151:T152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="I151:J151"/>
+    <mergeCell ref="R151:S152"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="O151:P151"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="O172:P172"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="I163:J163"/>
+    <mergeCell ref="Q172:Q173"/>
+    <mergeCell ref="T172:T173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="I172:J172"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="O163:P163"/>
+    <mergeCell ref="Q163:Q164"/>
+    <mergeCell ref="R172:S173"/>
+    <mergeCell ref="T163:T164"/>
+    <mergeCell ref="R163:S164"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="D14:Q19"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="L34:R34"/>
+    <mergeCell ref="L35:R35"/>
+    <mergeCell ref="L36:R36"/>
+    <mergeCell ref="L37:R37"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="F48:H48"/>
     <mergeCell ref="I34:K34"/>
@@ -7055,150 +7344,28 @@
     <mergeCell ref="F42:H42"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="F43:H43"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="D14:Q19"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="L34:R34"/>
-    <mergeCell ref="L35:R35"/>
-    <mergeCell ref="L36:R36"/>
-    <mergeCell ref="L37:R37"/>
-    <mergeCell ref="Q172:Q173"/>
-    <mergeCell ref="T172:T173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="I172:J172"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="O163:P163"/>
-    <mergeCell ref="Q163:Q164"/>
-    <mergeCell ref="R172:S173"/>
-    <mergeCell ref="T163:T164"/>
-    <mergeCell ref="R163:S164"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K172:L172"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="O172:P172"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="I163:J163"/>
-    <mergeCell ref="Q151:Q152"/>
-    <mergeCell ref="T151:T152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="I151:J151"/>
-    <mergeCell ref="R151:S152"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="O151:P151"/>
-    <mergeCell ref="R126:S127"/>
-    <mergeCell ref="K145:L145"/>
-    <mergeCell ref="M145:N145"/>
-    <mergeCell ref="O145:P145"/>
-    <mergeCell ref="Q145:Q146"/>
-    <mergeCell ref="T145:T146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="I145:J145"/>
-    <mergeCell ref="R145:S146"/>
-    <mergeCell ref="R192:S193"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="T116:T117"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="O116:P116"/>
-    <mergeCell ref="Q116:Q117"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="R116:S117"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="O126:P126"/>
-    <mergeCell ref="Q126:Q127"/>
-    <mergeCell ref="T126:T127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="I126:J126"/>
-    <mergeCell ref="U192:U193"/>
-    <mergeCell ref="Q183:Q184"/>
-    <mergeCell ref="T183:T184"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="D192:D193"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="I192:J192"/>
-    <mergeCell ref="K192:L192"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="O192:P192"/>
-    <mergeCell ref="Q192:Q193"/>
-    <mergeCell ref="T192:T193"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="I183:J183"/>
-    <mergeCell ref="K183:L183"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="O183:P183"/>
-    <mergeCell ref="R183:S184"/>
-    <mergeCell ref="T71:T72"/>
-    <mergeCell ref="U116:U117"/>
-    <mergeCell ref="U71:U72"/>
-    <mergeCell ref="U126:U127"/>
-    <mergeCell ref="U145:U146"/>
-    <mergeCell ref="U151:U152"/>
-    <mergeCell ref="U163:U164"/>
-    <mergeCell ref="U172:U173"/>
-    <mergeCell ref="U183:U184"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="L39:R39"/>
+    <mergeCell ref="L40:R40"/>
+    <mergeCell ref="L41:R41"/>
+    <mergeCell ref="L42:R42"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="L43:R43"/>
+    <mergeCell ref="L44:R44"/>
+    <mergeCell ref="L45:R45"/>
+    <mergeCell ref="L46:R46"/>
+    <mergeCell ref="L47:R47"/>
+    <mergeCell ref="L48:R48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:Q72"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="R71:S72"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7209,4 +7376,602 @@
     <brk id="158" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" style="131" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="11.75" style="131" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="131"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="131" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="131" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="131" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="131" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="131" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="131" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="131" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" s="131" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="131" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="131" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="131" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="131" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="131" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="131" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="131" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="131" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" s="131" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="131" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="131" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="131" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="131" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="131" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="131" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="131" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="131" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="131" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="131" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="131" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="131" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="131" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="131" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="131" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="131" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="131" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="131" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="131" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="131" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6" s="131" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="131" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="131" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="131" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="131" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="131" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="131" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="131" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="131" t="s">
+        <v>178</v>
+      </c>
+      <c r="I7" s="131" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="131" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="131" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="131" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="131" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="131" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="131" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="131" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" s="131" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="131" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="131" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="131" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="131" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="131" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="131" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="131" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="131" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" s="131" t="s">
+        <v>188</v>
+      </c>
+      <c r="I9" s="131" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="131" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="G10" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="I10" s="131" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="131" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="131" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="131" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="131" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="131" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="131" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" s="131" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11" s="131" t="s">
+        <v>192</v>
+      </c>
+      <c r="I11" s="131" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="131" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="131" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="131" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="131" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="131" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="131" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="131" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" s="131" t="s">
+        <v>175</v>
+      </c>
+      <c r="I12" s="131" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="131" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="131" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="131" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="131" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="131" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="131" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="131" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="131" t="s">
+        <v>195</v>
+      </c>
+      <c r="I13" s="131" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="131" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="131" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="131" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="131" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="131" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="131" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" s="131" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="131" t="s">
+        <v>197</v>
+      </c>
+      <c r="I14" s="131" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="131" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="131" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="131" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="131" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="131" t="s">
+        <v>199</v>
+      </c>
+      <c r="F15" s="131" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15" s="131" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="131" t="s">
+        <v>199</v>
+      </c>
+      <c r="I15" s="131" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="131" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="131" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="131" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="131" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="131" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="131" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="131" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" s="131" t="s">
+        <v>201</v>
+      </c>
+      <c r="I16" s="131" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="131" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="131" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="131" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="131" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="131" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="131" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" s="131" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" s="131" t="s">
+        <v>203</v>
+      </c>
+      <c r="I17" s="131" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="131" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="131" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="131" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="131" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="131" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" s="131" t="s">
+        <v>205</v>
+      </c>
+      <c r="G18" s="131" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" s="131" t="s">
+        <v>205</v>
+      </c>
+      <c r="I18" s="131" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="131" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="131" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="131" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="131" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="131" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="131" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="131" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" s="131" t="s">
+        <v>207</v>
+      </c>
+      <c r="I19" s="131" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="131" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="131" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="131" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="131" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" s="131" t="s">
+        <v>209</v>
+      </c>
+      <c r="F20" s="131" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20" s="131" t="s">
+        <v>209</v>
+      </c>
+      <c r="H20" s="131" t="s">
+        <v>209</v>
+      </c>
+      <c r="I20" s="131" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/요구사항분석.xlsx
+++ b/요구사항분석.xlsx
@@ -1534,6 +1534,204 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1543,6 +1741,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1555,12 +1777,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1572,222 +1788,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4005,7 +4005,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4016,7 +4016,7 @@
   <dimension ref="B26:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4104,8 +4104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B13:U196"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:Q19"/>
+    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M120" sqref="M120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4134,419 +4134,419 @@
   <sheetData>
     <row r="13" spans="4:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="83"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="98"/>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="86"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="101"/>
     </row>
     <row r="16" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D16" s="84"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="86"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="101"/>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="86"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="101"/>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="86"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="101"/>
     </row>
     <row r="19" spans="4:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="89"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="104"/>
     </row>
     <row r="33" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="3:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="90" t="s">
+      <c r="C34" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73" t="s">
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="73" t="s">
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="73" t="s">
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="74"/>
-      <c r="R34" s="92"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="108"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="108"/>
+      <c r="Q34" s="108"/>
+      <c r="R34" s="109"/>
       <c r="S34" s="43"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="80" t="s">
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="93" t="s">
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="94"/>
-      <c r="P35" s="94"/>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="95"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="111"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="112"/>
       <c r="S35" s="44"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C36" s="79" t="s">
+      <c r="C36" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="80" t="s">
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="47" t="s">
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="49"/>
+      <c r="M36" s="114"/>
+      <c r="N36" s="114"/>
+      <c r="O36" s="114"/>
+      <c r="P36" s="114"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="115"/>
       <c r="S36" s="44"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C37" s="79" t="s">
+      <c r="C37" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="80" t="s">
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="47" t="s">
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="49"/>
+      <c r="M37" s="114"/>
+      <c r="N37" s="114"/>
+      <c r="O37" s="114"/>
+      <c r="P37" s="114"/>
+      <c r="Q37" s="114"/>
+      <c r="R37" s="115"/>
       <c r="S37" s="44"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C38" s="79" t="s">
+      <c r="C38" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="80" t="s">
+      <c r="D38" s="94"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="47" t="s">
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="49"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="114"/>
+      <c r="O38" s="114"/>
+      <c r="P38" s="114"/>
+      <c r="Q38" s="114"/>
+      <c r="R38" s="115"/>
       <c r="S38" s="44"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C39" s="79"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="49"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="119"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="114"/>
+      <c r="N39" s="114"/>
+      <c r="O39" s="114"/>
+      <c r="P39" s="114"/>
+      <c r="Q39" s="114"/>
+      <c r="R39" s="115"/>
       <c r="S39" s="44"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C40" s="77"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="49"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="117"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="117"/>
+      <c r="K40" s="117"/>
+      <c r="L40" s="124"/>
+      <c r="M40" s="114"/>
+      <c r="N40" s="114"/>
+      <c r="O40" s="114"/>
+      <c r="P40" s="114"/>
+      <c r="Q40" s="114"/>
+      <c r="R40" s="115"/>
       <c r="S40" s="44"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C41" s="77"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="49"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="119"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="124"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="114"/>
+      <c r="P41" s="114"/>
+      <c r="Q41" s="114"/>
+      <c r="R41" s="115"/>
       <c r="S41" s="44"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C42" s="77"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="49"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="119"/>
+      <c r="J42" s="117"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="124"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="115"/>
       <c r="S42" s="44"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C43" s="77"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="49"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="119"/>
+      <c r="J43" s="117"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="124"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="114"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="115"/>
       <c r="S43" s="44"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C44" s="77"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="49"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="117"/>
+      <c r="K44" s="117"/>
+      <c r="L44" s="124"/>
+      <c r="M44" s="114"/>
+      <c r="N44" s="114"/>
+      <c r="O44" s="114"/>
+      <c r="P44" s="114"/>
+      <c r="Q44" s="114"/>
+      <c r="R44" s="115"/>
       <c r="S44" s="44"/>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C45" s="77"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="48"/>
-      <c r="R45" s="49"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="119"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="124"/>
+      <c r="M45" s="114"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="114"/>
+      <c r="P45" s="114"/>
+      <c r="Q45" s="114"/>
+      <c r="R45" s="115"/>
       <c r="S45" s="44"/>
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C46" s="77"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="66"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="48"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="49"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="119"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="124"/>
+      <c r="M46" s="114"/>
+      <c r="N46" s="114"/>
+      <c r="O46" s="114"/>
+      <c r="P46" s="114"/>
+      <c r="Q46" s="114"/>
+      <c r="R46" s="115"/>
       <c r="S46" s="44"/>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C47" s="77"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="49"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="119"/>
+      <c r="J47" s="117"/>
+      <c r="K47" s="117"/>
+      <c r="L47" s="124"/>
+      <c r="M47" s="114"/>
+      <c r="N47" s="114"/>
+      <c r="O47" s="114"/>
+      <c r="P47" s="114"/>
+      <c r="Q47" s="114"/>
+      <c r="R47" s="115"/>
       <c r="S47" s="44"/>
     </row>
     <row r="48" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="71"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="57"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="58"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="121"/>
+      <c r="K48" s="121"/>
+      <c r="L48" s="128"/>
+      <c r="M48" s="129"/>
+      <c r="N48" s="129"/>
+      <c r="O48" s="129"/>
+      <c r="P48" s="129"/>
+      <c r="Q48" s="129"/>
+      <c r="R48" s="130"/>
       <c r="S48" s="44"/>
     </row>
     <row r="54" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
@@ -4658,57 +4658,57 @@
       </c>
     </row>
     <row r="71" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="63" t="s">
+      <c r="B71" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C71" s="63" t="s">
+      <c r="C71" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D71" s="116" t="s">
+      <c r="D71" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="E71" s="61" t="s">
+      <c r="E71" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="62"/>
-      <c r="G71" s="61" t="s">
+      <c r="F71" s="64"/>
+      <c r="G71" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="62"/>
-      <c r="I71" s="61" t="s">
+      <c r="H71" s="64"/>
+      <c r="I71" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="J71" s="62"/>
-      <c r="K71" s="61" t="s">
+      <c r="J71" s="64"/>
+      <c r="K71" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="L71" s="62"/>
-      <c r="M71" s="61" t="s">
+      <c r="L71" s="64"/>
+      <c r="M71" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="N71" s="62"/>
-      <c r="O71" s="61" t="s">
+      <c r="N71" s="64"/>
+      <c r="O71" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="P71" s="62"/>
-      <c r="Q71" s="63" t="s">
+      <c r="P71" s="64"/>
+      <c r="Q71" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="R71" s="67" t="s">
+      <c r="R71" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="S71" s="68"/>
-      <c r="T71" s="63" t="s">
+      <c r="S71" s="58"/>
+      <c r="T71" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="U71" s="63" t="s">
+      <c r="U71" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="99"/>
-      <c r="C72" s="99"/>
-      <c r="D72" s="117"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="86"/>
       <c r="E72" s="7" t="s">
         <v>3</v>
       </c>
@@ -4745,11 +4745,11 @@
       <c r="P72" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q72" s="64"/>
-      <c r="R72" s="69"/>
-      <c r="S72" s="70"/>
-      <c r="T72" s="98"/>
-      <c r="U72" s="98"/>
+      <c r="Q72" s="65"/>
+      <c r="R72" s="59"/>
+      <c r="S72" s="60"/>
+      <c r="T72" s="49"/>
+      <c r="U72" s="49"/>
     </row>
     <row r="73" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="8" t="s">
@@ -4839,84 +4839,84 @@
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C82" s="118" t="s">
+      <c r="C82" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="119"/>
-      <c r="E82" s="119"/>
-      <c r="F82" s="120"/>
-      <c r="G82" s="118" t="s">
+      <c r="D82" s="88"/>
+      <c r="E82" s="88"/>
+      <c r="F82" s="89"/>
+      <c r="G82" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="H82" s="119"/>
-      <c r="I82" s="119"/>
-      <c r="J82" s="120"/>
-      <c r="K82" s="51" t="s">
+      <c r="H82" s="88"/>
+      <c r="I82" s="88"/>
+      <c r="J82" s="89"/>
+      <c r="K82" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="L82" s="52"/>
-      <c r="M82" s="52"/>
-      <c r="N82" s="53"/>
+      <c r="L82" s="126"/>
+      <c r="M82" s="126"/>
+      <c r="N82" s="127"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C83" s="54" t="s">
+      <c r="C83" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="121"/>
-      <c r="G83" s="54" t="s">
+      <c r="D83" s="91"/>
+      <c r="E83" s="91"/>
+      <c r="F83" s="92"/>
+      <c r="G83" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="H83" s="55"/>
-      <c r="I83" s="55"/>
-      <c r="J83" s="121"/>
-      <c r="K83" s="54" t="s">
+      <c r="H83" s="91"/>
+      <c r="I83" s="91"/>
+      <c r="J83" s="92"/>
+      <c r="K83" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="L83" s="55"/>
-      <c r="M83" s="55"/>
-      <c r="N83" s="53"/>
+      <c r="L83" s="91"/>
+      <c r="M83" s="91"/>
+      <c r="N83" s="127"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C84" s="54" t="s">
+      <c r="C84" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="121"/>
-      <c r="G84" s="54" t="s">
+      <c r="D84" s="91"/>
+      <c r="E84" s="91"/>
+      <c r="F84" s="92"/>
+      <c r="G84" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="H84" s="55"/>
-      <c r="I84" s="55"/>
-      <c r="J84" s="121"/>
-      <c r="K84" s="54" t="s">
+      <c r="H84" s="91"/>
+      <c r="I84" s="91"/>
+      <c r="J84" s="92"/>
+      <c r="K84" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="L84" s="55"/>
-      <c r="M84" s="55"/>
-      <c r="N84" s="53"/>
+      <c r="L84" s="91"/>
+      <c r="M84" s="91"/>
+      <c r="N84" s="127"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C85" s="54" t="s">
+      <c r="C85" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="D85" s="55"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="121"/>
-      <c r="G85" s="54" t="s">
+      <c r="D85" s="91"/>
+      <c r="E85" s="91"/>
+      <c r="F85" s="92"/>
+      <c r="G85" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="H85" s="55"/>
-      <c r="I85" s="55"/>
-      <c r="J85" s="121"/>
-      <c r="K85" s="54" t="s">
+      <c r="H85" s="91"/>
+      <c r="I85" s="91"/>
+      <c r="J85" s="92"/>
+      <c r="K85" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="L85" s="55"/>
-      <c r="M85" s="55"/>
-      <c r="N85" s="53"/>
+      <c r="L85" s="91"/>
+      <c r="M85" s="91"/>
+      <c r="N85" s="127"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C86" s="16"/>
@@ -5193,57 +5193,57 @@
       </c>
     </row>
     <row r="116" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="63" t="s">
+      <c r="B116" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C116" s="63" t="s">
+      <c r="C116" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D116" s="100" t="s">
+      <c r="D116" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E116" s="61" t="s">
+      <c r="E116" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F116" s="62"/>
-      <c r="G116" s="61" t="s">
+      <c r="F116" s="64"/>
+      <c r="G116" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="H116" s="62"/>
-      <c r="I116" s="61" t="s">
+      <c r="H116" s="64"/>
+      <c r="I116" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="J116" s="62"/>
-      <c r="K116" s="61" t="s">
+      <c r="J116" s="64"/>
+      <c r="K116" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="L116" s="62"/>
-      <c r="M116" s="61" t="s">
+      <c r="L116" s="64"/>
+      <c r="M116" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="N116" s="62"/>
-      <c r="O116" s="61" t="s">
+      <c r="N116" s="64"/>
+      <c r="O116" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="P116" s="62"/>
-      <c r="Q116" s="63" t="s">
+      <c r="P116" s="64"/>
+      <c r="Q116" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="R116" s="67" t="s">
+      <c r="R116" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="S116" s="68"/>
-      <c r="T116" s="63" t="s">
+      <c r="S116" s="58"/>
+      <c r="T116" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="U116" s="63" t="s">
+      <c r="U116" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="117" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="99"/>
-      <c r="C117" s="99"/>
-      <c r="D117" s="101"/>
+      <c r="B117" s="52"/>
+      <c r="C117" s="52"/>
+      <c r="D117" s="54"/>
       <c r="E117" s="7" t="s">
         <v>3</v>
       </c>
@@ -5280,11 +5280,11 @@
       <c r="P117" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q117" s="64"/>
-      <c r="R117" s="69"/>
-      <c r="S117" s="70"/>
-      <c r="T117" s="98"/>
-      <c r="U117" s="98"/>
+      <c r="Q117" s="65"/>
+      <c r="R117" s="59"/>
+      <c r="S117" s="60"/>
+      <c r="T117" s="49"/>
+      <c r="U117" s="49"/>
     </row>
     <row r="118" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B118" s="8" t="s">
@@ -5485,57 +5485,57 @@
       </c>
     </row>
     <row r="126" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="63" t="s">
+      <c r="B126" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C126" s="63" t="s">
+      <c r="C126" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D126" s="100" t="s">
+      <c r="D126" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E126" s="102" t="s">
+      <c r="E126" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F126" s="103"/>
-      <c r="G126" s="104" t="s">
+      <c r="F126" s="73"/>
+      <c r="G126" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H126" s="105"/>
-      <c r="I126" s="106" t="s">
+      <c r="H126" s="75"/>
+      <c r="I126" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="J126" s="107"/>
-      <c r="K126" s="108" t="s">
+      <c r="J126" s="77"/>
+      <c r="K126" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="L126" s="109"/>
-      <c r="M126" s="110" t="s">
+      <c r="L126" s="67"/>
+      <c r="M126" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="N126" s="111"/>
-      <c r="O126" s="112" t="s">
+      <c r="N126" s="69"/>
+      <c r="O126" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="P126" s="113"/>
-      <c r="Q126" s="96" t="s">
+      <c r="P126" s="71"/>
+      <c r="Q126" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="R126" s="122" t="s">
+      <c r="R126" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="S126" s="68"/>
-      <c r="T126" s="63" t="s">
+      <c r="S126" s="58"/>
+      <c r="T126" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="U126" s="63" t="s">
+      <c r="U126" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="127" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="99"/>
-      <c r="C127" s="99"/>
-      <c r="D127" s="101"/>
+      <c r="B127" s="52"/>
+      <c r="C127" s="52"/>
+      <c r="D127" s="54"/>
       <c r="E127" s="22" t="s">
         <v>3</v>
       </c>
@@ -5572,11 +5572,11 @@
       <c r="P127" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q127" s="97"/>
-      <c r="R127" s="123"/>
-      <c r="S127" s="70"/>
-      <c r="T127" s="98"/>
-      <c r="U127" s="98"/>
+      <c r="Q127" s="51"/>
+      <c r="R127" s="79"/>
+      <c r="S127" s="60"/>
+      <c r="T127" s="49"/>
+      <c r="U127" s="49"/>
     </row>
     <row r="128" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B128" s="8" t="s">
@@ -5743,57 +5743,57 @@
       </c>
     </row>
     <row r="145" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="63" t="s">
+      <c r="B145" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C145" s="63" t="s">
+      <c r="C145" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D145" s="100" t="s">
+      <c r="D145" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E145" s="61" t="s">
+      <c r="E145" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F145" s="62"/>
-      <c r="G145" s="61" t="s">
+      <c r="F145" s="64"/>
+      <c r="G145" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="H145" s="62"/>
-      <c r="I145" s="61" t="s">
+      <c r="H145" s="64"/>
+      <c r="I145" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="J145" s="62"/>
-      <c r="K145" s="61" t="s">
+      <c r="J145" s="64"/>
+      <c r="K145" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="L145" s="62"/>
-      <c r="M145" s="124" t="s">
+      <c r="L145" s="64"/>
+      <c r="M145" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="N145" s="125"/>
-      <c r="O145" s="126" t="s">
+      <c r="N145" s="81"/>
+      <c r="O145" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="P145" s="127"/>
-      <c r="Q145" s="116" t="s">
+      <c r="P145" s="83"/>
+      <c r="Q145" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="R145" s="67" t="s">
+      <c r="R145" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="S145" s="68"/>
-      <c r="T145" s="63" t="s">
+      <c r="S145" s="58"/>
+      <c r="T145" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="U145" s="63" t="s">
+      <c r="U145" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="146" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="99"/>
-      <c r="C146" s="99"/>
-      <c r="D146" s="101"/>
+      <c r="B146" s="52"/>
+      <c r="C146" s="52"/>
+      <c r="D146" s="54"/>
       <c r="E146" s="7" t="s">
         <v>3</v>
       </c>
@@ -5830,11 +5830,11 @@
       <c r="P146" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q146" s="128"/>
-      <c r="R146" s="69"/>
-      <c r="S146" s="70"/>
-      <c r="T146" s="98"/>
-      <c r="U146" s="98"/>
+      <c r="Q146" s="85"/>
+      <c r="R146" s="59"/>
+      <c r="S146" s="60"/>
+      <c r="T146" s="49"/>
+      <c r="U146" s="49"/>
     </row>
     <row r="147" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B147" s="8" t="s">
@@ -5966,57 +5966,57 @@
       </c>
     </row>
     <row r="151" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="63" t="s">
+      <c r="B151" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C151" s="63" t="s">
+      <c r="C151" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D151" s="100" t="s">
+      <c r="D151" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E151" s="102" t="s">
+      <c r="E151" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F151" s="103"/>
-      <c r="G151" s="104" t="s">
+      <c r="F151" s="73"/>
+      <c r="G151" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H151" s="105"/>
-      <c r="I151" s="106" t="s">
+      <c r="H151" s="75"/>
+      <c r="I151" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="J151" s="107"/>
-      <c r="K151" s="108" t="s">
+      <c r="J151" s="77"/>
+      <c r="K151" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="L151" s="109"/>
-      <c r="M151" s="110" t="s">
+      <c r="L151" s="67"/>
+      <c r="M151" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="N151" s="111"/>
-      <c r="O151" s="112" t="s">
+      <c r="N151" s="69"/>
+      <c r="O151" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="P151" s="113"/>
-      <c r="Q151" s="96" t="s">
+      <c r="P151" s="71"/>
+      <c r="Q151" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="R151" s="122" t="s">
+      <c r="R151" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="S151" s="68"/>
-      <c r="T151" s="63" t="s">
+      <c r="S151" s="58"/>
+      <c r="T151" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="U151" s="63" t="s">
+      <c r="U151" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="152" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="99"/>
-      <c r="C152" s="99"/>
-      <c r="D152" s="101"/>
+      <c r="B152" s="52"/>
+      <c r="C152" s="52"/>
+      <c r="D152" s="54"/>
       <c r="E152" s="22" t="s">
         <v>3</v>
       </c>
@@ -6053,11 +6053,11 @@
       <c r="P152" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q152" s="97"/>
-      <c r="R152" s="123"/>
-      <c r="S152" s="70"/>
-      <c r="T152" s="98"/>
-      <c r="U152" s="98"/>
+      <c r="Q152" s="51"/>
+      <c r="R152" s="79"/>
+      <c r="S152" s="60"/>
+      <c r="T152" s="49"/>
+      <c r="U152" s="49"/>
     </row>
     <row r="153" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B153" s="8" t="s">
@@ -6204,57 +6204,57 @@
       </c>
     </row>
     <row r="163" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="63" t="s">
+      <c r="B163" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C163" s="63" t="s">
+      <c r="C163" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D163" s="100" t="s">
+      <c r="D163" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E163" s="102" t="s">
+      <c r="E163" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F163" s="103"/>
-      <c r="G163" s="104" t="s">
+      <c r="F163" s="73"/>
+      <c r="G163" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H163" s="105"/>
-      <c r="I163" s="106" t="s">
+      <c r="H163" s="75"/>
+      <c r="I163" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="J163" s="107"/>
-      <c r="K163" s="108" t="s">
+      <c r="J163" s="77"/>
+      <c r="K163" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="L163" s="109"/>
-      <c r="M163" s="110" t="s">
+      <c r="L163" s="67"/>
+      <c r="M163" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="N163" s="111"/>
-      <c r="O163" s="112" t="s">
+      <c r="N163" s="69"/>
+      <c r="O163" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="P163" s="113"/>
-      <c r="Q163" s="96" t="s">
+      <c r="P163" s="71"/>
+      <c r="Q163" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="R163" s="67" t="s">
+      <c r="R163" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="S163" s="68"/>
-      <c r="T163" s="63" t="s">
+      <c r="S163" s="58"/>
+      <c r="T163" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="U163" s="63" t="s">
+      <c r="U163" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="164" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="99"/>
-      <c r="C164" s="99"/>
-      <c r="D164" s="101"/>
+      <c r="B164" s="52"/>
+      <c r="C164" s="52"/>
+      <c r="D164" s="54"/>
       <c r="E164" s="22" t="s">
         <v>3</v>
       </c>
@@ -6291,11 +6291,11 @@
       <c r="P164" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q164" s="97"/>
-      <c r="R164" s="69"/>
-      <c r="S164" s="70"/>
-      <c r="T164" s="98"/>
-      <c r="U164" s="98"/>
+      <c r="Q164" s="51"/>
+      <c r="R164" s="59"/>
+      <c r="S164" s="60"/>
+      <c r="T164" s="49"/>
+      <c r="U164" s="49"/>
     </row>
     <row r="165" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B165" s="8" t="s">
@@ -6494,57 +6494,57 @@
       </c>
     </row>
     <row r="172" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="63" t="s">
+      <c r="B172" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C172" s="63" t="s">
+      <c r="C172" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D172" s="100" t="s">
+      <c r="D172" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E172" s="102" t="s">
+      <c r="E172" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F172" s="103"/>
-      <c r="G172" s="104" t="s">
+      <c r="F172" s="73"/>
+      <c r="G172" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H172" s="105"/>
-      <c r="I172" s="106" t="s">
+      <c r="H172" s="75"/>
+      <c r="I172" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="J172" s="107"/>
-      <c r="K172" s="108" t="s">
+      <c r="J172" s="77"/>
+      <c r="K172" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="L172" s="109"/>
-      <c r="M172" s="110" t="s">
+      <c r="L172" s="67"/>
+      <c r="M172" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="N172" s="111"/>
-      <c r="O172" s="112" t="s">
+      <c r="N172" s="69"/>
+      <c r="O172" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="P172" s="113"/>
-      <c r="Q172" s="96" t="s">
+      <c r="P172" s="71"/>
+      <c r="Q172" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="R172" s="114" t="s">
+      <c r="R172" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="S172" s="68"/>
-      <c r="T172" s="63" t="s">
+      <c r="S172" s="58"/>
+      <c r="T172" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="U172" s="63" t="s">
+      <c r="U172" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="173" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B173" s="99"/>
-      <c r="C173" s="99"/>
-      <c r="D173" s="101"/>
+      <c r="B173" s="52"/>
+      <c r="C173" s="52"/>
+      <c r="D173" s="54"/>
       <c r="E173" s="22" t="s">
         <v>3</v>
       </c>
@@ -6581,11 +6581,11 @@
       <c r="P173" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q173" s="97"/>
-      <c r="R173" s="115"/>
-      <c r="S173" s="70"/>
-      <c r="T173" s="98"/>
-      <c r="U173" s="98"/>
+      <c r="Q173" s="51"/>
+      <c r="R173" s="62"/>
+      <c r="S173" s="60"/>
+      <c r="T173" s="49"/>
+      <c r="U173" s="49"/>
     </row>
     <row r="174" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B174" s="8" t="s">
@@ -6727,57 +6727,57 @@
       </c>
     </row>
     <row r="183" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B183" s="63" t="s">
+      <c r="B183" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C183" s="63" t="s">
+      <c r="C183" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D183" s="100" t="s">
+      <c r="D183" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E183" s="129" t="s">
+      <c r="E183" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F183" s="130"/>
-      <c r="G183" s="129" t="s">
+      <c r="F183" s="56"/>
+      <c r="G183" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H183" s="130"/>
-      <c r="I183" s="129" t="s">
+      <c r="H183" s="56"/>
+      <c r="I183" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J183" s="130"/>
-      <c r="K183" s="129" t="s">
+      <c r="J183" s="56"/>
+      <c r="K183" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="L183" s="130"/>
-      <c r="M183" s="129" t="s">
+      <c r="L183" s="56"/>
+      <c r="M183" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="N183" s="130"/>
-      <c r="O183" s="129" t="s">
+      <c r="N183" s="56"/>
+      <c r="O183" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="P183" s="130"/>
-      <c r="Q183" s="96" t="s">
+      <c r="P183" s="56"/>
+      <c r="Q183" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="R183" s="67" t="s">
+      <c r="R183" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="S183" s="68"/>
-      <c r="T183" s="63" t="s">
+      <c r="S183" s="58"/>
+      <c r="T183" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="U183" s="63" t="s">
+      <c r="U183" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="184" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B184" s="99"/>
-      <c r="C184" s="99"/>
-      <c r="D184" s="101"/>
+      <c r="B184" s="52"/>
+      <c r="C184" s="52"/>
+      <c r="D184" s="54"/>
       <c r="E184" s="15" t="s">
         <v>3</v>
       </c>
@@ -6814,11 +6814,11 @@
       <c r="P184" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q184" s="97"/>
-      <c r="R184" s="69"/>
-      <c r="S184" s="70"/>
-      <c r="T184" s="98"/>
-      <c r="U184" s="98"/>
+      <c r="Q184" s="51"/>
+      <c r="R184" s="59"/>
+      <c r="S184" s="60"/>
+      <c r="T184" s="49"/>
+      <c r="U184" s="49"/>
     </row>
     <row r="185" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B185" s="8" t="s">
@@ -7014,57 +7014,57 @@
       </c>
     </row>
     <row r="192" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B192" s="63" t="s">
+      <c r="B192" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="63" t="s">
+      <c r="C192" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D192" s="100" t="s">
+      <c r="D192" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E192" s="129" t="s">
+      <c r="E192" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F192" s="130"/>
-      <c r="G192" s="129" t="s">
+      <c r="F192" s="56"/>
+      <c r="G192" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H192" s="130"/>
-      <c r="I192" s="129" t="s">
+      <c r="H192" s="56"/>
+      <c r="I192" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J192" s="130"/>
-      <c r="K192" s="129" t="s">
+      <c r="J192" s="56"/>
+      <c r="K192" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="L192" s="130"/>
-      <c r="M192" s="129" t="s">
+      <c r="L192" s="56"/>
+      <c r="M192" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="N192" s="130"/>
-      <c r="O192" s="129" t="s">
+      <c r="N192" s="56"/>
+      <c r="O192" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="P192" s="130"/>
-      <c r="Q192" s="96" t="s">
+      <c r="P192" s="56"/>
+      <c r="Q192" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="R192" s="114" t="s">
+      <c r="R192" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="S192" s="68"/>
-      <c r="T192" s="63" t="s">
+      <c r="S192" s="58"/>
+      <c r="T192" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="U192" s="63" t="s">
+      <c r="U192" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="193" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="99"/>
-      <c r="C193" s="99"/>
-      <c r="D193" s="101"/>
+      <c r="B193" s="52"/>
+      <c r="C193" s="52"/>
+      <c r="D193" s="54"/>
       <c r="E193" s="15" t="s">
         <v>3</v>
       </c>
@@ -7101,11 +7101,11 @@
       <c r="P193" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q193" s="97"/>
-      <c r="R193" s="115"/>
-      <c r="S193" s="70"/>
-      <c r="T193" s="98"/>
-      <c r="U193" s="98"/>
+      <c r="Q193" s="51"/>
+      <c r="R193" s="62"/>
+      <c r="S193" s="60"/>
+      <c r="T193" s="49"/>
+      <c r="U193" s="49"/>
     </row>
     <row r="194" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B194" s="8" t="s">
@@ -7176,15 +7176,163 @@
     </row>
   </sheetData>
   <mergeCells count="190">
-    <mergeCell ref="T71:T72"/>
-    <mergeCell ref="U116:U117"/>
-    <mergeCell ref="U71:U72"/>
-    <mergeCell ref="U126:U127"/>
-    <mergeCell ref="U145:U146"/>
-    <mergeCell ref="U151:U152"/>
-    <mergeCell ref="U163:U164"/>
-    <mergeCell ref="U172:U173"/>
-    <mergeCell ref="U183:U184"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="L39:R39"/>
+    <mergeCell ref="L40:R40"/>
+    <mergeCell ref="L41:R41"/>
+    <mergeCell ref="L42:R42"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="L43:R43"/>
+    <mergeCell ref="L44:R44"/>
+    <mergeCell ref="L45:R45"/>
+    <mergeCell ref="L46:R46"/>
+    <mergeCell ref="L47:R47"/>
+    <mergeCell ref="L48:R48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:Q72"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="R71:S72"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="D14:Q19"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="L34:R34"/>
+    <mergeCell ref="L35:R35"/>
+    <mergeCell ref="L36:R36"/>
+    <mergeCell ref="L37:R37"/>
+    <mergeCell ref="Q172:Q173"/>
+    <mergeCell ref="T172:T173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="I172:J172"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="O163:P163"/>
+    <mergeCell ref="Q163:Q164"/>
+    <mergeCell ref="R172:S173"/>
+    <mergeCell ref="T163:T164"/>
+    <mergeCell ref="R163:S164"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="O172:P172"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="I163:J163"/>
+    <mergeCell ref="Q151:Q152"/>
+    <mergeCell ref="T151:T152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="I151:J151"/>
+    <mergeCell ref="R151:S152"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="O151:P151"/>
+    <mergeCell ref="R126:S127"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="O145:P145"/>
+    <mergeCell ref="Q145:Q146"/>
+    <mergeCell ref="T145:T146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="I145:J145"/>
+    <mergeCell ref="R145:S146"/>
+    <mergeCell ref="R192:S193"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="T116:T117"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="O116:P116"/>
+    <mergeCell ref="Q116:Q117"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="R116:S117"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="O126:P126"/>
+    <mergeCell ref="Q126:Q127"/>
+    <mergeCell ref="T126:T127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="I126:J126"/>
     <mergeCell ref="U192:U193"/>
     <mergeCell ref="Q183:Q184"/>
     <mergeCell ref="T183:T184"/>
@@ -7209,163 +7357,15 @@
     <mergeCell ref="M183:N183"/>
     <mergeCell ref="O183:P183"/>
     <mergeCell ref="R183:S184"/>
-    <mergeCell ref="R192:S193"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="T116:T117"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="O116:P116"/>
-    <mergeCell ref="Q116:Q117"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="R116:S117"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="O126:P126"/>
-    <mergeCell ref="Q126:Q127"/>
-    <mergeCell ref="T126:T127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="I126:J126"/>
-    <mergeCell ref="R126:S127"/>
-    <mergeCell ref="K145:L145"/>
-    <mergeCell ref="M145:N145"/>
-    <mergeCell ref="O145:P145"/>
-    <mergeCell ref="Q145:Q146"/>
-    <mergeCell ref="T145:T146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="I145:J145"/>
-    <mergeCell ref="R145:S146"/>
-    <mergeCell ref="Q151:Q152"/>
-    <mergeCell ref="T151:T152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="I151:J151"/>
-    <mergeCell ref="R151:S152"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="O151:P151"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K172:L172"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="O172:P172"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="I163:J163"/>
-    <mergeCell ref="Q172:Q173"/>
-    <mergeCell ref="T172:T173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="I172:J172"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="O163:P163"/>
-    <mergeCell ref="Q163:Q164"/>
-    <mergeCell ref="R172:S173"/>
-    <mergeCell ref="T163:T164"/>
-    <mergeCell ref="R163:S164"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="D14:Q19"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="L34:R34"/>
-    <mergeCell ref="L35:R35"/>
-    <mergeCell ref="L36:R36"/>
-    <mergeCell ref="L37:R37"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="L38:R38"/>
-    <mergeCell ref="L39:R39"/>
-    <mergeCell ref="L40:R40"/>
-    <mergeCell ref="L41:R41"/>
-    <mergeCell ref="L42:R42"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="L43:R43"/>
-    <mergeCell ref="L44:R44"/>
-    <mergeCell ref="L45:R45"/>
-    <mergeCell ref="L46:R46"/>
-    <mergeCell ref="L47:R47"/>
-    <mergeCell ref="L48:R48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="Q71:Q72"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="R71:S72"/>
+    <mergeCell ref="T71:T72"/>
+    <mergeCell ref="U116:U117"/>
+    <mergeCell ref="U71:U72"/>
+    <mergeCell ref="U126:U127"/>
+    <mergeCell ref="U145:U146"/>
+    <mergeCell ref="U151:U152"/>
+    <mergeCell ref="U163:U164"/>
+    <mergeCell ref="U172:U173"/>
+    <mergeCell ref="U183:U184"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7388,585 +7388,585 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" style="131" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="11.75" style="131" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="131"/>
+    <col min="1" max="1" width="23" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="11.75" style="47" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="D1" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="131" t="s">
+      <c r="E1" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="H1" s="131" t="s">
+      <c r="H1" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="131" t="s">
+      <c r="I1" s="47" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="131" t="s">
+      <c r="D2" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="131" t="s">
+      <c r="E2" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="131" t="s">
+      <c r="F2" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="G2" s="131" t="s">
+      <c r="G2" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="H2" s="131" t="s">
+      <c r="H2" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="47" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="131" t="s">
+      <c r="D3" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="E3" s="131" t="s">
+      <c r="E3" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="131" t="s">
+      <c r="F3" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="G3" s="131" t="s">
+      <c r="G3" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="H3" s="131" t="s">
+      <c r="H3" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="I3" s="131" t="s">
+      <c r="I3" s="47" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="131" t="s">
+      <c r="E4" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="F4" s="131" t="s">
+      <c r="F4" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="G4" s="131" t="s">
+      <c r="G4" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="H4" s="131" t="s">
+      <c r="H4" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="I4" s="131" t="s">
+      <c r="I4" s="47" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="131" t="s">
+      <c r="E5" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="G5" s="131" t="s">
+      <c r="G5" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="H5" s="131" t="s">
+      <c r="H5" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="I5" s="131" t="s">
+      <c r="I5" s="47" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="131" t="s">
+      <c r="D6" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="131" t="s">
+      <c r="E6" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="131" t="s">
+      <c r="F6" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="G6" s="131" t="s">
+      <c r="G6" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="H6" s="131" t="s">
+      <c r="H6" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="I6" s="131" t="s">
+      <c r="I6" s="47" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="131" t="s">
+      <c r="C7" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="131" t="s">
+      <c r="D7" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="E7" s="131" t="s">
+      <c r="E7" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="F7" s="131" t="s">
+      <c r="F7" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="G7" s="131" t="s">
+      <c r="G7" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="H7" s="131" t="s">
+      <c r="H7" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="I7" s="131" t="s">
+      <c r="I7" s="47" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="131" t="s">
+      <c r="D8" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="131" t="s">
+      <c r="E8" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="131" t="s">
+      <c r="F8" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="G8" s="131" t="s">
+      <c r="G8" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="H8" s="131" t="s">
+      <c r="H8" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="I8" s="131" t="s">
+      <c r="I8" s="47" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="131" t="s">
+      <c r="D9" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="E9" s="131" t="s">
+      <c r="E9" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="F9" s="131" t="s">
+      <c r="F9" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="131" t="s">
+      <c r="G9" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="H9" s="131" t="s">
+      <c r="H9" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="I9" s="131" t="s">
+      <c r="I9" s="47" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="131" t="s">
+      <c r="D10" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="131" t="s">
+      <c r="E10" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="131" t="s">
+      <c r="F10" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="G10" s="131" t="s">
+      <c r="G10" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="H10" s="131" t="s">
+      <c r="H10" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="I10" s="131" t="s">
+      <c r="I10" s="47" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="D11" s="131" t="s">
+      <c r="D11" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="131" t="s">
+      <c r="E11" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="F11" s="131" t="s">
+      <c r="F11" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="G11" s="131" t="s">
+      <c r="G11" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="H11" s="131" t="s">
+      <c r="H11" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="I11" s="131" t="s">
+      <c r="I11" s="47" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="B12" s="131" t="s">
+      <c r="B12" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="131" t="s">
+      <c r="D12" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="131" t="s">
+      <c r="E12" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="F12" s="131" t="s">
+      <c r="F12" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="G12" s="131" t="s">
+      <c r="G12" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="H12" s="131" t="s">
+      <c r="H12" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="I12" s="131" t="s">
+      <c r="I12" s="47" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="131" t="s">
+      <c r="A13" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="131" t="s">
+      <c r="B13" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="131" t="s">
+      <c r="D13" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="131" t="s">
+      <c r="E13" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="F13" s="131" t="s">
+      <c r="F13" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="G13" s="131" t="s">
+      <c r="G13" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="H13" s="131" t="s">
+      <c r="H13" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="I13" s="131" t="s">
+      <c r="I13" s="47" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="D14" s="131" t="s">
+      <c r="D14" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="E14" s="131" t="s">
+      <c r="E14" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="F14" s="131" t="s">
+      <c r="F14" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="G14" s="131" t="s">
+      <c r="G14" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="H14" s="131" t="s">
+      <c r="H14" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="I14" s="131" t="s">
+      <c r="I14" s="47" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="131" t="s">
+      <c r="A15" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="131" t="s">
+      <c r="D15" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="E15" s="131" t="s">
+      <c r="E15" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="F15" s="131" t="s">
+      <c r="F15" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="G15" s="131" t="s">
+      <c r="G15" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="H15" s="131" t="s">
+      <c r="H15" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="I15" s="131" t="s">
+      <c r="I15" s="47" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="131" t="s">
+      <c r="A16" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="B16" s="131" t="s">
+      <c r="B16" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="C16" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="D16" s="131" t="s">
+      <c r="D16" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="E16" s="131" t="s">
+      <c r="E16" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="F16" s="131" t="s">
+      <c r="F16" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="G16" s="131" t="s">
+      <c r="G16" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="H16" s="131" t="s">
+      <c r="H16" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="I16" s="131" t="s">
+      <c r="I16" s="47" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="131" t="s">
+      <c r="C17" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="D17" s="131" t="s">
+      <c r="D17" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="E17" s="131" t="s">
+      <c r="E17" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="F17" s="131" t="s">
+      <c r="F17" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="G17" s="131" t="s">
+      <c r="G17" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="H17" s="131" t="s">
+      <c r="H17" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="I17" s="131" t="s">
+      <c r="I17" s="47" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="131" t="s">
+      <c r="A18" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="131" t="s">
+      <c r="B18" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="131" t="s">
+      <c r="C18" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="131" t="s">
+      <c r="D18" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="E18" s="131" t="s">
+      <c r="E18" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="F18" s="131" t="s">
+      <c r="F18" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="G18" s="131" t="s">
+      <c r="G18" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="H18" s="131" t="s">
+      <c r="H18" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="I18" s="131" t="s">
+      <c r="I18" s="47" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="131" t="s">
+      <c r="A19" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="131" t="s">
+      <c r="C19" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="E19" s="131" t="s">
+      <c r="E19" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="F19" s="131" t="s">
+      <c r="F19" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="131" t="s">
+      <c r="G19" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="H19" s="131" t="s">
+      <c r="H19" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="I19" s="131" t="s">
+      <c r="I19" s="47" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="131" t="s">
+      <c r="A20" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="131" t="s">
+      <c r="B20" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="C20" s="131" t="s">
+      <c r="C20" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="D20" s="131" t="s">
+      <c r="D20" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="E20" s="131" t="s">
+      <c r="E20" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="F20" s="131" t="s">
+      <c r="F20" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="G20" s="131" t="s">
+      <c r="G20" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H20" s="131" t="s">
+      <c r="H20" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="I20" s="131" t="s">
+      <c r="I20" s="47" t="s">
         <v>209</v>
       </c>
     </row>

--- a/요구사항분석.xlsx
+++ b/요구사항분석.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="요구사항분석" sheetId="2" r:id="rId1"/>
     <sheet name="센서 통신 프로토콜" sheetId="1" r:id="rId2"/>
-    <sheet name="저장 형식" sheetId="3" r:id="rId3"/>
+    <sheet name="1차축 데이터 샘플" sheetId="3" r:id="rId3"/>
+    <sheet name="2차축 데이터 셈플" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="217">
   <si>
     <t>STX</t>
   </si>
@@ -835,6 +836,10 @@
   </si>
   <si>
     <t>2차축 센서4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* Save 진행 시 1차축, 2차축 구분하여 2개의 파일로 저장 한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1537,18 +1542,162 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1558,236 +1707,92 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4005,7 +4010,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4013,10 +4018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B26:C37"/>
+  <dimension ref="B26:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4063,6 +4068,11 @@
     <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" s="45" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="45" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4134,419 +4144,419 @@
   <sheetData>
     <row r="13" spans="4:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="98"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="84"/>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="101"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="87"/>
     </row>
     <row r="16" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D16" s="99"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="101"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="87"/>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D17" s="99"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="101"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="87"/>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D18" s="99"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="101"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="87"/>
     </row>
     <row r="19" spans="4:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="102"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="103"/>
-      <c r="Q19" s="104"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="90"/>
     </row>
     <row r="33" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="3:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="105" t="s">
+      <c r="C34" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106" t="s">
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="106" t="s">
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="J34" s="108"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="106" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="M34" s="108"/>
-      <c r="N34" s="108"/>
-      <c r="O34" s="108"/>
-      <c r="P34" s="108"/>
-      <c r="Q34" s="108"/>
-      <c r="R34" s="109"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="93"/>
       <c r="S34" s="43"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C35" s="93" t="s">
+      <c r="C35" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="95" t="s">
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="110" t="s">
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="M35" s="111"/>
-      <c r="N35" s="111"/>
-      <c r="O35" s="111"/>
-      <c r="P35" s="111"/>
-      <c r="Q35" s="111"/>
-      <c r="R35" s="112"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="96"/>
       <c r="S35" s="44"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C36" s="93" t="s">
+      <c r="C36" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="95" t="s">
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="117"/>
-      <c r="L36" s="113" t="s">
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="M36" s="114"/>
-      <c r="N36" s="114"/>
-      <c r="O36" s="114"/>
-      <c r="P36" s="114"/>
-      <c r="Q36" s="114"/>
-      <c r="R36" s="115"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="50"/>
       <c r="S36" s="44"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C37" s="93" t="s">
+      <c r="C37" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="95" t="s">
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="117"/>
-      <c r="L37" s="113" t="s">
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="M37" s="114"/>
-      <c r="N37" s="114"/>
-      <c r="O37" s="114"/>
-      <c r="P37" s="114"/>
-      <c r="Q37" s="114"/>
-      <c r="R37" s="115"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="50"/>
       <c r="S37" s="44"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C38" s="93" t="s">
+      <c r="C38" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="95" t="s">
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="117"/>
-      <c r="K38" s="117"/>
-      <c r="L38" s="113" t="s">
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="M38" s="114"/>
-      <c r="N38" s="114"/>
-      <c r="O38" s="114"/>
-      <c r="P38" s="114"/>
-      <c r="Q38" s="114"/>
-      <c r="R38" s="115"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="50"/>
       <c r="S38" s="44"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C39" s="93"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="119"/>
-      <c r="J39" s="117"/>
-      <c r="K39" s="117"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="114"/>
-      <c r="N39" s="114"/>
-      <c r="O39" s="114"/>
-      <c r="P39" s="114"/>
-      <c r="Q39" s="114"/>
-      <c r="R39" s="115"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="50"/>
       <c r="S39" s="44"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C40" s="116"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="117"/>
-      <c r="K40" s="117"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="114"/>
-      <c r="N40" s="114"/>
-      <c r="O40" s="114"/>
-      <c r="P40" s="114"/>
-      <c r="Q40" s="114"/>
-      <c r="R40" s="115"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="50"/>
       <c r="S40" s="44"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C41" s="116"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="119"/>
-      <c r="J41" s="117"/>
-      <c r="K41" s="117"/>
-      <c r="L41" s="124"/>
-      <c r="M41" s="114"/>
-      <c r="N41" s="114"/>
-      <c r="O41" s="114"/>
-      <c r="P41" s="114"/>
-      <c r="Q41" s="114"/>
-      <c r="R41" s="115"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="50"/>
       <c r="S41" s="44"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C42" s="116"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="117"/>
-      <c r="K42" s="117"/>
-      <c r="L42" s="124"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="115"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="50"/>
       <c r="S42" s="44"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C43" s="116"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="117"/>
-      <c r="K43" s="117"/>
-      <c r="L43" s="124"/>
-      <c r="M43" s="114"/>
-      <c r="N43" s="114"/>
-      <c r="O43" s="114"/>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="115"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="50"/>
       <c r="S43" s="44"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C44" s="116"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="119"/>
-      <c r="J44" s="117"/>
-      <c r="K44" s="117"/>
-      <c r="L44" s="124"/>
-      <c r="M44" s="114"/>
-      <c r="N44" s="114"/>
-      <c r="O44" s="114"/>
-      <c r="P44" s="114"/>
-      <c r="Q44" s="114"/>
-      <c r="R44" s="115"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="50"/>
       <c r="S44" s="44"/>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C45" s="116"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="117"/>
-      <c r="I45" s="119"/>
-      <c r="J45" s="117"/>
-      <c r="K45" s="117"/>
-      <c r="L45" s="124"/>
-      <c r="M45" s="114"/>
-      <c r="N45" s="114"/>
-      <c r="O45" s="114"/>
-      <c r="P45" s="114"/>
-      <c r="Q45" s="114"/>
-      <c r="R45" s="115"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="49"/>
+      <c r="R45" s="50"/>
       <c r="S45" s="44"/>
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C46" s="116"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="119"/>
-      <c r="J46" s="117"/>
-      <c r="K46" s="117"/>
-      <c r="L46" s="124"/>
-      <c r="M46" s="114"/>
-      <c r="N46" s="114"/>
-      <c r="O46" s="114"/>
-      <c r="P46" s="114"/>
-      <c r="Q46" s="114"/>
-      <c r="R46" s="115"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="50"/>
       <c r="S46" s="44"/>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C47" s="116"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="119"/>
-      <c r="J47" s="117"/>
-      <c r="K47" s="117"/>
-      <c r="L47" s="124"/>
-      <c r="M47" s="114"/>
-      <c r="N47" s="114"/>
-      <c r="O47" s="114"/>
-      <c r="P47" s="114"/>
-      <c r="Q47" s="114"/>
-      <c r="R47" s="115"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="49"/>
+      <c r="R47" s="50"/>
       <c r="S47" s="44"/>
     </row>
     <row r="48" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="120"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="121"/>
-      <c r="F48" s="122"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="131"/>
-      <c r="J48" s="121"/>
-      <c r="K48" s="121"/>
-      <c r="L48" s="128"/>
-      <c r="M48" s="129"/>
-      <c r="N48" s="129"/>
-      <c r="O48" s="129"/>
-      <c r="P48" s="129"/>
-      <c r="Q48" s="129"/>
-      <c r="R48" s="130"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="59"/>
       <c r="S48" s="44"/>
     </row>
     <row r="54" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
@@ -4658,57 +4668,57 @@
       </c>
     </row>
     <row r="71" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="48" t="s">
+      <c r="B71" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C71" s="48" t="s">
+      <c r="C71" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D71" s="84" t="s">
+      <c r="D71" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="E71" s="63" t="s">
+      <c r="E71" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="64"/>
-      <c r="G71" s="63" t="s">
+      <c r="F71" s="63"/>
+      <c r="G71" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="64"/>
-      <c r="I71" s="63" t="s">
+      <c r="H71" s="63"/>
+      <c r="I71" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="J71" s="64"/>
-      <c r="K71" s="63" t="s">
+      <c r="J71" s="63"/>
+      <c r="K71" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="L71" s="64"/>
-      <c r="M71" s="63" t="s">
+      <c r="L71" s="63"/>
+      <c r="M71" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="N71" s="64"/>
-      <c r="O71" s="63" t="s">
+      <c r="N71" s="63"/>
+      <c r="O71" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="P71" s="64"/>
-      <c r="Q71" s="48" t="s">
+      <c r="P71" s="63"/>
+      <c r="Q71" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="R71" s="57" t="s">
+      <c r="R71" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="S71" s="58"/>
-      <c r="T71" s="48" t="s">
+      <c r="S71" s="69"/>
+      <c r="T71" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="U71" s="48" t="s">
+      <c r="U71" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="52"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="86"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="100"/>
+      <c r="D72" s="118"/>
       <c r="E72" s="7" t="s">
         <v>3</v>
       </c>
@@ -4746,10 +4756,10 @@
         <v>4</v>
       </c>
       <c r="Q72" s="65"/>
-      <c r="R72" s="59"/>
-      <c r="S72" s="60"/>
-      <c r="T72" s="49"/>
-      <c r="U72" s="49"/>
+      <c r="R72" s="70"/>
+      <c r="S72" s="71"/>
+      <c r="T72" s="99"/>
+      <c r="U72" s="99"/>
     </row>
     <row r="73" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="8" t="s">
@@ -4839,84 +4849,84 @@
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C82" s="87" t="s">
+      <c r="C82" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="88"/>
-      <c r="E82" s="88"/>
-      <c r="F82" s="89"/>
-      <c r="G82" s="87" t="s">
+      <c r="D82" s="120"/>
+      <c r="E82" s="120"/>
+      <c r="F82" s="121"/>
+      <c r="G82" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="H82" s="88"/>
-      <c r="I82" s="88"/>
-      <c r="J82" s="89"/>
-      <c r="K82" s="125" t="s">
+      <c r="H82" s="120"/>
+      <c r="I82" s="120"/>
+      <c r="J82" s="121"/>
+      <c r="K82" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="L82" s="126"/>
-      <c r="M82" s="126"/>
-      <c r="N82" s="127"/>
+      <c r="L82" s="53"/>
+      <c r="M82" s="53"/>
+      <c r="N82" s="54"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C83" s="90" t="s">
+      <c r="C83" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D83" s="91"/>
-      <c r="E83" s="91"/>
-      <c r="F83" s="92"/>
-      <c r="G83" s="90" t="s">
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="122"/>
+      <c r="G83" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H83" s="91"/>
-      <c r="I83" s="91"/>
-      <c r="J83" s="92"/>
-      <c r="K83" s="90" t="s">
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="122"/>
+      <c r="K83" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="L83" s="91"/>
-      <c r="M83" s="91"/>
-      <c r="N83" s="127"/>
+      <c r="L83" s="56"/>
+      <c r="M83" s="56"/>
+      <c r="N83" s="54"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C84" s="90" t="s">
+      <c r="C84" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D84" s="91"/>
-      <c r="E84" s="91"/>
-      <c r="F84" s="92"/>
-      <c r="G84" s="90" t="s">
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="122"/>
+      <c r="G84" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="H84" s="91"/>
-      <c r="I84" s="91"/>
-      <c r="J84" s="92"/>
-      <c r="K84" s="90" t="s">
+      <c r="H84" s="56"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="122"/>
+      <c r="K84" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="L84" s="91"/>
-      <c r="M84" s="91"/>
-      <c r="N84" s="127"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="56"/>
+      <c r="N84" s="54"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C85" s="90" t="s">
+      <c r="C85" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="D85" s="91"/>
-      <c r="E85" s="91"/>
-      <c r="F85" s="92"/>
-      <c r="G85" s="90" t="s">
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="122"/>
+      <c r="G85" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="H85" s="91"/>
-      <c r="I85" s="91"/>
-      <c r="J85" s="92"/>
-      <c r="K85" s="90" t="s">
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="122"/>
+      <c r="K85" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="L85" s="91"/>
-      <c r="M85" s="91"/>
-      <c r="N85" s="127"/>
+      <c r="L85" s="56"/>
+      <c r="M85" s="56"/>
+      <c r="N85" s="54"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C86" s="16"/>
@@ -5193,57 +5203,57 @@
       </c>
     </row>
     <row r="116" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="48" t="s">
+      <c r="B116" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C116" s="48" t="s">
+      <c r="C116" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D116" s="53" t="s">
+      <c r="D116" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="E116" s="63" t="s">
+      <c r="E116" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F116" s="64"/>
-      <c r="G116" s="63" t="s">
+      <c r="F116" s="63"/>
+      <c r="G116" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H116" s="64"/>
-      <c r="I116" s="63" t="s">
+      <c r="H116" s="63"/>
+      <c r="I116" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="J116" s="64"/>
-      <c r="K116" s="63" t="s">
+      <c r="J116" s="63"/>
+      <c r="K116" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="L116" s="64"/>
-      <c r="M116" s="63" t="s">
+      <c r="L116" s="63"/>
+      <c r="M116" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="N116" s="64"/>
-      <c r="O116" s="63" t="s">
+      <c r="N116" s="63"/>
+      <c r="O116" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="P116" s="64"/>
-      <c r="Q116" s="48" t="s">
+      <c r="P116" s="63"/>
+      <c r="Q116" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="R116" s="57" t="s">
+      <c r="R116" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="S116" s="58"/>
-      <c r="T116" s="48" t="s">
+      <c r="S116" s="69"/>
+      <c r="T116" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="U116" s="48" t="s">
+      <c r="U116" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="117" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="52"/>
-      <c r="C117" s="52"/>
-      <c r="D117" s="54"/>
+      <c r="B117" s="100"/>
+      <c r="C117" s="100"/>
+      <c r="D117" s="102"/>
       <c r="E117" s="7" t="s">
         <v>3</v>
       </c>
@@ -5281,10 +5291,10 @@
         <v>4</v>
       </c>
       <c r="Q117" s="65"/>
-      <c r="R117" s="59"/>
-      <c r="S117" s="60"/>
-      <c r="T117" s="49"/>
-      <c r="U117" s="49"/>
+      <c r="R117" s="70"/>
+      <c r="S117" s="71"/>
+      <c r="T117" s="99"/>
+      <c r="U117" s="99"/>
     </row>
     <row r="118" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B118" s="8" t="s">
@@ -5485,57 +5495,57 @@
       </c>
     </row>
     <row r="126" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="48" t="s">
+      <c r="B126" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C126" s="48" t="s">
+      <c r="C126" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D126" s="53" t="s">
+      <c r="D126" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="E126" s="72" t="s">
+      <c r="E126" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="F126" s="73"/>
-      <c r="G126" s="74" t="s">
+      <c r="F126" s="104"/>
+      <c r="G126" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="H126" s="75"/>
-      <c r="I126" s="76" t="s">
+      <c r="H126" s="106"/>
+      <c r="I126" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="J126" s="77"/>
-      <c r="K126" s="66" t="s">
+      <c r="J126" s="108"/>
+      <c r="K126" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="L126" s="67"/>
-      <c r="M126" s="68" t="s">
+      <c r="L126" s="110"/>
+      <c r="M126" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="N126" s="69"/>
-      <c r="O126" s="70" t="s">
+      <c r="N126" s="112"/>
+      <c r="O126" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="P126" s="71"/>
-      <c r="Q126" s="50" t="s">
+      <c r="P126" s="114"/>
+      <c r="Q126" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="R126" s="78" t="s">
+      <c r="R126" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="S126" s="58"/>
-      <c r="T126" s="48" t="s">
+      <c r="S126" s="69"/>
+      <c r="T126" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="U126" s="48" t="s">
+      <c r="U126" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="127" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="52"/>
-      <c r="C127" s="52"/>
-      <c r="D127" s="54"/>
+      <c r="B127" s="100"/>
+      <c r="C127" s="100"/>
+      <c r="D127" s="102"/>
       <c r="E127" s="22" t="s">
         <v>3</v>
       </c>
@@ -5572,11 +5582,11 @@
       <c r="P127" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q127" s="51"/>
-      <c r="R127" s="79"/>
-      <c r="S127" s="60"/>
-      <c r="T127" s="49"/>
-      <c r="U127" s="49"/>
+      <c r="Q127" s="98"/>
+      <c r="R127" s="124"/>
+      <c r="S127" s="71"/>
+      <c r="T127" s="99"/>
+      <c r="U127" s="99"/>
     </row>
     <row r="128" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B128" s="8" t="s">
@@ -5743,57 +5753,57 @@
       </c>
     </row>
     <row r="145" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="48" t="s">
+      <c r="B145" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C145" s="48" t="s">
+      <c r="C145" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D145" s="53" t="s">
+      <c r="D145" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="E145" s="63" t="s">
+      <c r="E145" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F145" s="64"/>
-      <c r="G145" s="63" t="s">
+      <c r="F145" s="63"/>
+      <c r="G145" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H145" s="64"/>
-      <c r="I145" s="63" t="s">
+      <c r="H145" s="63"/>
+      <c r="I145" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="J145" s="64"/>
-      <c r="K145" s="63" t="s">
+      <c r="J145" s="63"/>
+      <c r="K145" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="L145" s="64"/>
-      <c r="M145" s="80" t="s">
+      <c r="L145" s="63"/>
+      <c r="M145" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="N145" s="81"/>
-      <c r="O145" s="82" t="s">
+      <c r="N145" s="126"/>
+      <c r="O145" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="P145" s="83"/>
-      <c r="Q145" s="84" t="s">
+      <c r="P145" s="128"/>
+      <c r="Q145" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="R145" s="57" t="s">
+      <c r="R145" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="S145" s="58"/>
-      <c r="T145" s="48" t="s">
+      <c r="S145" s="69"/>
+      <c r="T145" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="U145" s="48" t="s">
+      <c r="U145" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="146" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="52"/>
-      <c r="C146" s="52"/>
-      <c r="D146" s="54"/>
+      <c r="B146" s="100"/>
+      <c r="C146" s="100"/>
+      <c r="D146" s="102"/>
       <c r="E146" s="7" t="s">
         <v>3</v>
       </c>
@@ -5830,11 +5840,11 @@
       <c r="P146" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q146" s="85"/>
-      <c r="R146" s="59"/>
-      <c r="S146" s="60"/>
-      <c r="T146" s="49"/>
-      <c r="U146" s="49"/>
+      <c r="Q146" s="129"/>
+      <c r="R146" s="70"/>
+      <c r="S146" s="71"/>
+      <c r="T146" s="99"/>
+      <c r="U146" s="99"/>
     </row>
     <row r="147" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B147" s="8" t="s">
@@ -5966,57 +5976,57 @@
       </c>
     </row>
     <row r="151" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="48" t="s">
+      <c r="B151" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C151" s="48" t="s">
+      <c r="C151" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D151" s="53" t="s">
+      <c r="D151" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="E151" s="72" t="s">
+      <c r="E151" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="F151" s="73"/>
-      <c r="G151" s="74" t="s">
+      <c r="F151" s="104"/>
+      <c r="G151" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="H151" s="75"/>
-      <c r="I151" s="76" t="s">
+      <c r="H151" s="106"/>
+      <c r="I151" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="J151" s="77"/>
-      <c r="K151" s="66" t="s">
+      <c r="J151" s="108"/>
+      <c r="K151" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="L151" s="67"/>
-      <c r="M151" s="68" t="s">
+      <c r="L151" s="110"/>
+      <c r="M151" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="N151" s="69"/>
-      <c r="O151" s="70" t="s">
+      <c r="N151" s="112"/>
+      <c r="O151" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="P151" s="71"/>
-      <c r="Q151" s="50" t="s">
+      <c r="P151" s="114"/>
+      <c r="Q151" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="R151" s="78" t="s">
+      <c r="R151" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="S151" s="58"/>
-      <c r="T151" s="48" t="s">
+      <c r="S151" s="69"/>
+      <c r="T151" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="U151" s="48" t="s">
+      <c r="U151" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="152" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="52"/>
-      <c r="C152" s="52"/>
-      <c r="D152" s="54"/>
+      <c r="B152" s="100"/>
+      <c r="C152" s="100"/>
+      <c r="D152" s="102"/>
       <c r="E152" s="22" t="s">
         <v>3</v>
       </c>
@@ -6053,11 +6063,11 @@
       <c r="P152" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q152" s="51"/>
-      <c r="R152" s="79"/>
-      <c r="S152" s="60"/>
-      <c r="T152" s="49"/>
-      <c r="U152" s="49"/>
+      <c r="Q152" s="98"/>
+      <c r="R152" s="124"/>
+      <c r="S152" s="71"/>
+      <c r="T152" s="99"/>
+      <c r="U152" s="99"/>
     </row>
     <row r="153" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B153" s="8" t="s">
@@ -6204,57 +6214,57 @@
       </c>
     </row>
     <row r="163" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="48" t="s">
+      <c r="B163" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C163" s="48" t="s">
+      <c r="C163" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D163" s="53" t="s">
+      <c r="D163" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="E163" s="72" t="s">
+      <c r="E163" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="F163" s="73"/>
-      <c r="G163" s="74" t="s">
+      <c r="F163" s="104"/>
+      <c r="G163" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="H163" s="75"/>
-      <c r="I163" s="76" t="s">
+      <c r="H163" s="106"/>
+      <c r="I163" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="J163" s="77"/>
-      <c r="K163" s="66" t="s">
+      <c r="J163" s="108"/>
+      <c r="K163" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="L163" s="67"/>
-      <c r="M163" s="68" t="s">
+      <c r="L163" s="110"/>
+      <c r="M163" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="N163" s="69"/>
-      <c r="O163" s="70" t="s">
+      <c r="N163" s="112"/>
+      <c r="O163" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="P163" s="71"/>
-      <c r="Q163" s="50" t="s">
+      <c r="P163" s="114"/>
+      <c r="Q163" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="R163" s="57" t="s">
+      <c r="R163" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="S163" s="58"/>
-      <c r="T163" s="48" t="s">
+      <c r="S163" s="69"/>
+      <c r="T163" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="U163" s="48" t="s">
+      <c r="U163" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="164" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="52"/>
-      <c r="C164" s="52"/>
-      <c r="D164" s="54"/>
+      <c r="B164" s="100"/>
+      <c r="C164" s="100"/>
+      <c r="D164" s="102"/>
       <c r="E164" s="22" t="s">
         <v>3</v>
       </c>
@@ -6291,11 +6301,11 @@
       <c r="P164" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q164" s="51"/>
-      <c r="R164" s="59"/>
-      <c r="S164" s="60"/>
-      <c r="T164" s="49"/>
-      <c r="U164" s="49"/>
+      <c r="Q164" s="98"/>
+      <c r="R164" s="70"/>
+      <c r="S164" s="71"/>
+      <c r="T164" s="99"/>
+      <c r="U164" s="99"/>
     </row>
     <row r="165" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B165" s="8" t="s">
@@ -6494,57 +6504,57 @@
       </c>
     </row>
     <row r="172" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="48" t="s">
+      <c r="B172" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C172" s="48" t="s">
+      <c r="C172" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D172" s="53" t="s">
+      <c r="D172" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="E172" s="72" t="s">
+      <c r="E172" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="F172" s="73"/>
-      <c r="G172" s="74" t="s">
+      <c r="F172" s="104"/>
+      <c r="G172" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="H172" s="75"/>
-      <c r="I172" s="76" t="s">
+      <c r="H172" s="106"/>
+      <c r="I172" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="J172" s="77"/>
-      <c r="K172" s="66" t="s">
+      <c r="J172" s="108"/>
+      <c r="K172" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="L172" s="67"/>
-      <c r="M172" s="68" t="s">
+      <c r="L172" s="110"/>
+      <c r="M172" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="N172" s="69"/>
-      <c r="O172" s="70" t="s">
+      <c r="N172" s="112"/>
+      <c r="O172" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="P172" s="71"/>
-      <c r="Q172" s="50" t="s">
+      <c r="P172" s="114"/>
+      <c r="Q172" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="R172" s="61" t="s">
+      <c r="R172" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="S172" s="58"/>
-      <c r="T172" s="48" t="s">
+      <c r="S172" s="69"/>
+      <c r="T172" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="U172" s="48" t="s">
+      <c r="U172" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="173" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B173" s="52"/>
-      <c r="C173" s="52"/>
-      <c r="D173" s="54"/>
+      <c r="B173" s="100"/>
+      <c r="C173" s="100"/>
+      <c r="D173" s="102"/>
       <c r="E173" s="22" t="s">
         <v>3</v>
       </c>
@@ -6581,11 +6591,11 @@
       <c r="P173" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q173" s="51"/>
-      <c r="R173" s="62"/>
-      <c r="S173" s="60"/>
-      <c r="T173" s="49"/>
-      <c r="U173" s="49"/>
+      <c r="Q173" s="98"/>
+      <c r="R173" s="116"/>
+      <c r="S173" s="71"/>
+      <c r="T173" s="99"/>
+      <c r="U173" s="99"/>
     </row>
     <row r="174" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B174" s="8" t="s">
@@ -6727,57 +6737,57 @@
       </c>
     </row>
     <row r="183" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B183" s="48" t="s">
+      <c r="B183" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C183" s="48" t="s">
+      <c r="C183" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D183" s="53" t="s">
+      <c r="D183" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="E183" s="55" t="s">
+      <c r="E183" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="F183" s="56"/>
-      <c r="G183" s="55" t="s">
+      <c r="F183" s="131"/>
+      <c r="G183" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="H183" s="56"/>
-      <c r="I183" s="55" t="s">
+      <c r="H183" s="131"/>
+      <c r="I183" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="J183" s="56"/>
-      <c r="K183" s="55" t="s">
+      <c r="J183" s="131"/>
+      <c r="K183" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="L183" s="56"/>
-      <c r="M183" s="55" t="s">
+      <c r="L183" s="131"/>
+      <c r="M183" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="N183" s="56"/>
-      <c r="O183" s="55" t="s">
+      <c r="N183" s="131"/>
+      <c r="O183" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="P183" s="56"/>
-      <c r="Q183" s="50" t="s">
+      <c r="P183" s="131"/>
+      <c r="Q183" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="R183" s="57" t="s">
+      <c r="R183" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="S183" s="58"/>
-      <c r="T183" s="48" t="s">
+      <c r="S183" s="69"/>
+      <c r="T183" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="U183" s="48" t="s">
+      <c r="U183" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="184" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B184" s="52"/>
-      <c r="C184" s="52"/>
-      <c r="D184" s="54"/>
+      <c r="B184" s="100"/>
+      <c r="C184" s="100"/>
+      <c r="D184" s="102"/>
       <c r="E184" s="15" t="s">
         <v>3</v>
       </c>
@@ -6814,11 +6824,11 @@
       <c r="P184" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q184" s="51"/>
-      <c r="R184" s="59"/>
-      <c r="S184" s="60"/>
-      <c r="T184" s="49"/>
-      <c r="U184" s="49"/>
+      <c r="Q184" s="98"/>
+      <c r="R184" s="70"/>
+      <c r="S184" s="71"/>
+      <c r="T184" s="99"/>
+      <c r="U184" s="99"/>
     </row>
     <row r="185" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B185" s="8" t="s">
@@ -7014,57 +7024,57 @@
       </c>
     </row>
     <row r="192" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B192" s="48" t="s">
+      <c r="B192" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="48" t="s">
+      <c r="C192" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D192" s="53" t="s">
+      <c r="D192" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="E192" s="55" t="s">
+      <c r="E192" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="F192" s="56"/>
-      <c r="G192" s="55" t="s">
+      <c r="F192" s="131"/>
+      <c r="G192" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="H192" s="56"/>
-      <c r="I192" s="55" t="s">
+      <c r="H192" s="131"/>
+      <c r="I192" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="J192" s="56"/>
-      <c r="K192" s="55" t="s">
+      <c r="J192" s="131"/>
+      <c r="K192" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="L192" s="56"/>
-      <c r="M192" s="55" t="s">
+      <c r="L192" s="131"/>
+      <c r="M192" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="N192" s="56"/>
-      <c r="O192" s="55" t="s">
+      <c r="N192" s="131"/>
+      <c r="O192" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="P192" s="56"/>
-      <c r="Q192" s="50" t="s">
+      <c r="P192" s="131"/>
+      <c r="Q192" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="R192" s="61" t="s">
+      <c r="R192" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="S192" s="58"/>
-      <c r="T192" s="48" t="s">
+      <c r="S192" s="69"/>
+      <c r="T192" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="U192" s="48" t="s">
+      <c r="U192" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="193" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="52"/>
-      <c r="C193" s="52"/>
-      <c r="D193" s="54"/>
+      <c r="B193" s="100"/>
+      <c r="C193" s="100"/>
+      <c r="D193" s="102"/>
       <c r="E193" s="15" t="s">
         <v>3</v>
       </c>
@@ -7101,11 +7111,11 @@
       <c r="P193" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q193" s="51"/>
-      <c r="R193" s="62"/>
-      <c r="S193" s="60"/>
-      <c r="T193" s="49"/>
-      <c r="U193" s="49"/>
+      <c r="Q193" s="98"/>
+      <c r="R193" s="116"/>
+      <c r="S193" s="71"/>
+      <c r="T193" s="99"/>
+      <c r="U193" s="99"/>
     </row>
     <row r="194" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B194" s="8" t="s">
@@ -7176,28 +7186,150 @@
     </row>
   </sheetData>
   <mergeCells count="190">
-    <mergeCell ref="L38:R38"/>
-    <mergeCell ref="L39:R39"/>
-    <mergeCell ref="L40:R40"/>
-    <mergeCell ref="L41:R41"/>
-    <mergeCell ref="L42:R42"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="L43:R43"/>
-    <mergeCell ref="L44:R44"/>
-    <mergeCell ref="L45:R45"/>
-    <mergeCell ref="L46:R46"/>
-    <mergeCell ref="L47:R47"/>
-    <mergeCell ref="L48:R48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="Q71:Q72"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="R71:S72"/>
+    <mergeCell ref="T71:T72"/>
+    <mergeCell ref="U116:U117"/>
+    <mergeCell ref="U71:U72"/>
+    <mergeCell ref="U126:U127"/>
+    <mergeCell ref="U145:U146"/>
+    <mergeCell ref="U151:U152"/>
+    <mergeCell ref="U163:U164"/>
+    <mergeCell ref="U172:U173"/>
+    <mergeCell ref="U183:U184"/>
+    <mergeCell ref="U192:U193"/>
+    <mergeCell ref="Q183:Q184"/>
+    <mergeCell ref="T183:T184"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="D192:D193"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="I192:J192"/>
+    <mergeCell ref="K192:L192"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="O192:P192"/>
+    <mergeCell ref="Q192:Q193"/>
+    <mergeCell ref="T192:T193"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="I183:J183"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="O183:P183"/>
+    <mergeCell ref="R183:S184"/>
+    <mergeCell ref="R192:S193"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="T116:T117"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="O116:P116"/>
+    <mergeCell ref="Q116:Q117"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="R116:S117"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="O126:P126"/>
+    <mergeCell ref="Q126:Q127"/>
+    <mergeCell ref="T126:T127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="R126:S127"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="O145:P145"/>
+    <mergeCell ref="Q145:Q146"/>
+    <mergeCell ref="T145:T146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="I145:J145"/>
+    <mergeCell ref="R145:S146"/>
+    <mergeCell ref="Q151:Q152"/>
+    <mergeCell ref="T151:T152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="I151:J151"/>
+    <mergeCell ref="R151:S152"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="O151:P151"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="O172:P172"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="I163:J163"/>
+    <mergeCell ref="Q172:Q173"/>
+    <mergeCell ref="T172:T173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="I172:J172"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="O163:P163"/>
+    <mergeCell ref="Q163:Q164"/>
+    <mergeCell ref="R172:S173"/>
+    <mergeCell ref="T163:T164"/>
+    <mergeCell ref="R163:S164"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="D14:Q19"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="L34:R34"/>
+    <mergeCell ref="L35:R35"/>
+    <mergeCell ref="L36:R36"/>
+    <mergeCell ref="L37:R37"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="F48:H48"/>
     <mergeCell ref="I34:K34"/>
@@ -7222,150 +7354,28 @@
     <mergeCell ref="F42:H42"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="F43:H43"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="D14:Q19"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="L34:R34"/>
-    <mergeCell ref="L35:R35"/>
-    <mergeCell ref="L36:R36"/>
-    <mergeCell ref="L37:R37"/>
-    <mergeCell ref="Q172:Q173"/>
-    <mergeCell ref="T172:T173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="I172:J172"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="O163:P163"/>
-    <mergeCell ref="Q163:Q164"/>
-    <mergeCell ref="R172:S173"/>
-    <mergeCell ref="T163:T164"/>
-    <mergeCell ref="R163:S164"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K172:L172"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="O172:P172"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="I163:J163"/>
-    <mergeCell ref="Q151:Q152"/>
-    <mergeCell ref="T151:T152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="I151:J151"/>
-    <mergeCell ref="R151:S152"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="O151:P151"/>
-    <mergeCell ref="R126:S127"/>
-    <mergeCell ref="K145:L145"/>
-    <mergeCell ref="M145:N145"/>
-    <mergeCell ref="O145:P145"/>
-    <mergeCell ref="Q145:Q146"/>
-    <mergeCell ref="T145:T146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="I145:J145"/>
-    <mergeCell ref="R145:S146"/>
-    <mergeCell ref="R192:S193"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="T116:T117"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="O116:P116"/>
-    <mergeCell ref="Q116:Q117"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="R116:S117"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="O126:P126"/>
-    <mergeCell ref="Q126:Q127"/>
-    <mergeCell ref="T126:T127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="I126:J126"/>
-    <mergeCell ref="U192:U193"/>
-    <mergeCell ref="Q183:Q184"/>
-    <mergeCell ref="T183:T184"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="D192:D193"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="I192:J192"/>
-    <mergeCell ref="K192:L192"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="O192:P192"/>
-    <mergeCell ref="Q192:Q193"/>
-    <mergeCell ref="T192:T193"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="I183:J183"/>
-    <mergeCell ref="K183:L183"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="O183:P183"/>
-    <mergeCell ref="R183:S184"/>
-    <mergeCell ref="T71:T72"/>
-    <mergeCell ref="U116:U117"/>
-    <mergeCell ref="U71:U72"/>
-    <mergeCell ref="U126:U127"/>
-    <mergeCell ref="U145:U146"/>
-    <mergeCell ref="U151:U152"/>
-    <mergeCell ref="U163:U164"/>
-    <mergeCell ref="U172:U173"/>
-    <mergeCell ref="U183:U184"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="L39:R39"/>
+    <mergeCell ref="L40:R40"/>
+    <mergeCell ref="L41:R41"/>
+    <mergeCell ref="L42:R42"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="L43:R43"/>
+    <mergeCell ref="L44:R44"/>
+    <mergeCell ref="L45:R45"/>
+    <mergeCell ref="L46:R46"/>
+    <mergeCell ref="L47:R47"/>
+    <mergeCell ref="L48:R48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:Q72"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="R71:S72"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7380,10 +7390,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7393,7 +7403,7 @@
     <col min="10" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="47" t="s">
         <v>170</v>
       </c>
@@ -7406,20 +7416,8 @@
       <c r="E1" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="F1" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
         <v>171</v>
       </c>
@@ -7435,20 +7433,8 @@
       <c r="E2" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>172</v>
       </c>
@@ -7464,20 +7450,8 @@
       <c r="E3" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>173</v>
       </c>
@@ -7493,20 +7467,8 @@
       <c r="E4" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="F4" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>174</v>
       </c>
@@ -7522,20 +7484,8 @@
       <c r="E5" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>182</v>
       </c>
@@ -7551,20 +7501,8 @@
       <c r="E6" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>184</v>
       </c>
@@ -7580,20 +7518,8 @@
       <c r="E7" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="F7" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>185</v>
       </c>
@@ -7609,20 +7535,8 @@
       <c r="E8" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>187</v>
       </c>
@@ -7638,20 +7552,8 @@
       <c r="E9" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="F9" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>189</v>
       </c>
@@ -7667,20 +7569,8 @@
       <c r="E10" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>191</v>
       </c>
@@ -7696,20 +7586,8 @@
       <c r="E11" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="F11" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>193</v>
       </c>
@@ -7725,20 +7603,8 @@
       <c r="E12" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="F12" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>194</v>
       </c>
@@ -7754,20 +7620,8 @@
       <c r="E13" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="F13" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="H13" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="I13" s="47" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>196</v>
       </c>
@@ -7783,20 +7637,8 @@
       <c r="E14" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="F14" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="G14" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="I14" s="47" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>198</v>
       </c>
@@ -7812,20 +7654,8 @@
       <c r="E15" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="F15" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="I15" s="47" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>200</v>
       </c>
@@ -7841,20 +7671,8 @@
       <c r="E16" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="F16" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="G16" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="I16" s="47" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>202</v>
       </c>
@@ -7870,20 +7688,8 @@
       <c r="E17" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="F17" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="G17" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="I17" s="47" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>204</v>
       </c>
@@ -7899,20 +7705,8 @@
       <c r="E18" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="F18" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="H18" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
         <v>206</v>
       </c>
@@ -7928,20 +7722,8 @@
       <c r="E19" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="F19" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="G19" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="I19" s="47" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
         <v>208</v>
       </c>
@@ -7957,16 +7739,362 @@
       <c r="E20" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="F20" s="47" t="s">
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="11.75" style="47" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="C20" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H20" s="47" t="s">
+      <c r="D20" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="I20" s="47" t="s">
+      <c r="E20" s="47" t="s">
         <v>209</v>
       </c>
     </row>

--- a/요구사항분석.xlsx
+++ b/요구사항분석.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항분석" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="219">
   <si>
     <t>STX</t>
   </si>
@@ -840,6 +840,14 @@
   </si>
   <si>
     <t>* Save 진행 시 1차축, 2차축 구분하여 2개의 파일로 저장 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_x0002__x0014_?_x0002__x0014__x0002__x0013__x0002__x0011__x0002__x0012_ß_x0002_a_x0001_­ _x0003_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_x0002__x0014_?d_x0002__x0013__x0002__x0011__x0002__x0012_ß_x0002_a_x0001_­ _x0003_</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1542,6 +1550,201 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1551,6 +1754,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1563,12 +1790,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1580,219 +1801,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4010,7 +4018,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4020,7 +4028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B26:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -4112,10 +4120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B13:U196"/>
+  <dimension ref="B13:V196"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M120" sqref="M120"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X127" sqref="X127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4144,419 +4152,419 @@
   <sheetData>
     <row r="13" spans="4:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="84"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="98"/>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="87"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="101"/>
     </row>
     <row r="16" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D16" s="85"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="87"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="101"/>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="87"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="101"/>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="87"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="101"/>
     </row>
     <row r="19" spans="4:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="90"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="104"/>
     </row>
     <row r="33" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="3:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="91" t="s">
+      <c r="C34" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74" t="s">
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="74" t="s">
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="74" t="s">
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="93"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="108"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="108"/>
+      <c r="Q34" s="108"/>
+      <c r="R34" s="109"/>
       <c r="S34" s="43"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C35" s="80" t="s">
+      <c r="C35" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="81" t="s">
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="94" t="s">
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="96"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="111"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="112"/>
       <c r="S35" s="44"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C36" s="80" t="s">
+      <c r="C36" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="81" t="s">
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="48" t="s">
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="50"/>
+      <c r="M36" s="114"/>
+      <c r="N36" s="114"/>
+      <c r="O36" s="114"/>
+      <c r="P36" s="114"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="115"/>
       <c r="S36" s="44"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="81" t="s">
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="48" t="s">
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="50"/>
+      <c r="M37" s="114"/>
+      <c r="N37" s="114"/>
+      <c r="O37" s="114"/>
+      <c r="P37" s="114"/>
+      <c r="Q37" s="114"/>
+      <c r="R37" s="115"/>
       <c r="S37" s="44"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C38" s="80" t="s">
+      <c r="C38" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="81" t="s">
+      <c r="D38" s="94"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="48" t="s">
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="50"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="114"/>
+      <c r="O38" s="114"/>
+      <c r="P38" s="114"/>
+      <c r="Q38" s="114"/>
+      <c r="R38" s="115"/>
       <c r="S38" s="44"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C39" s="80"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="50"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="119"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="114"/>
+      <c r="N39" s="114"/>
+      <c r="O39" s="114"/>
+      <c r="P39" s="114"/>
+      <c r="Q39" s="114"/>
+      <c r="R39" s="115"/>
       <c r="S39" s="44"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C40" s="78"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="49"/>
-      <c r="R40" s="50"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="117"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="117"/>
+      <c r="K40" s="117"/>
+      <c r="L40" s="124"/>
+      <c r="M40" s="114"/>
+      <c r="N40" s="114"/>
+      <c r="O40" s="114"/>
+      <c r="P40" s="114"/>
+      <c r="Q40" s="114"/>
+      <c r="R40" s="115"/>
       <c r="S40" s="44"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C41" s="78"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="50"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="119"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="124"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="114"/>
+      <c r="P41" s="114"/>
+      <c r="Q41" s="114"/>
+      <c r="R41" s="115"/>
       <c r="S41" s="44"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C42" s="78"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="50"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="119"/>
+      <c r="J42" s="117"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="124"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="115"/>
       <c r="S42" s="44"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C43" s="78"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="49"/>
-      <c r="Q43" s="49"/>
-      <c r="R43" s="50"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="119"/>
+      <c r="J43" s="117"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="124"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="114"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="115"/>
       <c r="S43" s="44"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C44" s="78"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="49"/>
-      <c r="Q44" s="49"/>
-      <c r="R44" s="50"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="117"/>
+      <c r="K44" s="117"/>
+      <c r="L44" s="124"/>
+      <c r="M44" s="114"/>
+      <c r="N44" s="114"/>
+      <c r="O44" s="114"/>
+      <c r="P44" s="114"/>
+      <c r="Q44" s="114"/>
+      <c r="R44" s="115"/>
       <c r="S44" s="44"/>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C45" s="78"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="49"/>
-      <c r="Q45" s="49"/>
-      <c r="R45" s="50"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="119"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="124"/>
+      <c r="M45" s="114"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="114"/>
+      <c r="P45" s="114"/>
+      <c r="Q45" s="114"/>
+      <c r="R45" s="115"/>
       <c r="S45" s="44"/>
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C46" s="78"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="66"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="49"/>
-      <c r="R46" s="50"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="119"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="124"/>
+      <c r="M46" s="114"/>
+      <c r="N46" s="114"/>
+      <c r="O46" s="114"/>
+      <c r="P46" s="114"/>
+      <c r="Q46" s="114"/>
+      <c r="R46" s="115"/>
       <c r="S46" s="44"/>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C47" s="78"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="49"/>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="49"/>
-      <c r="R47" s="50"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="119"/>
+      <c r="J47" s="117"/>
+      <c r="K47" s="117"/>
+      <c r="L47" s="124"/>
+      <c r="M47" s="114"/>
+      <c r="N47" s="114"/>
+      <c r="O47" s="114"/>
+      <c r="P47" s="114"/>
+      <c r="Q47" s="114"/>
+      <c r="R47" s="115"/>
       <c r="S47" s="44"/>
     </row>
     <row r="48" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="72"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="58"/>
-      <c r="R48" s="59"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="121"/>
+      <c r="K48" s="121"/>
+      <c r="L48" s="128"/>
+      <c r="M48" s="129"/>
+      <c r="N48" s="129"/>
+      <c r="O48" s="129"/>
+      <c r="P48" s="129"/>
+      <c r="Q48" s="129"/>
+      <c r="R48" s="130"/>
       <c r="S48" s="44"/>
     </row>
     <row r="54" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
@@ -4668,57 +4676,57 @@
       </c>
     </row>
     <row r="71" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="64" t="s">
+      <c r="B71" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C71" s="64" t="s">
+      <c r="C71" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D71" s="117" t="s">
+      <c r="D71" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="E71" s="62" t="s">
+      <c r="E71" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="63"/>
-      <c r="G71" s="62" t="s">
+      <c r="F71" s="64"/>
+      <c r="G71" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="63"/>
-      <c r="I71" s="62" t="s">
+      <c r="H71" s="64"/>
+      <c r="I71" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="J71" s="63"/>
-      <c r="K71" s="62" t="s">
+      <c r="J71" s="64"/>
+      <c r="K71" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="L71" s="63"/>
-      <c r="M71" s="62" t="s">
+      <c r="L71" s="64"/>
+      <c r="M71" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="N71" s="63"/>
-      <c r="O71" s="62" t="s">
+      <c r="N71" s="64"/>
+      <c r="O71" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="P71" s="63"/>
-      <c r="Q71" s="64" t="s">
+      <c r="P71" s="64"/>
+      <c r="Q71" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="R71" s="68" t="s">
+      <c r="R71" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="S71" s="69"/>
-      <c r="T71" s="64" t="s">
+      <c r="S71" s="58"/>
+      <c r="T71" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="U71" s="64" t="s">
+      <c r="U71" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="100"/>
-      <c r="C72" s="100"/>
-      <c r="D72" s="118"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="86"/>
       <c r="E72" s="7" t="s">
         <v>3</v>
       </c>
@@ -4756,10 +4764,10 @@
         <v>4</v>
       </c>
       <c r="Q72" s="65"/>
-      <c r="R72" s="70"/>
-      <c r="S72" s="71"/>
-      <c r="T72" s="99"/>
-      <c r="U72" s="99"/>
+      <c r="R72" s="59"/>
+      <c r="S72" s="60"/>
+      <c r="T72" s="49"/>
+      <c r="U72" s="49"/>
     </row>
     <row r="73" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="8" t="s">
@@ -4849,84 +4857,84 @@
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C82" s="119" t="s">
+      <c r="C82" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="120"/>
-      <c r="E82" s="120"/>
-      <c r="F82" s="121"/>
-      <c r="G82" s="119" t="s">
+      <c r="D82" s="88"/>
+      <c r="E82" s="88"/>
+      <c r="F82" s="89"/>
+      <c r="G82" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="H82" s="120"/>
-      <c r="I82" s="120"/>
-      <c r="J82" s="121"/>
-      <c r="K82" s="52" t="s">
+      <c r="H82" s="88"/>
+      <c r="I82" s="88"/>
+      <c r="J82" s="89"/>
+      <c r="K82" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="L82" s="53"/>
-      <c r="M82" s="53"/>
-      <c r="N82" s="54"/>
+      <c r="L82" s="126"/>
+      <c r="M82" s="126"/>
+      <c r="N82" s="127"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C83" s="55" t="s">
+      <c r="C83" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="122"/>
-      <c r="G83" s="55" t="s">
+      <c r="D83" s="91"/>
+      <c r="E83" s="91"/>
+      <c r="F83" s="92"/>
+      <c r="G83" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="122"/>
-      <c r="K83" s="55" t="s">
+      <c r="H83" s="91"/>
+      <c r="I83" s="91"/>
+      <c r="J83" s="92"/>
+      <c r="K83" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="L83" s="56"/>
-      <c r="M83" s="56"/>
-      <c r="N83" s="54"/>
+      <c r="L83" s="91"/>
+      <c r="M83" s="91"/>
+      <c r="N83" s="127"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C84" s="55" t="s">
+      <c r="C84" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="122"/>
-      <c r="G84" s="55" t="s">
+      <c r="D84" s="91"/>
+      <c r="E84" s="91"/>
+      <c r="F84" s="92"/>
+      <c r="G84" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="H84" s="56"/>
-      <c r="I84" s="56"/>
-      <c r="J84" s="122"/>
-      <c r="K84" s="55" t="s">
+      <c r="H84" s="91"/>
+      <c r="I84" s="91"/>
+      <c r="J84" s="92"/>
+      <c r="K84" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="L84" s="56"/>
-      <c r="M84" s="56"/>
-      <c r="N84" s="54"/>
+      <c r="L84" s="91"/>
+      <c r="M84" s="91"/>
+      <c r="N84" s="127"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C85" s="55" t="s">
+      <c r="C85" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="D85" s="56"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="122"/>
-      <c r="G85" s="55" t="s">
+      <c r="D85" s="91"/>
+      <c r="E85" s="91"/>
+      <c r="F85" s="92"/>
+      <c r="G85" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="122"/>
-      <c r="K85" s="55" t="s">
+      <c r="H85" s="91"/>
+      <c r="I85" s="91"/>
+      <c r="J85" s="92"/>
+      <c r="K85" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="L85" s="56"/>
-      <c r="M85" s="56"/>
-      <c r="N85" s="54"/>
+      <c r="L85" s="91"/>
+      <c r="M85" s="91"/>
+      <c r="N85" s="127"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C86" s="16"/>
@@ -5203,57 +5211,57 @@
       </c>
     </row>
     <row r="116" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="64" t="s">
+      <c r="B116" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C116" s="64" t="s">
+      <c r="C116" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D116" s="101" t="s">
+      <c r="D116" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E116" s="62" t="s">
+      <c r="E116" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F116" s="63"/>
-      <c r="G116" s="62" t="s">
+      <c r="F116" s="64"/>
+      <c r="G116" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="H116" s="63"/>
-      <c r="I116" s="62" t="s">
+      <c r="H116" s="64"/>
+      <c r="I116" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="J116" s="63"/>
-      <c r="K116" s="62" t="s">
+      <c r="J116" s="64"/>
+      <c r="K116" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="L116" s="63"/>
-      <c r="M116" s="62" t="s">
+      <c r="L116" s="64"/>
+      <c r="M116" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="N116" s="63"/>
-      <c r="O116" s="62" t="s">
+      <c r="N116" s="64"/>
+      <c r="O116" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="P116" s="63"/>
-      <c r="Q116" s="64" t="s">
+      <c r="P116" s="64"/>
+      <c r="Q116" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="R116" s="68" t="s">
+      <c r="R116" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="S116" s="69"/>
-      <c r="T116" s="64" t="s">
+      <c r="S116" s="58"/>
+      <c r="T116" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="U116" s="64" t="s">
+      <c r="U116" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="117" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="100"/>
-      <c r="C117" s="100"/>
-      <c r="D117" s="102"/>
+      <c r="B117" s="52"/>
+      <c r="C117" s="52"/>
+      <c r="D117" s="54"/>
       <c r="E117" s="7" t="s">
         <v>3</v>
       </c>
@@ -5291,10 +5299,10 @@
         <v>4</v>
       </c>
       <c r="Q117" s="65"/>
-      <c r="R117" s="70"/>
-      <c r="S117" s="71"/>
-      <c r="T117" s="99"/>
-      <c r="U117" s="99"/>
+      <c r="R117" s="59"/>
+      <c r="S117" s="60"/>
+      <c r="T117" s="49"/>
+      <c r="U117" s="49"/>
     </row>
     <row r="118" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B118" s="8" t="s">
@@ -5495,57 +5503,57 @@
       </c>
     </row>
     <row r="126" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="64" t="s">
+      <c r="B126" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C126" s="64" t="s">
+      <c r="C126" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D126" s="101" t="s">
+      <c r="D126" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E126" s="103" t="s">
+      <c r="E126" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F126" s="104"/>
-      <c r="G126" s="105" t="s">
+      <c r="F126" s="73"/>
+      <c r="G126" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H126" s="106"/>
-      <c r="I126" s="107" t="s">
+      <c r="H126" s="75"/>
+      <c r="I126" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="J126" s="108"/>
-      <c r="K126" s="109" t="s">
+      <c r="J126" s="77"/>
+      <c r="K126" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="L126" s="110"/>
-      <c r="M126" s="111" t="s">
+      <c r="L126" s="67"/>
+      <c r="M126" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="N126" s="112"/>
-      <c r="O126" s="113" t="s">
+      <c r="N126" s="69"/>
+      <c r="O126" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="P126" s="114"/>
-      <c r="Q126" s="97" t="s">
+      <c r="P126" s="71"/>
+      <c r="Q126" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="R126" s="123" t="s">
+      <c r="R126" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="S126" s="69"/>
-      <c r="T126" s="64" t="s">
+      <c r="S126" s="58"/>
+      <c r="T126" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="U126" s="64" t="s">
+      <c r="U126" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="127" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="100"/>
-      <c r="C127" s="100"/>
-      <c r="D127" s="102"/>
+      <c r="B127" s="52"/>
+      <c r="C127" s="52"/>
+      <c r="D127" s="54"/>
       <c r="E127" s="22" t="s">
         <v>3</v>
       </c>
@@ -5582,11 +5590,11 @@
       <c r="P127" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q127" s="98"/>
-      <c r="R127" s="124"/>
-      <c r="S127" s="71"/>
-      <c r="T127" s="99"/>
-      <c r="U127" s="99"/>
+      <c r="Q127" s="51"/>
+      <c r="R127" s="79"/>
+      <c r="S127" s="60"/>
+      <c r="T127" s="49"/>
+      <c r="U127" s="49"/>
     </row>
     <row r="128" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B128" s="8" t="s">
@@ -5650,47 +5658,53 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B130" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B131" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="132" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="V131" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="132" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B132" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B134" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="135" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="V134" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="135" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B135" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="137" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B137" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="2:21" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B141" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="143" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B143" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="144" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B144" s="2">
         <v>1</v>
       </c>
@@ -5753,57 +5767,57 @@
       </c>
     </row>
     <row r="145" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="64" t="s">
+      <c r="B145" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C145" s="64" t="s">
+      <c r="C145" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D145" s="101" t="s">
+      <c r="D145" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E145" s="62" t="s">
+      <c r="E145" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F145" s="63"/>
-      <c r="G145" s="62" t="s">
+      <c r="F145" s="64"/>
+      <c r="G145" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="H145" s="63"/>
-      <c r="I145" s="62" t="s">
+      <c r="H145" s="64"/>
+      <c r="I145" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="J145" s="63"/>
-      <c r="K145" s="62" t="s">
+      <c r="J145" s="64"/>
+      <c r="K145" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="L145" s="63"/>
-      <c r="M145" s="125" t="s">
+      <c r="L145" s="64"/>
+      <c r="M145" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="N145" s="126"/>
-      <c r="O145" s="127" t="s">
+      <c r="N145" s="81"/>
+      <c r="O145" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="P145" s="128"/>
-      <c r="Q145" s="117" t="s">
+      <c r="P145" s="83"/>
+      <c r="Q145" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="R145" s="68" t="s">
+      <c r="R145" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="S145" s="69"/>
-      <c r="T145" s="64" t="s">
+      <c r="S145" s="58"/>
+      <c r="T145" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="U145" s="64" t="s">
+      <c r="U145" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="146" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="100"/>
-      <c r="C146" s="100"/>
-      <c r="D146" s="102"/>
+      <c r="B146" s="52"/>
+      <c r="C146" s="52"/>
+      <c r="D146" s="54"/>
       <c r="E146" s="7" t="s">
         <v>3</v>
       </c>
@@ -5840,11 +5854,11 @@
       <c r="P146" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q146" s="129"/>
-      <c r="R146" s="70"/>
-      <c r="S146" s="71"/>
-      <c r="T146" s="99"/>
-      <c r="U146" s="99"/>
+      <c r="Q146" s="85"/>
+      <c r="R146" s="59"/>
+      <c r="S146" s="60"/>
+      <c r="T146" s="49"/>
+      <c r="U146" s="49"/>
     </row>
     <row r="147" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B147" s="8" t="s">
@@ -5976,57 +5990,57 @@
       </c>
     </row>
     <row r="151" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="64" t="s">
+      <c r="B151" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C151" s="64" t="s">
+      <c r="C151" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D151" s="101" t="s">
+      <c r="D151" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E151" s="103" t="s">
+      <c r="E151" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F151" s="104"/>
-      <c r="G151" s="105" t="s">
+      <c r="F151" s="73"/>
+      <c r="G151" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H151" s="106"/>
-      <c r="I151" s="107" t="s">
+      <c r="H151" s="75"/>
+      <c r="I151" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="J151" s="108"/>
-      <c r="K151" s="109" t="s">
+      <c r="J151" s="77"/>
+      <c r="K151" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="L151" s="110"/>
-      <c r="M151" s="111" t="s">
+      <c r="L151" s="67"/>
+      <c r="M151" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="N151" s="112"/>
-      <c r="O151" s="113" t="s">
+      <c r="N151" s="69"/>
+      <c r="O151" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="P151" s="114"/>
-      <c r="Q151" s="97" t="s">
+      <c r="P151" s="71"/>
+      <c r="Q151" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="R151" s="123" t="s">
+      <c r="R151" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="S151" s="69"/>
-      <c r="T151" s="64" t="s">
+      <c r="S151" s="58"/>
+      <c r="T151" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="U151" s="64" t="s">
+      <c r="U151" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="152" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="100"/>
-      <c r="C152" s="100"/>
-      <c r="D152" s="102"/>
+      <c r="B152" s="52"/>
+      <c r="C152" s="52"/>
+      <c r="D152" s="54"/>
       <c r="E152" s="22" t="s">
         <v>3</v>
       </c>
@@ -6063,11 +6077,11 @@
       <c r="P152" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q152" s="98"/>
-      <c r="R152" s="124"/>
-      <c r="S152" s="71"/>
-      <c r="T152" s="99"/>
-      <c r="U152" s="99"/>
+      <c r="Q152" s="51"/>
+      <c r="R152" s="79"/>
+      <c r="S152" s="60"/>
+      <c r="T152" s="49"/>
+      <c r="U152" s="49"/>
     </row>
     <row r="153" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B153" s="8" t="s">
@@ -6214,57 +6228,57 @@
       </c>
     </row>
     <row r="163" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="64" t="s">
+      <c r="B163" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C163" s="64" t="s">
+      <c r="C163" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D163" s="101" t="s">
+      <c r="D163" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E163" s="103" t="s">
+      <c r="E163" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F163" s="104"/>
-      <c r="G163" s="105" t="s">
+      <c r="F163" s="73"/>
+      <c r="G163" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H163" s="106"/>
-      <c r="I163" s="107" t="s">
+      <c r="H163" s="75"/>
+      <c r="I163" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="J163" s="108"/>
-      <c r="K163" s="109" t="s">
+      <c r="J163" s="77"/>
+      <c r="K163" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="L163" s="110"/>
-      <c r="M163" s="111" t="s">
+      <c r="L163" s="67"/>
+      <c r="M163" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="N163" s="112"/>
-      <c r="O163" s="113" t="s">
+      <c r="N163" s="69"/>
+      <c r="O163" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="P163" s="114"/>
-      <c r="Q163" s="97" t="s">
+      <c r="P163" s="71"/>
+      <c r="Q163" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="R163" s="68" t="s">
+      <c r="R163" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="S163" s="69"/>
-      <c r="T163" s="64" t="s">
+      <c r="S163" s="58"/>
+      <c r="T163" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="U163" s="64" t="s">
+      <c r="U163" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="164" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="100"/>
-      <c r="C164" s="100"/>
-      <c r="D164" s="102"/>
+      <c r="B164" s="52"/>
+      <c r="C164" s="52"/>
+      <c r="D164" s="54"/>
       <c r="E164" s="22" t="s">
         <v>3</v>
       </c>
@@ -6301,11 +6315,11 @@
       <c r="P164" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q164" s="98"/>
-      <c r="R164" s="70"/>
-      <c r="S164" s="71"/>
-      <c r="T164" s="99"/>
-      <c r="U164" s="99"/>
+      <c r="Q164" s="51"/>
+      <c r="R164" s="59"/>
+      <c r="S164" s="60"/>
+      <c r="T164" s="49"/>
+      <c r="U164" s="49"/>
     </row>
     <row r="165" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B165" s="8" t="s">
@@ -6504,57 +6518,57 @@
       </c>
     </row>
     <row r="172" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="64" t="s">
+      <c r="B172" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C172" s="64" t="s">
+      <c r="C172" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D172" s="101" t="s">
+      <c r="D172" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E172" s="103" t="s">
+      <c r="E172" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F172" s="104"/>
-      <c r="G172" s="105" t="s">
+      <c r="F172" s="73"/>
+      <c r="G172" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H172" s="106"/>
-      <c r="I172" s="107" t="s">
+      <c r="H172" s="75"/>
+      <c r="I172" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="J172" s="108"/>
-      <c r="K172" s="109" t="s">
+      <c r="J172" s="77"/>
+      <c r="K172" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="L172" s="110"/>
-      <c r="M172" s="111" t="s">
+      <c r="L172" s="67"/>
+      <c r="M172" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="N172" s="112"/>
-      <c r="O172" s="113" t="s">
+      <c r="N172" s="69"/>
+      <c r="O172" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="P172" s="114"/>
-      <c r="Q172" s="97" t="s">
+      <c r="P172" s="71"/>
+      <c r="Q172" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="R172" s="115" t="s">
+      <c r="R172" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="S172" s="69"/>
-      <c r="T172" s="64" t="s">
+      <c r="S172" s="58"/>
+      <c r="T172" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="U172" s="64" t="s">
+      <c r="U172" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="173" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B173" s="100"/>
-      <c r="C173" s="100"/>
-      <c r="D173" s="102"/>
+      <c r="B173" s="52"/>
+      <c r="C173" s="52"/>
+      <c r="D173" s="54"/>
       <c r="E173" s="22" t="s">
         <v>3</v>
       </c>
@@ -6591,11 +6605,11 @@
       <c r="P173" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q173" s="98"/>
-      <c r="R173" s="116"/>
-      <c r="S173" s="71"/>
-      <c r="T173" s="99"/>
-      <c r="U173" s="99"/>
+      <c r="Q173" s="51"/>
+      <c r="R173" s="62"/>
+      <c r="S173" s="60"/>
+      <c r="T173" s="49"/>
+      <c r="U173" s="49"/>
     </row>
     <row r="174" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B174" s="8" t="s">
@@ -6737,57 +6751,57 @@
       </c>
     </row>
     <row r="183" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B183" s="64" t="s">
+      <c r="B183" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C183" s="64" t="s">
+      <c r="C183" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D183" s="101" t="s">
+      <c r="D183" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E183" s="130" t="s">
+      <c r="E183" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F183" s="131"/>
-      <c r="G183" s="130" t="s">
+      <c r="F183" s="56"/>
+      <c r="G183" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H183" s="131"/>
-      <c r="I183" s="130" t="s">
+      <c r="H183" s="56"/>
+      <c r="I183" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J183" s="131"/>
-      <c r="K183" s="130" t="s">
+      <c r="J183" s="56"/>
+      <c r="K183" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="L183" s="131"/>
-      <c r="M183" s="130" t="s">
+      <c r="L183" s="56"/>
+      <c r="M183" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="N183" s="131"/>
-      <c r="O183" s="130" t="s">
+      <c r="N183" s="56"/>
+      <c r="O183" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="P183" s="131"/>
-      <c r="Q183" s="97" t="s">
+      <c r="P183" s="56"/>
+      <c r="Q183" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="R183" s="68" t="s">
+      <c r="R183" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="S183" s="69"/>
-      <c r="T183" s="64" t="s">
+      <c r="S183" s="58"/>
+      <c r="T183" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="U183" s="64" t="s">
+      <c r="U183" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="184" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B184" s="100"/>
-      <c r="C184" s="100"/>
-      <c r="D184" s="102"/>
+      <c r="B184" s="52"/>
+      <c r="C184" s="52"/>
+      <c r="D184" s="54"/>
       <c r="E184" s="15" t="s">
         <v>3</v>
       </c>
@@ -6824,11 +6838,11 @@
       <c r="P184" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q184" s="98"/>
-      <c r="R184" s="70"/>
-      <c r="S184" s="71"/>
-      <c r="T184" s="99"/>
-      <c r="U184" s="99"/>
+      <c r="Q184" s="51"/>
+      <c r="R184" s="59"/>
+      <c r="S184" s="60"/>
+      <c r="T184" s="49"/>
+      <c r="U184" s="49"/>
     </row>
     <row r="185" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B185" s="8" t="s">
@@ -7024,57 +7038,57 @@
       </c>
     </row>
     <row r="192" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B192" s="64" t="s">
+      <c r="B192" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="64" t="s">
+      <c r="C192" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D192" s="101" t="s">
+      <c r="D192" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E192" s="130" t="s">
+      <c r="E192" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F192" s="131"/>
-      <c r="G192" s="130" t="s">
+      <c r="F192" s="56"/>
+      <c r="G192" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H192" s="131"/>
-      <c r="I192" s="130" t="s">
+      <c r="H192" s="56"/>
+      <c r="I192" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J192" s="131"/>
-      <c r="K192" s="130" t="s">
+      <c r="J192" s="56"/>
+      <c r="K192" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="L192" s="131"/>
-      <c r="M192" s="130" t="s">
+      <c r="L192" s="56"/>
+      <c r="M192" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="N192" s="131"/>
-      <c r="O192" s="130" t="s">
+      <c r="N192" s="56"/>
+      <c r="O192" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="P192" s="131"/>
-      <c r="Q192" s="97" t="s">
+      <c r="P192" s="56"/>
+      <c r="Q192" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="R192" s="115" t="s">
+      <c r="R192" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="S192" s="69"/>
-      <c r="T192" s="64" t="s">
+      <c r="S192" s="58"/>
+      <c r="T192" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="U192" s="64" t="s">
+      <c r="U192" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="193" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="100"/>
-      <c r="C193" s="100"/>
-      <c r="D193" s="102"/>
+      <c r="B193" s="52"/>
+      <c r="C193" s="52"/>
+      <c r="D193" s="54"/>
       <c r="E193" s="15" t="s">
         <v>3</v>
       </c>
@@ -7111,11 +7125,11 @@
       <c r="P193" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q193" s="98"/>
-      <c r="R193" s="116"/>
-      <c r="S193" s="71"/>
-      <c r="T193" s="99"/>
-      <c r="U193" s="99"/>
+      <c r="Q193" s="51"/>
+      <c r="R193" s="62"/>
+      <c r="S193" s="60"/>
+      <c r="T193" s="49"/>
+      <c r="U193" s="49"/>
     </row>
     <row r="194" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B194" s="8" t="s">
@@ -7186,15 +7200,163 @@
     </row>
   </sheetData>
   <mergeCells count="190">
-    <mergeCell ref="T71:T72"/>
-    <mergeCell ref="U116:U117"/>
-    <mergeCell ref="U71:U72"/>
-    <mergeCell ref="U126:U127"/>
-    <mergeCell ref="U145:U146"/>
-    <mergeCell ref="U151:U152"/>
-    <mergeCell ref="U163:U164"/>
-    <mergeCell ref="U172:U173"/>
-    <mergeCell ref="U183:U184"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="L39:R39"/>
+    <mergeCell ref="L40:R40"/>
+    <mergeCell ref="L41:R41"/>
+    <mergeCell ref="L42:R42"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="L43:R43"/>
+    <mergeCell ref="L44:R44"/>
+    <mergeCell ref="L45:R45"/>
+    <mergeCell ref="L46:R46"/>
+    <mergeCell ref="L47:R47"/>
+    <mergeCell ref="L48:R48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:Q72"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="R71:S72"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="D14:Q19"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="L34:R34"/>
+    <mergeCell ref="L35:R35"/>
+    <mergeCell ref="L36:R36"/>
+    <mergeCell ref="L37:R37"/>
+    <mergeCell ref="Q172:Q173"/>
+    <mergeCell ref="T172:T173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="I172:J172"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="O163:P163"/>
+    <mergeCell ref="Q163:Q164"/>
+    <mergeCell ref="R172:S173"/>
+    <mergeCell ref="T163:T164"/>
+    <mergeCell ref="R163:S164"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="O172:P172"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="I163:J163"/>
+    <mergeCell ref="Q151:Q152"/>
+    <mergeCell ref="T151:T152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="I151:J151"/>
+    <mergeCell ref="R151:S152"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="O151:P151"/>
+    <mergeCell ref="R126:S127"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="O145:P145"/>
+    <mergeCell ref="Q145:Q146"/>
+    <mergeCell ref="T145:T146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="I145:J145"/>
+    <mergeCell ref="R145:S146"/>
+    <mergeCell ref="R192:S193"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="T116:T117"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="O116:P116"/>
+    <mergeCell ref="Q116:Q117"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="R116:S117"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="O126:P126"/>
+    <mergeCell ref="Q126:Q127"/>
+    <mergeCell ref="T126:T127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="I126:J126"/>
     <mergeCell ref="U192:U193"/>
     <mergeCell ref="Q183:Q184"/>
     <mergeCell ref="T183:T184"/>
@@ -7219,163 +7381,15 @@
     <mergeCell ref="M183:N183"/>
     <mergeCell ref="O183:P183"/>
     <mergeCell ref="R183:S184"/>
-    <mergeCell ref="R192:S193"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="T116:T117"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="O116:P116"/>
-    <mergeCell ref="Q116:Q117"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="R116:S117"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="O126:P126"/>
-    <mergeCell ref="Q126:Q127"/>
-    <mergeCell ref="T126:T127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="I126:J126"/>
-    <mergeCell ref="R126:S127"/>
-    <mergeCell ref="K145:L145"/>
-    <mergeCell ref="M145:N145"/>
-    <mergeCell ref="O145:P145"/>
-    <mergeCell ref="Q145:Q146"/>
-    <mergeCell ref="T145:T146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="I145:J145"/>
-    <mergeCell ref="R145:S146"/>
-    <mergeCell ref="Q151:Q152"/>
-    <mergeCell ref="T151:T152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="I151:J151"/>
-    <mergeCell ref="R151:S152"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="O151:P151"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K172:L172"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="O172:P172"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="I163:J163"/>
-    <mergeCell ref="Q172:Q173"/>
-    <mergeCell ref="T172:T173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="I172:J172"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="O163:P163"/>
-    <mergeCell ref="Q163:Q164"/>
-    <mergeCell ref="R172:S173"/>
-    <mergeCell ref="T163:T164"/>
-    <mergeCell ref="R163:S164"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="D14:Q19"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="L34:R34"/>
-    <mergeCell ref="L35:R35"/>
-    <mergeCell ref="L36:R36"/>
-    <mergeCell ref="L37:R37"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="L38:R38"/>
-    <mergeCell ref="L39:R39"/>
-    <mergeCell ref="L40:R40"/>
-    <mergeCell ref="L41:R41"/>
-    <mergeCell ref="L42:R42"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="L43:R43"/>
-    <mergeCell ref="L44:R44"/>
-    <mergeCell ref="L45:R45"/>
-    <mergeCell ref="L46:R46"/>
-    <mergeCell ref="L47:R47"/>
-    <mergeCell ref="L48:R48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="Q71:Q72"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="R71:S72"/>
+    <mergeCell ref="T71:T72"/>
+    <mergeCell ref="U116:U117"/>
+    <mergeCell ref="U71:U72"/>
+    <mergeCell ref="U126:U127"/>
+    <mergeCell ref="U145:U146"/>
+    <mergeCell ref="U151:U152"/>
+    <mergeCell ref="U163:U164"/>
+    <mergeCell ref="U172:U173"/>
+    <mergeCell ref="U183:U184"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/요구사항분석.xlsx
+++ b/요구사항분석.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14055" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항분석" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="220">
   <si>
     <t>STX</t>
   </si>
@@ -843,11 +843,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>_x0002__x0014_?d_x0002__x0013__x0002__x0011__x0002__x0012_ß_x0002_a_x0001_­ _x0003_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_x0002__x0014__x0001_               _x0017__x0003_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>_x0002__x0014_?_x0002__x0014__x0002__x0013__x0002__x0011__x0002__x0012_ß_x0002_a_x0001_­ _x0003_</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>_x0002__x0014_?d_x0002__x0013__x0002__x0011__x0002__x0012_ß_x0002_a_x0001_­ _x0003_</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2251,7 +2255,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>UDP </a:t>
+            <a:t>TCP </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
@@ -2389,7 +2393,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="434927" cy="264560"/>
+    <xdr:ext cx="401520" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -2398,7 +2402,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5043488" y="2400300"/>
-          <a:ext cx="434927" cy="264560"/>
+          <a:ext cx="401520" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2434,7 +2438,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>UDP</a:t>
+            <a:t>TCP</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2595,7 +2599,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>(UDP Server) &lt;-&gt; PC (UDP Client)</a:t>
+            <a:t>(TCP Server) &lt;-&gt; PC (TCP Client)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
         </a:p>
@@ -2610,7 +2614,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>UDP(Server)</a:t>
+            <a:t>TCP(Server)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3309,7 +3313,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="434927" cy="264560"/>
+    <xdr:ext cx="401520" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="TextBox 22"/>
@@ -3318,7 +3322,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5043488" y="2914650"/>
-          <a:ext cx="434927" cy="264560"/>
+          <a:ext cx="401520" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3354,7 +3358,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>UDP</a:t>
+            <a:t>TCP</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -4028,8 +4032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B26:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4122,8 +4126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B13:V196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X127" sqref="X127"/>
+    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V131" sqref="V131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5143,12 +5147,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="114" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B114" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="115" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B115" s="2">
         <v>1</v>
       </c>
@@ -5210,7 +5214,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="116" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B116" s="48" t="s">
         <v>0</v>
       </c>
@@ -5258,7 +5262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B117" s="52"/>
       <c r="C117" s="52"/>
       <c r="D117" s="54"/>
@@ -5304,7 +5308,7 @@
       <c r="T117" s="49"/>
       <c r="U117" s="49"/>
     </row>
-    <row r="118" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B118" s="8" t="s">
         <v>9</v>
       </c>
@@ -5365,8 +5369,11 @@
       <c r="U118" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="119" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="V118" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="119" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="19"/>
@@ -5387,7 +5394,7 @@
       <c r="S119" s="18"/>
       <c r="T119" s="18"/>
     </row>
-    <row r="120" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B120" s="1" t="s">
         <v>63</v>
       </c>
@@ -5410,7 +5417,7 @@
       <c r="S120" s="18"/>
       <c r="T120" s="18"/>
     </row>
-    <row r="121" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C121" s="18"/>
       <c r="D121" s="19"/>
       <c r="E121" s="18"/>
@@ -5430,17 +5437,17 @@
       <c r="S121" s="18"/>
       <c r="T121" s="18"/>
     </row>
-    <row r="123" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B123" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="124" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B124" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="125" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B125" s="2">
         <v>1</v>
       </c>
@@ -5502,7 +5509,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="126" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B126" s="48" t="s">
         <v>0</v>
       </c>
@@ -5550,7 +5557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B127" s="52"/>
       <c r="C127" s="52"/>
       <c r="D127" s="54"/>
@@ -5596,7 +5603,7 @@
       <c r="T127" s="49"/>
       <c r="U127" s="49"/>
     </row>
-    <row r="128" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B128" s="8" t="s">
         <v>9</v>
       </c>
@@ -5668,7 +5675,7 @@
         <v>61</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="132" spans="2:22" x14ac:dyDescent="0.3">
@@ -5681,7 +5688,7 @@
         <v>23</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="135" spans="2:22" x14ac:dyDescent="0.3">
